--- a/01_Planning/ProductBurndown.xlsx
+++ b/01_Planning/ProductBurndown.xlsx
@@ -153,9 +153,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -185,6 +182,9 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -642,11 +642,11 @@
         </c:dLbls>
         <c:gapWidth val="40"/>
         <c:overlap val="-10"/>
-        <c:axId val="374332264"/>
-        <c:axId val="374329520"/>
+        <c:axId val="469860400"/>
+        <c:axId val="469854912"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="374332264"/>
+        <c:axId val="469860400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -685,14 +685,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374329520"/>
+        <c:crossAx val="469854912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="374329520"/>
+        <c:axId val="469854912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -738,7 +738,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374332264"/>
+        <c:crossAx val="469860400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -1209,46 +1209,46 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="2" customWidth="1"/>
-    <col min="2" max="3" width="19.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="2" customWidth="1"/>
-    <col min="5" max="256" width="19.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="19.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="1" customWidth="1"/>
+    <col min="5" max="256" width="19.5703125" style="1" customWidth="1"/>
     <col min="257" max="1025" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="32.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="e">
+      <c r="A3" s="3">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="e">
         <f>B3/C3</f>
         <v>#DIV/0!</v>
       </c>
@@ -1276,1755 +1276,1755 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="2" customWidth="1"/>
-    <col min="11" max="256" width="14.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="1" customWidth="1"/>
+    <col min="11" max="256" width="14.42578125" style="1" customWidth="1"/>
     <col min="257" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:11" ht="44.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>41391</v>
       </c>
-      <c r="B3" s="4">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>8</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="B3" s="3">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4">
         <f>'Sheet 1 - Initial'!A3+C3</f>
         <v>10</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <f>'Sheet 1 - Initial'!B3</f>
         <v>0</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <f t="shared" ref="H3:H48" si="0">G3+D3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <f>'Sheet 1 - Initial'!C3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <f>MAX(IF(OR(ISBLANK(D3),ISBLANK(E3)),F3-'Sheet 1 - Initial'!D3*B3,F3-D3),0)</f>
         <v>10</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <f>IF(OR(ISBLANK(D3),ISBLANK(E3)),'Sheet 1 - Initial'!D3,H3/(I3+E3))</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <f t="shared" ref="A4:A48" si="1">A3+7</f>
         <v>41398</v>
       </c>
-      <c r="B4" s="4">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5">
+      <c r="B4" s="3">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4">
         <f t="shared" ref="F4:F48" si="2">J3+C4</f>
         <v>10</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <f t="shared" ref="G4:G48" si="3">H3</f>
         <v>0</v>
       </c>
-      <c r="H4" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
         <f t="shared" ref="I4:I48" si="4">I3+E3</f>
         <v>8</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <f t="shared" ref="J4:J48" si="5">MAX(IF(OR(ISBLANK(D4),ISBLANK(E4)),F4-K3*B4,F4-D4),0)</f>
         <v>10</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <f t="shared" ref="K4:K48" si="6">IF(OR(ISBLANK(D4),ISBLANK(E4)),K3,H4/(I4+E4))</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <f t="shared" si="1"/>
         <v>41405</v>
       </c>
-      <c r="B5" s="4">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G5" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J5" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K5" s="8">
+      <c r="B5" s="3">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K5" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <f t="shared" si="1"/>
         <v>41412</v>
       </c>
-      <c r="B6" s="4">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G6" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J6" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K6" s="8">
+      <c r="B6" s="3">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K6" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <f t="shared" si="1"/>
         <v>41419</v>
       </c>
-      <c r="B7" s="4">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G7" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J7" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K7" s="8">
+      <c r="B7" s="3">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K7" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <f t="shared" si="1"/>
         <v>41426</v>
       </c>
-      <c r="B8" s="4">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G8" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J8" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K8" s="8">
+      <c r="B8" s="3">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K8" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <f t="shared" si="1"/>
         <v>41433</v>
       </c>
-      <c r="B9" s="4">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G9" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J9" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K9" s="8">
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K9" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <f t="shared" si="1"/>
         <v>41440</v>
       </c>
-      <c r="B10" s="4">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G10" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J10" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K10" s="8">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K10" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <f t="shared" si="1"/>
         <v>41447</v>
       </c>
-      <c r="B11" s="4">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G11" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J11" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K11" s="8">
+      <c r="B11" s="3">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K11" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <f t="shared" si="1"/>
         <v>41454</v>
       </c>
-      <c r="B12" s="4">
-        <v>8</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G12" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J12" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="8">
+      <c r="B12" s="3">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <f t="shared" si="1"/>
         <v>41461</v>
       </c>
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G13" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J13" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K13" s="8">
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K13" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <f t="shared" si="1"/>
         <v>41468</v>
       </c>
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G14" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J14" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K14" s="8">
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K14" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <f t="shared" si="1"/>
         <v>41475</v>
       </c>
-      <c r="B15" s="4">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G15" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J15" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K15" s="8">
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K15" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <f t="shared" si="1"/>
         <v>41482</v>
       </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G16" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J16" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K16" s="8">
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K16" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <f t="shared" si="1"/>
         <v>41489</v>
       </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G17" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J17" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K17" s="8">
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K17" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <f t="shared" si="1"/>
         <v>41496</v>
       </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G18" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J18" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K18" s="8">
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K18" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <f t="shared" si="1"/>
         <v>41503</v>
       </c>
-      <c r="B19" s="4">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G19" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J19" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K19" s="8">
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K19" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <f t="shared" si="1"/>
         <v>41510</v>
       </c>
-      <c r="B20" s="4">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G20" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J20" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K20" s="8">
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K20" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <f t="shared" si="1"/>
         <v>41517</v>
       </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G21" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J21" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K21" s="8">
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K21" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <f t="shared" si="1"/>
         <v>41524</v>
       </c>
-      <c r="B22" s="4">
-        <v>8</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G22" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J22" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K22" s="8">
+      <c r="B22" s="3">
+        <v>8</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K22" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <f t="shared" si="1"/>
         <v>41531</v>
       </c>
-      <c r="B23" s="4">
-        <v>8</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G23" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J23" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K23" s="8">
+      <c r="B23" s="3">
+        <v>8</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K23" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <f t="shared" si="1"/>
         <v>41538</v>
       </c>
-      <c r="B24" s="4">
-        <v>8</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G24" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J24" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K24" s="8">
+      <c r="B24" s="3">
+        <v>8</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K24" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <f t="shared" si="1"/>
         <v>41545</v>
       </c>
-      <c r="B25" s="4">
-        <v>8</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G25" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J25" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K25" s="8">
+      <c r="B25" s="3">
+        <v>8</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K25" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <f t="shared" si="1"/>
         <v>41552</v>
       </c>
-      <c r="B26" s="4">
-        <v>8</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G26" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J26" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K26" s="8">
+      <c r="B26" s="3">
+        <v>8</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K26" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <f t="shared" si="1"/>
         <v>41559</v>
       </c>
-      <c r="B27" s="4">
-        <v>8</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G27" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J27" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K27" s="8">
+      <c r="B27" s="3">
+        <v>8</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K27" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <f t="shared" si="1"/>
         <v>41566</v>
       </c>
-      <c r="B28" s="4">
-        <v>8</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G28" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J28" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K28" s="8">
+      <c r="B28" s="3">
+        <v>8</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K28" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <f t="shared" si="1"/>
         <v>41573</v>
       </c>
-      <c r="B29" s="4">
-        <v>8</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G29" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J29" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K29" s="8">
+      <c r="B29" s="3">
+        <v>8</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J29" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K29" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <f t="shared" si="1"/>
         <v>41580</v>
       </c>
-      <c r="B30" s="4">
-        <v>8</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G30" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J30" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K30" s="8">
+      <c r="B30" s="3">
+        <v>8</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J30" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K30" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <f t="shared" si="1"/>
         <v>41587</v>
       </c>
-      <c r="B31" s="4">
-        <v>8</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G31" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J31" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K31" s="8">
+      <c r="B31" s="3">
+        <v>8</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J31" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K31" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <f t="shared" si="1"/>
         <v>41594</v>
       </c>
-      <c r="B32" s="4">
-        <v>8</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G32" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J32" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K32" s="8">
+      <c r="B32" s="3">
+        <v>8</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J32" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K32" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <f t="shared" si="1"/>
         <v>41601</v>
       </c>
-      <c r="B33" s="4">
-        <v>8</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G33" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J33" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K33" s="8">
+      <c r="B33" s="3">
+        <v>8</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J33" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K33" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <f t="shared" si="1"/>
         <v>41608</v>
       </c>
-      <c r="B34" s="4">
-        <v>8</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G34" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J34" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K34" s="8">
+      <c r="B34" s="3">
+        <v>8</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J34" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K34" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
+      <c r="A35" s="5">
         <f t="shared" si="1"/>
         <v>41615</v>
       </c>
-      <c r="B35" s="4">
-        <v>8</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G35" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J35" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K35" s="8">
+      <c r="B35" s="3">
+        <v>8</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J35" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K35" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
+      <c r="A36" s="5">
         <f t="shared" si="1"/>
         <v>41622</v>
       </c>
-      <c r="B36" s="4">
-        <v>8</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G36" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J36" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K36" s="8">
+      <c r="B36" s="3">
+        <v>8</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G36" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J36" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K36" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="6">
+      <c r="A37" s="5">
         <f t="shared" si="1"/>
         <v>41629</v>
       </c>
-      <c r="B37" s="4">
-        <v>8</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G37" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J37" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K37" s="8">
+      <c r="B37" s="3">
+        <v>8</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J37" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K37" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
+      <c r="A38" s="5">
         <f t="shared" si="1"/>
         <v>41636</v>
       </c>
-      <c r="B38" s="4">
-        <v>8</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G38" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J38" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K38" s="8">
+      <c r="B38" s="3">
+        <v>8</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G38" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J38" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K38" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="6">
+      <c r="A39" s="5">
         <f t="shared" si="1"/>
         <v>41643</v>
       </c>
-      <c r="B39" s="4">
-        <v>8</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G39" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J39" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K39" s="8">
+      <c r="B39" s="3">
+        <v>8</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G39" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J39" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K39" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
+      <c r="A40" s="5">
         <f t="shared" si="1"/>
         <v>41650</v>
       </c>
-      <c r="B40" s="4">
-        <v>8</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G40" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J40" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K40" s="8">
+      <c r="B40" s="3">
+        <v>8</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G40" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J40" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K40" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
+      <c r="A41" s="5">
         <f t="shared" si="1"/>
         <v>41657</v>
       </c>
-      <c r="B41" s="4">
-        <v>8</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G41" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J41" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K41" s="8">
+      <c r="B41" s="3">
+        <v>8</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G41" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J41" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K41" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
+      <c r="A42" s="5">
         <f t="shared" si="1"/>
         <v>41664</v>
       </c>
-      <c r="B42" s="4">
-        <v>8</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G42" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H42" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J42" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K42" s="8">
+      <c r="B42" s="3">
+        <v>8</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G42" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J42" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K42" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="6">
+      <c r="A43" s="5">
         <f t="shared" si="1"/>
         <v>41671</v>
       </c>
-      <c r="B43" s="4">
-        <v>8</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G43" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J43" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K43" s="8">
+      <c r="B43" s="3">
+        <v>8</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G43" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J43" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K43" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
+      <c r="A44" s="5">
         <f t="shared" si="1"/>
         <v>41678</v>
       </c>
-      <c r="B44" s="4">
-        <v>8</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G44" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J44" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K44" s="8">
+      <c r="B44" s="3">
+        <v>8</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G44" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J44" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K44" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="6">
+      <c r="A45" s="5">
         <f t="shared" si="1"/>
         <v>41685</v>
       </c>
-      <c r="B45" s="4">
-        <v>8</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G45" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J45" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K45" s="8">
+      <c r="B45" s="3">
+        <v>8</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G45" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J45" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K45" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
+      <c r="A46" s="5">
         <f t="shared" si="1"/>
         <v>41692</v>
       </c>
-      <c r="B46" s="4">
-        <v>8</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G46" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J46" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K46" s="8">
+      <c r="B46" s="3">
+        <v>8</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G46" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J46" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K46" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="6">
+      <c r="A47" s="5">
         <f t="shared" si="1"/>
         <v>41699</v>
       </c>
-      <c r="B47" s="4">
-        <v>8</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G47" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J47" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K47" s="8">
+      <c r="B47" s="3">
+        <v>8</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G47" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J47" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K47" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
+      <c r="A48" s="5">
         <f t="shared" si="1"/>
         <v>41706</v>
       </c>
-      <c r="B48" s="4">
-        <v>8</v>
-      </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G48" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J48" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K48" s="8">
+      <c r="B48" s="3">
+        <v>8</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G48" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J48" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K48" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="9"/>
-      <c r="B49" s="10">
+      <c r="A49" s="8"/>
+      <c r="B49" s="9">
         <f>SUM(B3:B27)</f>
-        <v>128</v>
-      </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10">
+        <v>127</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9">
         <f>AVERAGE(D3:D48)</f>
         <v>0</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="9">
         <f>AVERAGE(E3:E48)</f>
         <v>8</v>
       </c>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="11"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/01_Planning/ProductBurndown.xlsx
+++ b/01_Planning/ProductBurndown.xlsx
@@ -491,142 +491,142 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
                 <c:pt idx="0" formatCode="0.0">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -642,11 +642,11 @@
         </c:dLbls>
         <c:gapWidth val="40"/>
         <c:overlap val="-10"/>
-        <c:axId val="469860400"/>
-        <c:axId val="469854912"/>
+        <c:axId val="459422912"/>
+        <c:axId val="459418992"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="469860400"/>
+        <c:axId val="459422912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -685,14 +685,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469854912"/>
+        <c:crossAx val="459418992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="469854912"/>
+        <c:axId val="459418992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -738,7 +738,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469860400"/>
+        <c:crossAx val="459422912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -1204,7 +1204,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="3" spans="1:4" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -1276,7 +1276,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="F3" s="4">
         <f>'Sheet 1 - Initial'!A3+C3</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G3" s="4">
         <f>'Sheet 1 - Initial'!B3</f>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="J3" s="6">
         <f>MAX(IF(OR(ISBLANK(D3),ISBLANK(E3)),F3-'Sheet 1 - Initial'!D3*B3,F3-D3),0)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K3" s="7">
         <f>IF(OR(ISBLANK(D3),ISBLANK(E3)),'Sheet 1 - Initial'!D3,H3/(I3+E3))</f>
@@ -1394,10 +1394,12 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3">
+        <v>7</v>
+      </c>
       <c r="F4" s="4">
         <f t="shared" ref="F4:F48" si="2">J3+C4</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" ref="G4:G48" si="3">H3</f>
@@ -1413,7 +1415,7 @@
       </c>
       <c r="J4" s="4">
         <f t="shared" ref="J4:J48" si="5">MAX(IF(OR(ISBLANK(D4),ISBLANK(E4)),F4-K3*B4,F4-D4),0)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7">
         <f t="shared" ref="K4:K48" si="6">IF(OR(ISBLANK(D4),ISBLANK(E4)),K3,H4/(I4+E4))</f>
@@ -1426,14 +1428,16 @@
         <v>41405</v>
       </c>
       <c r="B5" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3">
+        <v>6</v>
+      </c>
       <c r="F5" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="3"/>
@@ -1445,11 +1449,11 @@
       </c>
       <c r="I5" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K5" s="7">
         <f t="shared" si="6"/>
@@ -1462,14 +1466,14 @@
         <v>41412</v>
       </c>
       <c r="B6" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="3"/>
@@ -1481,11 +1485,11 @@
       </c>
       <c r="I6" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K6" s="7">
         <f t="shared" si="6"/>
@@ -1505,7 +1509,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="3"/>
@@ -1517,11 +1521,11 @@
       </c>
       <c r="I7" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" si="6"/>
@@ -1541,7 +1545,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="3"/>
@@ -1553,11 +1557,11 @@
       </c>
       <c r="I8" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="6"/>
@@ -1577,7 +1581,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="3"/>
@@ -1589,11 +1593,11 @@
       </c>
       <c r="I9" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="6"/>
@@ -1613,7 +1617,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="3"/>
@@ -1625,11 +1629,11 @@
       </c>
       <c r="I10" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" si="6"/>
@@ -1649,7 +1653,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="3"/>
@@ -1661,11 +1665,11 @@
       </c>
       <c r="I11" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" si="6"/>
@@ -1685,7 +1689,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="3"/>
@@ -1697,11 +1701,11 @@
       </c>
       <c r="I12" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" si="6"/>
@@ -1721,7 +1725,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="3"/>
@@ -1733,11 +1737,11 @@
       </c>
       <c r="I13" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7">
         <f t="shared" si="6"/>
@@ -1757,7 +1761,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="3"/>
@@ -1769,11 +1773,11 @@
       </c>
       <c r="I14" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" si="6"/>
@@ -1793,7 +1797,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" si="3"/>
@@ -1805,11 +1809,11 @@
       </c>
       <c r="I15" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K15" s="7">
         <f t="shared" si="6"/>
@@ -1829,7 +1833,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="3"/>
@@ -1841,11 +1845,11 @@
       </c>
       <c r="I16" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K16" s="7">
         <f t="shared" si="6"/>
@@ -1865,7 +1869,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" si="3"/>
@@ -1877,11 +1881,11 @@
       </c>
       <c r="I17" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K17" s="7">
         <f t="shared" si="6"/>
@@ -1901,7 +1905,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="3"/>
@@ -1913,11 +1917,11 @@
       </c>
       <c r="I18" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" si="6"/>
@@ -1937,7 +1941,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="3"/>
@@ -1949,11 +1953,11 @@
       </c>
       <c r="I19" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" si="6"/>
@@ -1973,7 +1977,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="3"/>
@@ -1985,11 +1989,11 @@
       </c>
       <c r="I20" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" si="6"/>
@@ -2009,7 +2013,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="3"/>
@@ -2021,11 +2025,11 @@
       </c>
       <c r="I21" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" si="6"/>
@@ -2045,7 +2049,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="3"/>
@@ -2057,11 +2061,11 @@
       </c>
       <c r="I22" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" si="6"/>
@@ -2081,7 +2085,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="3"/>
@@ -2093,11 +2097,11 @@
       </c>
       <c r="I23" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="6"/>
@@ -2117,7 +2121,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="3"/>
@@ -2129,11 +2133,11 @@
       </c>
       <c r="I24" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="6"/>
@@ -2153,7 +2157,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="3"/>
@@ -2165,11 +2169,11 @@
       </c>
       <c r="I25" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="6"/>
@@ -2189,7 +2193,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="3"/>
@@ -2201,11 +2205,11 @@
       </c>
       <c r="I26" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="6"/>
@@ -2225,7 +2229,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="3"/>
@@ -2237,11 +2241,11 @@
       </c>
       <c r="I27" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="6"/>
@@ -2261,7 +2265,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="3"/>
@@ -2273,11 +2277,11 @@
       </c>
       <c r="I28" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="6"/>
@@ -2297,7 +2301,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="3"/>
@@ -2309,11 +2313,11 @@
       </c>
       <c r="I29" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="6"/>
@@ -2333,7 +2337,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="3"/>
@@ -2345,11 +2349,11 @@
       </c>
       <c r="I30" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="6"/>
@@ -2369,7 +2373,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="3"/>
@@ -2381,11 +2385,11 @@
       </c>
       <c r="I31" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="6"/>
@@ -2405,7 +2409,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="3"/>
@@ -2417,11 +2421,11 @@
       </c>
       <c r="I32" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="6"/>
@@ -2441,7 +2445,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="3"/>
@@ -2453,11 +2457,11 @@
       </c>
       <c r="I33" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J33" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="6"/>
@@ -2477,7 +2481,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G34" s="4">
         <f t="shared" si="3"/>
@@ -2489,11 +2493,11 @@
       </c>
       <c r="I34" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J34" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K34" s="7">
         <f t="shared" si="6"/>
@@ -2513,7 +2517,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G35" s="4">
         <f t="shared" si="3"/>
@@ -2525,11 +2529,11 @@
       </c>
       <c r="I35" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J35" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K35" s="7">
         <f t="shared" si="6"/>
@@ -2549,7 +2553,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G36" s="4">
         <f t="shared" si="3"/>
@@ -2561,11 +2565,11 @@
       </c>
       <c r="I36" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J36" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K36" s="7">
         <f t="shared" si="6"/>
@@ -2585,7 +2589,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G37" s="4">
         <f t="shared" si="3"/>
@@ -2597,11 +2601,11 @@
       </c>
       <c r="I37" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J37" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K37" s="7">
         <f t="shared" si="6"/>
@@ -2621,7 +2625,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" si="3"/>
@@ -2633,11 +2637,11 @@
       </c>
       <c r="I38" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J38" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K38" s="7">
         <f t="shared" si="6"/>
@@ -2657,7 +2661,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G39" s="4">
         <f t="shared" si="3"/>
@@ -2669,11 +2673,11 @@
       </c>
       <c r="I39" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J39" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K39" s="7">
         <f t="shared" si="6"/>
@@ -2693,7 +2697,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" si="3"/>
@@ -2705,11 +2709,11 @@
       </c>
       <c r="I40" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J40" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K40" s="7">
         <f t="shared" si="6"/>
@@ -2729,7 +2733,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G41" s="4">
         <f t="shared" si="3"/>
@@ -2741,11 +2745,11 @@
       </c>
       <c r="I41" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J41" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K41" s="7">
         <f t="shared" si="6"/>
@@ -2765,7 +2769,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G42" s="4">
         <f t="shared" si="3"/>
@@ -2777,11 +2781,11 @@
       </c>
       <c r="I42" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J42" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K42" s="7">
         <f t="shared" si="6"/>
@@ -2801,7 +2805,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G43" s="4">
         <f t="shared" si="3"/>
@@ -2813,11 +2817,11 @@
       </c>
       <c r="I43" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J43" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K43" s="7">
         <f t="shared" si="6"/>
@@ -2837,7 +2841,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G44" s="4">
         <f t="shared" si="3"/>
@@ -2849,11 +2853,11 @@
       </c>
       <c r="I44" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J44" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K44" s="7">
         <f t="shared" si="6"/>
@@ -2873,7 +2877,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G45" s="4">
         <f t="shared" si="3"/>
@@ -2885,11 +2889,11 @@
       </c>
       <c r="I45" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J45" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K45" s="7">
         <f t="shared" si="6"/>
@@ -2909,7 +2913,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" si="3"/>
@@ -2921,11 +2925,11 @@
       </c>
       <c r="I46" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J46" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K46" s="7">
         <f t="shared" si="6"/>
@@ -2945,7 +2949,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G47" s="4">
         <f t="shared" si="3"/>
@@ -2957,11 +2961,11 @@
       </c>
       <c r="I47" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J47" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K47" s="7">
         <f t="shared" si="6"/>
@@ -2981,7 +2985,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G48" s="4">
         <f t="shared" si="3"/>
@@ -2993,11 +2997,11 @@
       </c>
       <c r="I48" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J48" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K48" s="7">
         <f t="shared" si="6"/>
@@ -3008,7 +3012,7 @@
       <c r="A49" s="8"/>
       <c r="B49" s="9">
         <f>SUM(B3:B27)</f>
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9">
@@ -3017,7 +3021,7 @@
       </c>
       <c r="E49" s="9">
         <f>AVERAGE(E3:E48)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
@@ -3045,7 +3049,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/01_Planning/ProductBurndown.xlsx
+++ b/01_Planning/ProductBurndown.xlsx
@@ -500,133 +500,133 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>10.714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>10.428571428571427</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>10.142857142857141</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12</c:v>
+                  <c:v>9.8571428571428541</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12</c:v>
+                  <c:v>9.5714285714285676</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>9.2857142857142811</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>8.9999999999999947</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>8.9999999999999947</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>8.9999999999999947</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12</c:v>
+                  <c:v>8.9999999999999947</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12</c:v>
+                  <c:v>8.9999999999999947</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12</c:v>
+                  <c:v>8.9999999999999947</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12</c:v>
+                  <c:v>8.9999999999999947</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12</c:v>
+                  <c:v>8.9999999999999947</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12</c:v>
+                  <c:v>8.9999999999999947</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12</c:v>
+                  <c:v>8.9999999999999947</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12</c:v>
+                  <c:v>8.7142857142857082</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12</c:v>
+                  <c:v>8.4285714285714217</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12</c:v>
+                  <c:v>8.1428571428571352</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12</c:v>
+                  <c:v>7.8571428571428497</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12</c:v>
+                  <c:v>7.5714285714285641</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12</c:v>
+                  <c:v>7.2857142857142785</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>12</c:v>
+                  <c:v>6.9999999999999929</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12</c:v>
+                  <c:v>6.7142857142857073</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12</c:v>
+                  <c:v>6.4285714285714217</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12</c:v>
+                  <c:v>6.1428571428571361</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12</c:v>
+                  <c:v>5.8571428571428505</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12</c:v>
+                  <c:v>5.571428571428565</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12</c:v>
+                  <c:v>5.2857142857142794</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>12</c:v>
+                  <c:v>4.9999999999999938</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>12</c:v>
+                  <c:v>4.7142857142857082</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>12</c:v>
+                  <c:v>4.4285714285714226</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>12</c:v>
+                  <c:v>4.142857142857137</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>12</c:v>
+                  <c:v>3.8571428571428514</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>12</c:v>
+                  <c:v>3.5714285714285658</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>12</c:v>
+                  <c:v>3.2857142857142803</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>12</c:v>
+                  <c:v>2.9999999999999947</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>12</c:v>
+                  <c:v>2.7142857142857091</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>12</c:v>
+                  <c:v>2.4285714285714235</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>12</c:v>
+                  <c:v>2.1428571428571379</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>12</c:v>
+                  <c:v>1.8571428571428523</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>12</c:v>
+                  <c:v>1.5714285714285667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -642,11 +642,11 @@
         </c:dLbls>
         <c:gapWidth val="40"/>
         <c:overlap val="-10"/>
-        <c:axId val="459422912"/>
-        <c:axId val="459418992"/>
+        <c:axId val="369891432"/>
+        <c:axId val="369885944"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="459422912"/>
+        <c:axId val="369891432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -685,14 +685,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459418992"/>
+        <c:crossAx val="369885944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="459418992"/>
+        <c:axId val="369885944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -738,7 +738,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459422912"/>
+        <c:crossAx val="369891432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -1204,7 +1204,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1276,7 +1276,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1469,10 +1469,14 @@
         <v>9</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>7</v>
+      </c>
       <c r="F6" s="4">
-        <f t="shared" si="2"/>
+        <f>J5+C6</f>
         <v>12</v>
       </c>
       <c r="G6" s="4">
@@ -1481,7 +1485,7 @@
       </c>
       <c r="H6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="4"/>
@@ -1489,11 +1493,11 @@
       </c>
       <c r="J6" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1509,27 +1513,27 @@
       <c r="E7" s="3"/>
       <c r="F7" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>10.714285714285714</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1545,27 +1549,27 @@
       <c r="E8" s="3"/>
       <c r="F8" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>10.714285714285714</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>10.428571428571427</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1581,27 +1585,27 @@
       <c r="E9" s="3"/>
       <c r="F9" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>10.428571428571427</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>10.142857142857141</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1617,27 +1621,27 @@
       <c r="E10" s="3"/>
       <c r="F10" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>10.142857142857141</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>9.8571428571428541</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1653,27 +1657,27 @@
       <c r="E11" s="3"/>
       <c r="F11" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>9.8571428571428541</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>9.5714285714285676</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1689,27 +1693,27 @@
       <c r="E12" s="3"/>
       <c r="F12" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>9.5714285714285676</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>9.2857142857142811</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1718,34 +1722,34 @@
         <v>41461</v>
       </c>
       <c r="B13" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>9.2857142857142811</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>8.9999999999999947</v>
       </c>
       <c r="K13" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1761,27 +1765,27 @@
       <c r="E14" s="3"/>
       <c r="F14" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>8.9999999999999947</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>8.9999999999999947</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1797,27 +1801,27 @@
       <c r="E15" s="3"/>
       <c r="F15" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>8.9999999999999947</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>8.9999999999999947</v>
       </c>
       <c r="K15" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1833,27 +1837,27 @@
       <c r="E16" s="3"/>
       <c r="F16" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>8.9999999999999947</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>8.9999999999999947</v>
       </c>
       <c r="K16" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1869,27 +1873,27 @@
       <c r="E17" s="3"/>
       <c r="F17" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>8.9999999999999947</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>8.9999999999999947</v>
       </c>
       <c r="K17" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1905,27 +1909,27 @@
       <c r="E18" s="3"/>
       <c r="F18" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>8.9999999999999947</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>8.9999999999999947</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1941,27 +1945,27 @@
       <c r="E19" s="3"/>
       <c r="F19" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>8.9999999999999947</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>8.9999999999999947</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1977,27 +1981,27 @@
       <c r="E20" s="3"/>
       <c r="F20" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>8.9999999999999947</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>8.9999999999999947</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2013,27 +2017,27 @@
       <c r="E21" s="3"/>
       <c r="F21" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>8.9999999999999947</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>8.9999999999999947</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2042,34 +2046,34 @@
         <v>41524</v>
       </c>
       <c r="B22" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>8.9999999999999947</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>8.9999999999999947</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2085,27 +2089,27 @@
       <c r="E23" s="3"/>
       <c r="F23" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>8.9999999999999947</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>8.7142857142857082</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2121,27 +2125,27 @@
       <c r="E24" s="3"/>
       <c r="F24" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>8.7142857142857082</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>8.4285714285714217</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2157,27 +2161,27 @@
       <c r="E25" s="3"/>
       <c r="F25" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>8.4285714285714217</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>8.1428571428571352</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2193,27 +2197,27 @@
       <c r="E26" s="3"/>
       <c r="F26" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>8.1428571428571352</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>7.8571428571428497</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2229,27 +2233,27 @@
       <c r="E27" s="3"/>
       <c r="F27" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>7.8571428571428497</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>7.5714285714285641</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2265,27 +2269,27 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>7.5714285714285641</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>7.2857142857142785</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2301,27 +2305,27 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>7.2857142857142785</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>6.9999999999999929</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2337,27 +2341,27 @@
       <c r="E30" s="3"/>
       <c r="F30" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>6.9999999999999929</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>6.7142857142857073</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2373,27 +2377,27 @@
       <c r="E31" s="3"/>
       <c r="F31" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>6.7142857142857073</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>6.4285714285714217</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2409,27 +2413,27 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>6.4285714285714217</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>6.1428571428571361</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2445,27 +2449,27 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>6.1428571428571361</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J33" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>5.8571428571428505</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2481,27 +2485,27 @@
       <c r="E34" s="3"/>
       <c r="F34" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>5.8571428571428505</v>
       </c>
       <c r="G34" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J34" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>5.571428571428565</v>
       </c>
       <c r="K34" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2517,27 +2521,27 @@
       <c r="E35" s="3"/>
       <c r="F35" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>5.571428571428565</v>
       </c>
       <c r="G35" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J35" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>5.2857142857142794</v>
       </c>
       <c r="K35" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2553,27 +2557,27 @@
       <c r="E36" s="3"/>
       <c r="F36" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>5.2857142857142794</v>
       </c>
       <c r="G36" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J36" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>4.9999999999999938</v>
       </c>
       <c r="K36" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2589,27 +2593,27 @@
       <c r="E37" s="3"/>
       <c r="F37" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>4.9999999999999938</v>
       </c>
       <c r="G37" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J37" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>4.7142857142857082</v>
       </c>
       <c r="K37" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2625,27 +2629,27 @@
       <c r="E38" s="3"/>
       <c r="F38" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>4.7142857142857082</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J38" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>4.4285714285714226</v>
       </c>
       <c r="K38" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2661,27 +2665,27 @@
       <c r="E39" s="3"/>
       <c r="F39" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>4.4285714285714226</v>
       </c>
       <c r="G39" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J39" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>4.142857142857137</v>
       </c>
       <c r="K39" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2697,27 +2701,27 @@
       <c r="E40" s="3"/>
       <c r="F40" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>4.142857142857137</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J40" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>3.8571428571428514</v>
       </c>
       <c r="K40" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2733,27 +2737,27 @@
       <c r="E41" s="3"/>
       <c r="F41" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>3.8571428571428514</v>
       </c>
       <c r="G41" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J41" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>3.5714285714285658</v>
       </c>
       <c r="K41" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2769,27 +2773,27 @@
       <c r="E42" s="3"/>
       <c r="F42" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>3.5714285714285658</v>
       </c>
       <c r="G42" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J42" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>3.2857142857142803</v>
       </c>
       <c r="K42" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2805,27 +2809,27 @@
       <c r="E43" s="3"/>
       <c r="F43" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>3.2857142857142803</v>
       </c>
       <c r="G43" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J43" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>2.9999999999999947</v>
       </c>
       <c r="K43" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2841,27 +2845,27 @@
       <c r="E44" s="3"/>
       <c r="F44" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>2.9999999999999947</v>
       </c>
       <c r="G44" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J44" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>2.7142857142857091</v>
       </c>
       <c r="K44" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2877,27 +2881,27 @@
       <c r="E45" s="3"/>
       <c r="F45" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>2.7142857142857091</v>
       </c>
       <c r="G45" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J45" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>2.4285714285714235</v>
       </c>
       <c r="K45" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2913,27 +2917,27 @@
       <c r="E46" s="3"/>
       <c r="F46" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>2.4285714285714235</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J46" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>2.1428571428571379</v>
       </c>
       <c r="K46" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2949,27 +2953,27 @@
       <c r="E47" s="3"/>
       <c r="F47" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>2.1428571428571379</v>
       </c>
       <c r="G47" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J47" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1.8571428571428523</v>
       </c>
       <c r="K47" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -2985,27 +2989,27 @@
       <c r="E48" s="3"/>
       <c r="F48" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1.8571428571428523</v>
       </c>
       <c r="G48" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J48" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1.5714285714285667</v>
       </c>
       <c r="K48" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -3017,7 +3021,7 @@
       <c r="C49" s="9"/>
       <c r="D49" s="9">
         <f>AVERAGE(D3:D48)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E49" s="9">
         <f>AVERAGE(E3:E48)</f>

--- a/01_Planning/ProductBurndown.xlsx
+++ b/01_Planning/ProductBurndown.xlsx
@@ -506,127 +506,127 @@
                   <c:v>10.714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.428571428571427</c:v>
+                  <c:v>10.464285714285714</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.142857142857141</c:v>
+                  <c:v>10.178571428571427</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.8571428571428541</c:v>
+                  <c:v>9.8928571428571406</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.5714285714285676</c:v>
+                  <c:v>9.6071428571428541</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.2857142857142811</c:v>
+                  <c:v>9.3214285714285676</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.9999999999999947</c:v>
+                  <c:v>9.0357142857142811</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.9999999999999947</c:v>
+                  <c:v>9.0357142857142811</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.9999999999999947</c:v>
+                  <c:v>9.0357142857142811</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.9999999999999947</c:v>
+                  <c:v>9.0357142857142811</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.9999999999999947</c:v>
+                  <c:v>9.0357142857142811</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.9999999999999947</c:v>
+                  <c:v>9.0357142857142811</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.9999999999999947</c:v>
+                  <c:v>9.0357142857142811</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.9999999999999947</c:v>
+                  <c:v>9.0357142857142811</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.9999999999999947</c:v>
+                  <c:v>9.0357142857142811</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.9999999999999947</c:v>
+                  <c:v>9.0357142857142811</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.7142857142857082</c:v>
+                  <c:v>8.7499999999999947</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.4285714285714217</c:v>
+                  <c:v>8.4642857142857082</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.1428571428571352</c:v>
+                  <c:v>8.1785714285714217</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.8571428571428497</c:v>
+                  <c:v>7.8928571428571361</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.5714285714285641</c:v>
+                  <c:v>7.6071428571428505</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.2857142857142785</c:v>
+                  <c:v>7.321428571428565</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.9999999999999929</c:v>
+                  <c:v>7.0357142857142794</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.7142857142857073</c:v>
+                  <c:v>6.7499999999999938</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.4285714285714217</c:v>
+                  <c:v>6.4642857142857082</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.1428571428571361</c:v>
+                  <c:v>6.1785714285714226</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.8571428571428505</c:v>
+                  <c:v>5.892857142857137</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.571428571428565</c:v>
+                  <c:v>5.6071428571428514</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.2857142857142794</c:v>
+                  <c:v>5.3214285714285658</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.9999999999999938</c:v>
+                  <c:v>5.0357142857142803</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.7142857142857082</c:v>
+                  <c:v>4.7499999999999947</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.4285714285714226</c:v>
+                  <c:v>4.4642857142857091</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.142857142857137</c:v>
+                  <c:v>4.1785714285714235</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.8571428571428514</c:v>
+                  <c:v>3.8928571428571379</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.5714285714285658</c:v>
+                  <c:v>3.6071428571428523</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.2857142857142803</c:v>
+                  <c:v>3.3214285714285667</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.9999999999999947</c:v>
+                  <c:v>3.0357142857142811</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.7142857142857091</c:v>
+                  <c:v>2.7499999999999956</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.4285714285714235</c:v>
+                  <c:v>2.46428571428571</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.1428571428571379</c:v>
+                  <c:v>2.1785714285714244</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.8571428571428523</c:v>
+                  <c:v>1.8928571428571388</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.5714285714285667</c:v>
+                  <c:v>1.6071428571428532</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -642,11 +642,11 @@
         </c:dLbls>
         <c:gapWidth val="40"/>
         <c:overlap val="-10"/>
-        <c:axId val="369891432"/>
-        <c:axId val="369885944"/>
+        <c:axId val="421704000"/>
+        <c:axId val="421695768"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="369891432"/>
+        <c:axId val="421704000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -685,14 +685,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="369885944"/>
+        <c:crossAx val="421695768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="369885944"/>
+        <c:axId val="421695768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -738,7 +738,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="369891432"/>
+        <c:crossAx val="421704000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -1276,7 +1276,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1510,7 +1510,9 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3">
+        <v>10</v>
+      </c>
       <c r="F7" s="4">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -1542,7 +1544,7 @@
         <v>41426</v>
       </c>
       <c r="B8" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1561,11 +1563,11 @@
       </c>
       <c r="I8" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="5"/>
-        <v>10.428571428571427</v>
+        <v>10.464285714285714</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="6"/>
@@ -1585,7 +1587,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="4">
         <f t="shared" si="2"/>
-        <v>10.428571428571427</v>
+        <v>10.464285714285714</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="3"/>
@@ -1597,11 +1599,11 @@
       </c>
       <c r="I9" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" si="5"/>
-        <v>10.142857142857141</v>
+        <v>10.178571428571427</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="6"/>
@@ -1621,7 +1623,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="4">
         <f t="shared" si="2"/>
-        <v>10.142857142857141</v>
+        <v>10.178571428571427</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="3"/>
@@ -1633,11 +1635,11 @@
       </c>
       <c r="I10" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="5"/>
-        <v>9.8571428571428541</v>
+        <v>9.8928571428571406</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" si="6"/>
@@ -1657,7 +1659,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="4">
         <f t="shared" si="2"/>
-        <v>9.8571428571428541</v>
+        <v>9.8928571428571406</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="3"/>
@@ -1669,11 +1671,11 @@
       </c>
       <c r="I11" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="5"/>
-        <v>9.5714285714285676</v>
+        <v>9.6071428571428541</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" si="6"/>
@@ -1693,7 +1695,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="4">
         <f t="shared" si="2"/>
-        <v>9.5714285714285676</v>
+        <v>9.6071428571428541</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="3"/>
@@ -1705,11 +1707,11 @@
       </c>
       <c r="I12" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="5"/>
-        <v>9.2857142857142811</v>
+        <v>9.3214285714285676</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" si="6"/>
@@ -1729,7 +1731,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="4">
         <f t="shared" si="2"/>
-        <v>9.2857142857142811</v>
+        <v>9.3214285714285676</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="3"/>
@@ -1741,11 +1743,11 @@
       </c>
       <c r="I13" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="5"/>
-        <v>8.9999999999999947</v>
+        <v>9.0357142857142811</v>
       </c>
       <c r="K13" s="7">
         <f t="shared" si="6"/>
@@ -1765,7 +1767,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="4">
         <f t="shared" si="2"/>
-        <v>8.9999999999999947</v>
+        <v>9.0357142857142811</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="3"/>
@@ -1777,11 +1779,11 @@
       </c>
       <c r="I14" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="5"/>
-        <v>8.9999999999999947</v>
+        <v>9.0357142857142811</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" si="6"/>
@@ -1801,7 +1803,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="4">
         <f t="shared" si="2"/>
-        <v>8.9999999999999947</v>
+        <v>9.0357142857142811</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" si="3"/>
@@ -1813,11 +1815,11 @@
       </c>
       <c r="I15" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="5"/>
-        <v>8.9999999999999947</v>
+        <v>9.0357142857142811</v>
       </c>
       <c r="K15" s="7">
         <f t="shared" si="6"/>
@@ -1837,7 +1839,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="4">
         <f t="shared" si="2"/>
-        <v>8.9999999999999947</v>
+        <v>9.0357142857142811</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="3"/>
@@ -1849,11 +1851,11 @@
       </c>
       <c r="I16" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="5"/>
-        <v>8.9999999999999947</v>
+        <v>9.0357142857142811</v>
       </c>
       <c r="K16" s="7">
         <f t="shared" si="6"/>
@@ -1873,7 +1875,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="4">
         <f t="shared" si="2"/>
-        <v>8.9999999999999947</v>
+        <v>9.0357142857142811</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" si="3"/>
@@ -1885,11 +1887,11 @@
       </c>
       <c r="I17" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="5"/>
-        <v>8.9999999999999947</v>
+        <v>9.0357142857142811</v>
       </c>
       <c r="K17" s="7">
         <f t="shared" si="6"/>
@@ -1909,7 +1911,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="4">
         <f t="shared" si="2"/>
-        <v>8.9999999999999947</v>
+        <v>9.0357142857142811</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="3"/>
@@ -1921,11 +1923,11 @@
       </c>
       <c r="I18" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="5"/>
-        <v>8.9999999999999947</v>
+        <v>9.0357142857142811</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" si="6"/>
@@ -1945,7 +1947,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="4">
         <f t="shared" si="2"/>
-        <v>8.9999999999999947</v>
+        <v>9.0357142857142811</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="3"/>
@@ -1957,11 +1959,11 @@
       </c>
       <c r="I19" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="5"/>
-        <v>8.9999999999999947</v>
+        <v>9.0357142857142811</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" si="6"/>
@@ -1981,7 +1983,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="4">
         <f t="shared" si="2"/>
-        <v>8.9999999999999947</v>
+        <v>9.0357142857142811</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="3"/>
@@ -1993,11 +1995,11 @@
       </c>
       <c r="I20" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="5"/>
-        <v>8.9999999999999947</v>
+        <v>9.0357142857142811</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" si="6"/>
@@ -2017,7 +2019,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="4">
         <f t="shared" si="2"/>
-        <v>8.9999999999999947</v>
+        <v>9.0357142857142811</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="3"/>
@@ -2029,11 +2031,11 @@
       </c>
       <c r="I21" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="5"/>
-        <v>8.9999999999999947</v>
+        <v>9.0357142857142811</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" si="6"/>
@@ -2053,7 +2055,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="4">
         <f t="shared" si="2"/>
-        <v>8.9999999999999947</v>
+        <v>9.0357142857142811</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="3"/>
@@ -2065,11 +2067,11 @@
       </c>
       <c r="I22" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="5"/>
-        <v>8.9999999999999947</v>
+        <v>9.0357142857142811</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" si="6"/>
@@ -2089,7 +2091,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="4">
         <f t="shared" si="2"/>
-        <v>8.9999999999999947</v>
+        <v>9.0357142857142811</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="3"/>
@@ -2101,11 +2103,11 @@
       </c>
       <c r="I23" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="5"/>
-        <v>8.7142857142857082</v>
+        <v>8.7499999999999947</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="6"/>
@@ -2125,7 +2127,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="4">
         <f t="shared" si="2"/>
-        <v>8.7142857142857082</v>
+        <v>8.7499999999999947</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="3"/>
@@ -2137,11 +2139,11 @@
       </c>
       <c r="I24" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="5"/>
-        <v>8.4285714285714217</v>
+        <v>8.4642857142857082</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="6"/>
@@ -2161,7 +2163,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="4">
         <f t="shared" si="2"/>
-        <v>8.4285714285714217</v>
+        <v>8.4642857142857082</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="3"/>
@@ -2173,11 +2175,11 @@
       </c>
       <c r="I25" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="5"/>
-        <v>8.1428571428571352</v>
+        <v>8.1785714285714217</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="6"/>
@@ -2197,7 +2199,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="4">
         <f t="shared" si="2"/>
-        <v>8.1428571428571352</v>
+        <v>8.1785714285714217</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="3"/>
@@ -2209,11 +2211,11 @@
       </c>
       <c r="I26" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="5"/>
-        <v>7.8571428571428497</v>
+        <v>7.8928571428571361</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="6"/>
@@ -2233,7 +2235,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="4">
         <f t="shared" si="2"/>
-        <v>7.8571428571428497</v>
+        <v>7.8928571428571361</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="3"/>
@@ -2245,11 +2247,11 @@
       </c>
       <c r="I27" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="5"/>
-        <v>7.5714285714285641</v>
+        <v>7.6071428571428505</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="6"/>
@@ -2269,7 +2271,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4">
         <f t="shared" si="2"/>
-        <v>7.5714285714285641</v>
+        <v>7.6071428571428505</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="3"/>
@@ -2281,11 +2283,11 @@
       </c>
       <c r="I28" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="5"/>
-        <v>7.2857142857142785</v>
+        <v>7.321428571428565</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="6"/>
@@ -2305,7 +2307,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4">
         <f t="shared" si="2"/>
-        <v>7.2857142857142785</v>
+        <v>7.321428571428565</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="3"/>
@@ -2317,11 +2319,11 @@
       </c>
       <c r="I29" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="5"/>
-        <v>6.9999999999999929</v>
+        <v>7.0357142857142794</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="6"/>
@@ -2341,7 +2343,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="4">
         <f t="shared" si="2"/>
-        <v>6.9999999999999929</v>
+        <v>7.0357142857142794</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="3"/>
@@ -2353,11 +2355,11 @@
       </c>
       <c r="I30" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="5"/>
-        <v>6.7142857142857073</v>
+        <v>6.7499999999999938</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="6"/>
@@ -2377,7 +2379,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="4">
         <f t="shared" si="2"/>
-        <v>6.7142857142857073</v>
+        <v>6.7499999999999938</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="3"/>
@@ -2389,11 +2391,11 @@
       </c>
       <c r="I31" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="5"/>
-        <v>6.4285714285714217</v>
+        <v>6.4642857142857082</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="6"/>
@@ -2413,7 +2415,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4">
         <f t="shared" si="2"/>
-        <v>6.4285714285714217</v>
+        <v>6.4642857142857082</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="3"/>
@@ -2425,11 +2427,11 @@
       </c>
       <c r="I32" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="5"/>
-        <v>6.1428571428571361</v>
+        <v>6.1785714285714226</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="6"/>
@@ -2449,7 +2451,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4">
         <f t="shared" si="2"/>
-        <v>6.1428571428571361</v>
+        <v>6.1785714285714226</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="3"/>
@@ -2461,11 +2463,11 @@
       </c>
       <c r="I33" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J33" s="4">
         <f t="shared" si="5"/>
-        <v>5.8571428571428505</v>
+        <v>5.892857142857137</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="6"/>
@@ -2485,7 +2487,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="4">
         <f t="shared" si="2"/>
-        <v>5.8571428571428505</v>
+        <v>5.892857142857137</v>
       </c>
       <c r="G34" s="4">
         <f t="shared" si="3"/>
@@ -2497,11 +2499,11 @@
       </c>
       <c r="I34" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J34" s="4">
         <f t="shared" si="5"/>
-        <v>5.571428571428565</v>
+        <v>5.6071428571428514</v>
       </c>
       <c r="K34" s="7">
         <f t="shared" si="6"/>
@@ -2521,7 +2523,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="4">
         <f t="shared" si="2"/>
-        <v>5.571428571428565</v>
+        <v>5.6071428571428514</v>
       </c>
       <c r="G35" s="4">
         <f t="shared" si="3"/>
@@ -2533,11 +2535,11 @@
       </c>
       <c r="I35" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J35" s="4">
         <f t="shared" si="5"/>
-        <v>5.2857142857142794</v>
+        <v>5.3214285714285658</v>
       </c>
       <c r="K35" s="7">
         <f t="shared" si="6"/>
@@ -2557,7 +2559,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="4">
         <f t="shared" si="2"/>
-        <v>5.2857142857142794</v>
+        <v>5.3214285714285658</v>
       </c>
       <c r="G36" s="4">
         <f t="shared" si="3"/>
@@ -2569,11 +2571,11 @@
       </c>
       <c r="I36" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J36" s="4">
         <f t="shared" si="5"/>
-        <v>4.9999999999999938</v>
+        <v>5.0357142857142803</v>
       </c>
       <c r="K36" s="7">
         <f t="shared" si="6"/>
@@ -2593,7 +2595,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="4">
         <f t="shared" si="2"/>
-        <v>4.9999999999999938</v>
+        <v>5.0357142857142803</v>
       </c>
       <c r="G37" s="4">
         <f t="shared" si="3"/>
@@ -2605,11 +2607,11 @@
       </c>
       <c r="I37" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J37" s="4">
         <f t="shared" si="5"/>
-        <v>4.7142857142857082</v>
+        <v>4.7499999999999947</v>
       </c>
       <c r="K37" s="7">
         <f t="shared" si="6"/>
@@ -2629,7 +2631,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="4">
         <f t="shared" si="2"/>
-        <v>4.7142857142857082</v>
+        <v>4.7499999999999947</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" si="3"/>
@@ -2641,11 +2643,11 @@
       </c>
       <c r="I38" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J38" s="4">
         <f t="shared" si="5"/>
-        <v>4.4285714285714226</v>
+        <v>4.4642857142857091</v>
       </c>
       <c r="K38" s="7">
         <f t="shared" si="6"/>
@@ -2665,7 +2667,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="4">
         <f t="shared" si="2"/>
-        <v>4.4285714285714226</v>
+        <v>4.4642857142857091</v>
       </c>
       <c r="G39" s="4">
         <f t="shared" si="3"/>
@@ -2677,11 +2679,11 @@
       </c>
       <c r="I39" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J39" s="4">
         <f t="shared" si="5"/>
-        <v>4.142857142857137</v>
+        <v>4.1785714285714235</v>
       </c>
       <c r="K39" s="7">
         <f t="shared" si="6"/>
@@ -2701,7 +2703,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="4">
         <f t="shared" si="2"/>
-        <v>4.142857142857137</v>
+        <v>4.1785714285714235</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" si="3"/>
@@ -2713,11 +2715,11 @@
       </c>
       <c r="I40" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J40" s="4">
         <f t="shared" si="5"/>
-        <v>3.8571428571428514</v>
+        <v>3.8928571428571379</v>
       </c>
       <c r="K40" s="7">
         <f t="shared" si="6"/>
@@ -2737,7 +2739,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="4">
         <f t="shared" si="2"/>
-        <v>3.8571428571428514</v>
+        <v>3.8928571428571379</v>
       </c>
       <c r="G41" s="4">
         <f t="shared" si="3"/>
@@ -2749,11 +2751,11 @@
       </c>
       <c r="I41" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J41" s="4">
         <f t="shared" si="5"/>
-        <v>3.5714285714285658</v>
+        <v>3.6071428571428523</v>
       </c>
       <c r="K41" s="7">
         <f t="shared" si="6"/>
@@ -2773,7 +2775,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="4">
         <f t="shared" si="2"/>
-        <v>3.5714285714285658</v>
+        <v>3.6071428571428523</v>
       </c>
       <c r="G42" s="4">
         <f t="shared" si="3"/>
@@ -2785,11 +2787,11 @@
       </c>
       <c r="I42" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J42" s="4">
         <f t="shared" si="5"/>
-        <v>3.2857142857142803</v>
+        <v>3.3214285714285667</v>
       </c>
       <c r="K42" s="7">
         <f t="shared" si="6"/>
@@ -2809,7 +2811,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="4">
         <f t="shared" si="2"/>
-        <v>3.2857142857142803</v>
+        <v>3.3214285714285667</v>
       </c>
       <c r="G43" s="4">
         <f t="shared" si="3"/>
@@ -2821,11 +2823,11 @@
       </c>
       <c r="I43" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J43" s="4">
         <f t="shared" si="5"/>
-        <v>2.9999999999999947</v>
+        <v>3.0357142857142811</v>
       </c>
       <c r="K43" s="7">
         <f t="shared" si="6"/>
@@ -2845,7 +2847,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="4">
         <f t="shared" si="2"/>
-        <v>2.9999999999999947</v>
+        <v>3.0357142857142811</v>
       </c>
       <c r="G44" s="4">
         <f t="shared" si="3"/>
@@ -2857,11 +2859,11 @@
       </c>
       <c r="I44" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J44" s="4">
         <f t="shared" si="5"/>
-        <v>2.7142857142857091</v>
+        <v>2.7499999999999956</v>
       </c>
       <c r="K44" s="7">
         <f t="shared" si="6"/>
@@ -2881,7 +2883,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="4">
         <f t="shared" si="2"/>
-        <v>2.7142857142857091</v>
+        <v>2.7499999999999956</v>
       </c>
       <c r="G45" s="4">
         <f t="shared" si="3"/>
@@ -2893,11 +2895,11 @@
       </c>
       <c r="I45" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J45" s="4">
         <f t="shared" si="5"/>
-        <v>2.4285714285714235</v>
+        <v>2.46428571428571</v>
       </c>
       <c r="K45" s="7">
         <f t="shared" si="6"/>
@@ -2917,7 +2919,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="4">
         <f t="shared" si="2"/>
-        <v>2.4285714285714235</v>
+        <v>2.46428571428571</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" si="3"/>
@@ -2929,11 +2931,11 @@
       </c>
       <c r="I46" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J46" s="4">
         <f t="shared" si="5"/>
-        <v>2.1428571428571379</v>
+        <v>2.1785714285714244</v>
       </c>
       <c r="K46" s="7">
         <f t="shared" si="6"/>
@@ -2953,7 +2955,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="4">
         <f t="shared" si="2"/>
-        <v>2.1428571428571379</v>
+        <v>2.1785714285714244</v>
       </c>
       <c r="G47" s="4">
         <f t="shared" si="3"/>
@@ -2965,11 +2967,11 @@
       </c>
       <c r="I47" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J47" s="4">
         <f t="shared" si="5"/>
-        <v>1.8571428571428523</v>
+        <v>1.8928571428571388</v>
       </c>
       <c r="K47" s="7">
         <f t="shared" si="6"/>
@@ -2989,7 +2991,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="4">
         <f t="shared" si="2"/>
-        <v>1.8571428571428523</v>
+        <v>1.8928571428571388</v>
       </c>
       <c r="G48" s="4">
         <f t="shared" si="3"/>
@@ -3001,11 +3003,11 @@
       </c>
       <c r="I48" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J48" s="4">
         <f t="shared" si="5"/>
-        <v>1.5714285714285667</v>
+        <v>1.6071428571428532</v>
       </c>
       <c r="K48" s="7">
         <f t="shared" si="6"/>
@@ -3016,7 +3018,7 @@
       <c r="A49" s="8"/>
       <c r="B49" s="9">
         <f>SUM(B3:B27)</f>
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9">
@@ -3025,7 +3027,7 @@
       </c>
       <c r="E49" s="9">
         <f>AVERAGE(E3:E48)</f>
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>

--- a/01_Planning/ProductBurndown.xlsx
+++ b/01_Planning/ProductBurndown.xlsx
@@ -503,130 +503,130 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.714285714285714</c:v>
+                  <c:v>10.724137931034482</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.464285714285714</c:v>
+                  <c:v>11.482758620689655</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.178571428571427</c:v>
+                  <c:v>11.344827586206897</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.8928571428571406</c:v>
+                  <c:v>11.103448275862069</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.6071428571428541</c:v>
+                  <c:v>10.827586206896552</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.3214285714285676</c:v>
+                  <c:v>10.551724137931034</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.0357142857142811</c:v>
+                  <c:v>10.275862068965516</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.0357142857142811</c:v>
+                  <c:v>10.275862068965516</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.0357142857142811</c:v>
+                  <c:v>10.275862068965516</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.0357142857142811</c:v>
+                  <c:v>10.275862068965516</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.0357142857142811</c:v>
+                  <c:v>10.275862068965516</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.0357142857142811</c:v>
+                  <c:v>10.275862068965516</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.0357142857142811</c:v>
+                  <c:v>10.275862068965516</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.0357142857142811</c:v>
+                  <c:v>10.275862068965516</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.0357142857142811</c:v>
+                  <c:v>10.275862068965516</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.0357142857142811</c:v>
+                  <c:v>10.275862068965516</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.7499999999999947</c:v>
+                  <c:v>9.9999999999999982</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.4642857142857082</c:v>
+                  <c:v>9.7241379310344804</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.1785714285714217</c:v>
+                  <c:v>9.4482758620689626</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.8928571428571361</c:v>
+                  <c:v>9.1724137931034448</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.6071428571428505</c:v>
+                  <c:v>8.8965517241379271</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.321428571428565</c:v>
+                  <c:v>8.6206896551724093</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.0357142857142794</c:v>
+                  <c:v>8.3448275862068915</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.7499999999999938</c:v>
+                  <c:v>8.0689655172413737</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.4642857142857082</c:v>
+                  <c:v>7.7931034482758568</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.1785714285714226</c:v>
+                  <c:v>7.5172413793103399</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.892857142857137</c:v>
+                  <c:v>7.241379310344823</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.6071428571428514</c:v>
+                  <c:v>6.9655172413793061</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.3214285714285658</c:v>
+                  <c:v>6.6896551724137892</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.0357142857142803</c:v>
+                  <c:v>6.4137931034482722</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.7499999999999947</c:v>
+                  <c:v>6.1379310344827553</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.4642857142857091</c:v>
+                  <c:v>5.8620689655172384</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.1785714285714235</c:v>
+                  <c:v>5.5862068965517215</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.8928571428571379</c:v>
+                  <c:v>5.3103448275862046</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.6071428571428523</c:v>
+                  <c:v>5.0344827586206877</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.3214285714285667</c:v>
+                  <c:v>4.7586206896551708</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.0357142857142811</c:v>
+                  <c:v>4.4827586206896539</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.7499999999999956</c:v>
+                  <c:v>4.206896551724137</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.46428571428571</c:v>
+                  <c:v>3.9310344827586197</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.1785714285714244</c:v>
+                  <c:v>3.6551724137931023</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.8928571428571388</c:v>
+                  <c:v>3.379310344827585</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.6071428571428532</c:v>
+                  <c:v>3.1034482758620676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -642,11 +642,11 @@
         </c:dLbls>
         <c:gapWidth val="40"/>
         <c:overlap val="-10"/>
-        <c:axId val="421704000"/>
-        <c:axId val="421695768"/>
+        <c:axId val="401519072"/>
+        <c:axId val="401524168"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="421704000"/>
+        <c:axId val="401519072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -685,14 +685,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421695768"/>
+        <c:crossAx val="401524168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="421695768"/>
+        <c:axId val="401524168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -738,7 +738,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421704000"/>
+        <c:crossAx val="401519072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -1204,7 +1204,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1276,7 +1276,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N19" sqref="N19"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1390,12 +1390,12 @@
         <v>41398</v>
       </c>
       <c r="B4" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" ref="F4:F48" si="2">J3+C4</f>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="I5" s="4">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="5"/>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="I6" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="5"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="K6" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1527,15 +1527,15 @@
       </c>
       <c r="I7" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" si="5"/>
-        <v>10.714285714285714</v>
+        <v>10.724137931034482</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1546,12 +1546,16 @@
       <c r="B8" s="3">
         <v>7</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3">
+        <v>6</v>
+      </c>
       <c r="F8" s="4">
         <f t="shared" si="2"/>
-        <v>10.714285714285714</v>
+        <v>11.724137931034482</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="3"/>
@@ -1563,15 +1567,15 @@
       </c>
       <c r="I8" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="5"/>
-        <v>10.464285714285714</v>
+        <v>11.482758620689655</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1580,14 +1584,16 @@
         <v>41433</v>
       </c>
       <c r="B9" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3">
+        <v>3</v>
+      </c>
       <c r="F9" s="4">
         <f t="shared" si="2"/>
-        <v>10.464285714285714</v>
+        <v>11.482758620689655</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="3"/>
@@ -1599,15 +1605,15 @@
       </c>
       <c r="I9" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" si="5"/>
-        <v>10.178571428571427</v>
+        <v>11.344827586206897</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1616,14 +1622,16 @@
         <v>41440</v>
       </c>
       <c r="B10" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="4">
         <f t="shared" si="2"/>
-        <v>10.178571428571427</v>
+        <v>11.344827586206897</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="3"/>
@@ -1631,19 +1639,19 @@
       </c>
       <c r="H10" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="5"/>
-        <v>9.8928571428571406</v>
+        <v>11.103448275862069</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1659,27 +1667,27 @@
       <c r="E11" s="3"/>
       <c r="F11" s="4">
         <f t="shared" si="2"/>
-        <v>9.8928571428571406</v>
+        <v>11.103448275862069</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="5"/>
-        <v>9.6071428571428541</v>
+        <v>10.827586206896552</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1695,27 +1703,27 @@
       <c r="E12" s="3"/>
       <c r="F12" s="4">
         <f t="shared" si="2"/>
-        <v>9.6071428571428541</v>
+        <v>10.827586206896552</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="5"/>
-        <v>9.3214285714285676</v>
+        <v>10.551724137931034</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1731,27 +1739,27 @@
       <c r="E13" s="3"/>
       <c r="F13" s="4">
         <f t="shared" si="2"/>
-        <v>9.3214285714285676</v>
+        <v>10.551724137931034</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="5"/>
-        <v>9.0357142857142811</v>
+        <v>10.275862068965516</v>
       </c>
       <c r="K13" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1767,27 +1775,27 @@
       <c r="E14" s="3"/>
       <c r="F14" s="4">
         <f t="shared" si="2"/>
-        <v>9.0357142857142811</v>
+        <v>10.275862068965516</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="5"/>
-        <v>9.0357142857142811</v>
+        <v>10.275862068965516</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1803,27 +1811,27 @@
       <c r="E15" s="3"/>
       <c r="F15" s="4">
         <f t="shared" si="2"/>
-        <v>9.0357142857142811</v>
+        <v>10.275862068965516</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="5"/>
-        <v>9.0357142857142811</v>
+        <v>10.275862068965516</v>
       </c>
       <c r="K15" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1839,27 +1847,27 @@
       <c r="E16" s="3"/>
       <c r="F16" s="4">
         <f t="shared" si="2"/>
-        <v>9.0357142857142811</v>
+        <v>10.275862068965516</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="5"/>
-        <v>9.0357142857142811</v>
+        <v>10.275862068965516</v>
       </c>
       <c r="K16" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1875,27 +1883,27 @@
       <c r="E17" s="3"/>
       <c r="F17" s="4">
         <f t="shared" si="2"/>
-        <v>9.0357142857142811</v>
+        <v>10.275862068965516</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="5"/>
-        <v>9.0357142857142811</v>
+        <v>10.275862068965516</v>
       </c>
       <c r="K17" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1911,27 +1919,27 @@
       <c r="E18" s="3"/>
       <c r="F18" s="4">
         <f t="shared" si="2"/>
-        <v>9.0357142857142811</v>
+        <v>10.275862068965516</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="5"/>
-        <v>9.0357142857142811</v>
+        <v>10.275862068965516</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1947,27 +1955,27 @@
       <c r="E19" s="3"/>
       <c r="F19" s="4">
         <f t="shared" si="2"/>
-        <v>9.0357142857142811</v>
+        <v>10.275862068965516</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="5"/>
-        <v>9.0357142857142811</v>
+        <v>10.275862068965516</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1983,27 +1991,27 @@
       <c r="E20" s="3"/>
       <c r="F20" s="4">
         <f t="shared" si="2"/>
-        <v>9.0357142857142811</v>
+        <v>10.275862068965516</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="5"/>
-        <v>9.0357142857142811</v>
+        <v>10.275862068965516</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2019,27 +2027,27 @@
       <c r="E21" s="3"/>
       <c r="F21" s="4">
         <f t="shared" si="2"/>
-        <v>9.0357142857142811</v>
+        <v>10.275862068965516</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="5"/>
-        <v>9.0357142857142811</v>
+        <v>10.275862068965516</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2055,27 +2063,27 @@
       <c r="E22" s="3"/>
       <c r="F22" s="4">
         <f t="shared" si="2"/>
-        <v>9.0357142857142811</v>
+        <v>10.275862068965516</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="5"/>
-        <v>9.0357142857142811</v>
+        <v>10.275862068965516</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2091,27 +2099,27 @@
       <c r="E23" s="3"/>
       <c r="F23" s="4">
         <f t="shared" si="2"/>
-        <v>9.0357142857142811</v>
+        <v>10.275862068965516</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="5"/>
-        <v>8.7499999999999947</v>
+        <v>9.9999999999999982</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2127,27 +2135,27 @@
       <c r="E24" s="3"/>
       <c r="F24" s="4">
         <f t="shared" si="2"/>
-        <v>8.7499999999999947</v>
+        <v>9.9999999999999982</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="5"/>
-        <v>8.4642857142857082</v>
+        <v>9.7241379310344804</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2163,27 +2171,27 @@
       <c r="E25" s="3"/>
       <c r="F25" s="4">
         <f t="shared" si="2"/>
-        <v>8.4642857142857082</v>
+        <v>9.7241379310344804</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="5"/>
-        <v>8.1785714285714217</v>
+        <v>9.4482758620689626</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2199,27 +2207,27 @@
       <c r="E26" s="3"/>
       <c r="F26" s="4">
         <f t="shared" si="2"/>
-        <v>8.1785714285714217</v>
+        <v>9.4482758620689626</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="5"/>
-        <v>7.8928571428571361</v>
+        <v>9.1724137931034448</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2235,27 +2243,27 @@
       <c r="E27" s="3"/>
       <c r="F27" s="4">
         <f t="shared" si="2"/>
-        <v>7.8928571428571361</v>
+        <v>9.1724137931034448</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="5"/>
-        <v>7.6071428571428505</v>
+        <v>8.8965517241379271</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2271,27 +2279,27 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4">
         <f t="shared" si="2"/>
-        <v>7.6071428571428505</v>
+        <v>8.8965517241379271</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="5"/>
-        <v>7.321428571428565</v>
+        <v>8.6206896551724093</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2307,27 +2315,27 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4">
         <f t="shared" si="2"/>
-        <v>7.321428571428565</v>
+        <v>8.6206896551724093</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="5"/>
-        <v>7.0357142857142794</v>
+        <v>8.3448275862068915</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2343,27 +2351,27 @@
       <c r="E30" s="3"/>
       <c r="F30" s="4">
         <f t="shared" si="2"/>
-        <v>7.0357142857142794</v>
+        <v>8.3448275862068915</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="5"/>
-        <v>6.7499999999999938</v>
+        <v>8.0689655172413737</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2379,27 +2387,27 @@
       <c r="E31" s="3"/>
       <c r="F31" s="4">
         <f t="shared" si="2"/>
-        <v>6.7499999999999938</v>
+        <v>8.0689655172413737</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="5"/>
-        <v>6.4642857142857082</v>
+        <v>7.7931034482758568</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2415,27 +2423,27 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4">
         <f t="shared" si="2"/>
-        <v>6.4642857142857082</v>
+        <v>7.7931034482758568</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="5"/>
-        <v>6.1785714285714226</v>
+        <v>7.5172413793103399</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2451,27 +2459,27 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4">
         <f t="shared" si="2"/>
-        <v>6.1785714285714226</v>
+        <v>7.5172413793103399</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J33" s="4">
         <f t="shared" si="5"/>
-        <v>5.892857142857137</v>
+        <v>7.241379310344823</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2487,27 +2495,27 @@
       <c r="E34" s="3"/>
       <c r="F34" s="4">
         <f t="shared" si="2"/>
-        <v>5.892857142857137</v>
+        <v>7.241379310344823</v>
       </c>
       <c r="G34" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J34" s="4">
         <f t="shared" si="5"/>
-        <v>5.6071428571428514</v>
+        <v>6.9655172413793061</v>
       </c>
       <c r="K34" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2523,27 +2531,27 @@
       <c r="E35" s="3"/>
       <c r="F35" s="4">
         <f t="shared" si="2"/>
-        <v>5.6071428571428514</v>
+        <v>6.9655172413793061</v>
       </c>
       <c r="G35" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J35" s="4">
         <f t="shared" si="5"/>
-        <v>5.3214285714285658</v>
+        <v>6.6896551724137892</v>
       </c>
       <c r="K35" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2559,27 +2567,27 @@
       <c r="E36" s="3"/>
       <c r="F36" s="4">
         <f t="shared" si="2"/>
-        <v>5.3214285714285658</v>
+        <v>6.6896551724137892</v>
       </c>
       <c r="G36" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J36" s="4">
         <f t="shared" si="5"/>
-        <v>5.0357142857142803</v>
+        <v>6.4137931034482722</v>
       </c>
       <c r="K36" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2595,27 +2603,27 @@
       <c r="E37" s="3"/>
       <c r="F37" s="4">
         <f t="shared" si="2"/>
-        <v>5.0357142857142803</v>
+        <v>6.4137931034482722</v>
       </c>
       <c r="G37" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J37" s="4">
         <f t="shared" si="5"/>
-        <v>4.7499999999999947</v>
+        <v>6.1379310344827553</v>
       </c>
       <c r="K37" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2631,27 +2639,27 @@
       <c r="E38" s="3"/>
       <c r="F38" s="4">
         <f t="shared" si="2"/>
-        <v>4.7499999999999947</v>
+        <v>6.1379310344827553</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J38" s="4">
         <f t="shared" si="5"/>
-        <v>4.4642857142857091</v>
+        <v>5.8620689655172384</v>
       </c>
       <c r="K38" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2667,27 +2675,27 @@
       <c r="E39" s="3"/>
       <c r="F39" s="4">
         <f t="shared" si="2"/>
-        <v>4.4642857142857091</v>
+        <v>5.8620689655172384</v>
       </c>
       <c r="G39" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J39" s="4">
         <f t="shared" si="5"/>
-        <v>4.1785714285714235</v>
+        <v>5.5862068965517215</v>
       </c>
       <c r="K39" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2703,27 +2711,27 @@
       <c r="E40" s="3"/>
       <c r="F40" s="4">
         <f t="shared" si="2"/>
-        <v>4.1785714285714235</v>
+        <v>5.5862068965517215</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J40" s="4">
         <f t="shared" si="5"/>
-        <v>3.8928571428571379</v>
+        <v>5.3103448275862046</v>
       </c>
       <c r="K40" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2739,27 +2747,27 @@
       <c r="E41" s="3"/>
       <c r="F41" s="4">
         <f t="shared" si="2"/>
-        <v>3.8928571428571379</v>
+        <v>5.3103448275862046</v>
       </c>
       <c r="G41" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J41" s="4">
         <f t="shared" si="5"/>
-        <v>3.6071428571428523</v>
+        <v>5.0344827586206877</v>
       </c>
       <c r="K41" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2775,27 +2783,27 @@
       <c r="E42" s="3"/>
       <c r="F42" s="4">
         <f t="shared" si="2"/>
-        <v>3.6071428571428523</v>
+        <v>5.0344827586206877</v>
       </c>
       <c r="G42" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J42" s="4">
         <f t="shared" si="5"/>
-        <v>3.3214285714285667</v>
+        <v>4.7586206896551708</v>
       </c>
       <c r="K42" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2811,27 +2819,27 @@
       <c r="E43" s="3"/>
       <c r="F43" s="4">
         <f t="shared" si="2"/>
-        <v>3.3214285714285667</v>
+        <v>4.7586206896551708</v>
       </c>
       <c r="G43" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J43" s="4">
         <f t="shared" si="5"/>
-        <v>3.0357142857142811</v>
+        <v>4.4827586206896539</v>
       </c>
       <c r="K43" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2847,27 +2855,27 @@
       <c r="E44" s="3"/>
       <c r="F44" s="4">
         <f t="shared" si="2"/>
-        <v>3.0357142857142811</v>
+        <v>4.4827586206896539</v>
       </c>
       <c r="G44" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J44" s="4">
         <f t="shared" si="5"/>
-        <v>2.7499999999999956</v>
+        <v>4.206896551724137</v>
       </c>
       <c r="K44" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2883,27 +2891,27 @@
       <c r="E45" s="3"/>
       <c r="F45" s="4">
         <f t="shared" si="2"/>
-        <v>2.7499999999999956</v>
+        <v>4.206896551724137</v>
       </c>
       <c r="G45" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J45" s="4">
         <f t="shared" si="5"/>
-        <v>2.46428571428571</v>
+        <v>3.9310344827586197</v>
       </c>
       <c r="K45" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2919,27 +2927,27 @@
       <c r="E46" s="3"/>
       <c r="F46" s="4">
         <f t="shared" si="2"/>
-        <v>2.46428571428571</v>
+        <v>3.9310344827586197</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J46" s="4">
         <f t="shared" si="5"/>
-        <v>2.1785714285714244</v>
+        <v>3.6551724137931023</v>
       </c>
       <c r="K46" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2955,27 +2963,27 @@
       <c r="E47" s="3"/>
       <c r="F47" s="4">
         <f t="shared" si="2"/>
-        <v>2.1785714285714244</v>
+        <v>3.6551724137931023</v>
       </c>
       <c r="G47" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J47" s="4">
         <f t="shared" si="5"/>
-        <v>1.8928571428571388</v>
+        <v>3.379310344827585</v>
       </c>
       <c r="K47" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -2991,43 +2999,43 @@
       <c r="E48" s="3"/>
       <c r="F48" s="4">
         <f t="shared" si="2"/>
-        <v>1.8928571428571388</v>
+        <v>3.379310344827585</v>
       </c>
       <c r="G48" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" s="4">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J48" s="4">
         <f t="shared" si="5"/>
-        <v>1.6071428571428532</v>
+        <v>3.1034482758620676</v>
       </c>
       <c r="K48" s="7">
         <f t="shared" si="6"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="9">
         <f>SUM(B3:B27)</f>
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9">
         <f>AVERAGE(D3:D48)</f>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E49" s="9">
         <f>AVERAGE(E3:E48)</f>
-        <v>7.6</v>
+        <v>6.8571428571428568</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
@@ -3055,7 +3063,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="H7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/01_Planning/ProductBurndown.xlsx
+++ b/01_Planning/ProductBurndown.xlsx
@@ -512,121 +512,121 @@
                   <c:v>11.344827586206897</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.103448275862069</c:v>
+                  <c:v>10.344827586206897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.827586206896552</c:v>
+                  <c:v>9.5670498084291182</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.551724137931034</c:v>
+                  <c:v>9.2707535121328224</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.275862068965516</c:v>
+                  <c:v>8.9744572158365266</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.275862068965516</c:v>
+                  <c:v>8.9744572158365266</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.275862068965516</c:v>
+                  <c:v>8.9744572158365266</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.275862068965516</c:v>
+                  <c:v>8.9744572158365266</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.275862068965516</c:v>
+                  <c:v>8.9744572158365266</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.275862068965516</c:v>
+                  <c:v>8.9744572158365266</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.275862068965516</c:v>
+                  <c:v>8.9744572158365266</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.275862068965516</c:v>
+                  <c:v>8.9744572158365266</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.275862068965516</c:v>
+                  <c:v>8.9744572158365266</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.275862068965516</c:v>
+                  <c:v>8.9744572158365266</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.9999999999999982</c:v>
+                  <c:v>8.6781609195402307</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.7241379310344804</c:v>
+                  <c:v>8.3818646232439349</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.4482758620689626</c:v>
+                  <c:v>8.0855683269476391</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.1724137931034448</c:v>
+                  <c:v>7.7892720306513432</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.8965517241379271</c:v>
+                  <c:v>7.4929757343550474</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.6206896551724093</c:v>
+                  <c:v>7.1966794380587515</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.3448275862068915</c:v>
+                  <c:v>6.9003831417624557</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.0689655172413737</c:v>
+                  <c:v>6.6040868454661599</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.7931034482758568</c:v>
+                  <c:v>6.307790549169864</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.5172413793103399</c:v>
+                  <c:v>6.0114942528735682</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.241379310344823</c:v>
+                  <c:v>5.7151979565772724</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.9655172413793061</c:v>
+                  <c:v>5.4189016602809765</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.6896551724137892</c:v>
+                  <c:v>5.1226053639846807</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.4137931034482722</c:v>
+                  <c:v>4.8263090676883849</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.1379310344827553</c:v>
+                  <c:v>4.530012771392089</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.8620689655172384</c:v>
+                  <c:v>4.2337164750957932</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.5862068965517215</c:v>
+                  <c:v>3.9374201787994969</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.3103448275862046</c:v>
+                  <c:v>3.6411238825032006</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.0344827586206877</c:v>
+                  <c:v>3.3448275862069043</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.7586206896551708</c:v>
+                  <c:v>3.0485312899106081</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.4827586206896539</c:v>
+                  <c:v>2.7522349936143118</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.206896551724137</c:v>
+                  <c:v>2.4559386973180155</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.9310344827586197</c:v>
+                  <c:v>2.1596424010217192</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.6551724137931023</c:v>
+                  <c:v>1.8633461047254229</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.379310344827585</c:v>
+                  <c:v>1.5670498084291267</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.1034482758620676</c:v>
+                  <c:v>1.2707535121328304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -642,11 +642,11 @@
         </c:dLbls>
         <c:gapWidth val="40"/>
         <c:overlap val="-10"/>
-        <c:axId val="401519072"/>
-        <c:axId val="401524168"/>
+        <c:axId val="392204488"/>
+        <c:axId val="392205664"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="401519072"/>
+        <c:axId val="392204488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -685,14 +685,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401524168"/>
+        <c:crossAx val="392205664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="401524168"/>
+        <c:axId val="392205664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -738,7 +738,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401519072"/>
+        <c:crossAx val="392204488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -1276,7 +1276,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1628,7 +1628,9 @@
       <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3">
+        <v>6</v>
+      </c>
       <c r="F10" s="4">
         <f t="shared" si="2"/>
         <v>11.344827586206897</v>
@@ -1647,11 +1649,11 @@
       </c>
       <c r="J10" s="4">
         <f t="shared" si="5"/>
-        <v>11.103448275862069</v>
+        <v>10.344827586206897</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1660,14 +1662,14 @@
         <v>41447</v>
       </c>
       <c r="B11" s="3">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="4">
         <f t="shared" si="2"/>
-        <v>11.103448275862069</v>
+        <v>10.344827586206897</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="3"/>
@@ -1679,15 +1681,15 @@
       </c>
       <c r="I11" s="4">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="5"/>
-        <v>10.827586206896552</v>
+        <v>9.5670498084291182</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1703,7 +1705,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="4">
         <f t="shared" si="2"/>
-        <v>10.827586206896552</v>
+        <v>9.5670498084291182</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="3"/>
@@ -1715,15 +1717,15 @@
       </c>
       <c r="I12" s="4">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="5"/>
-        <v>10.551724137931034</v>
+        <v>9.2707535121328224</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1739,7 +1741,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="4">
         <f t="shared" si="2"/>
-        <v>10.551724137931034</v>
+        <v>9.2707535121328224</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="3"/>
@@ -1751,15 +1753,15 @@
       </c>
       <c r="I13" s="4">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="5"/>
-        <v>10.275862068965516</v>
+        <v>8.9744572158365266</v>
       </c>
       <c r="K13" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1775,7 +1777,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="4">
         <f t="shared" si="2"/>
-        <v>10.275862068965516</v>
+        <v>8.9744572158365266</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="3"/>
@@ -1787,15 +1789,15 @@
       </c>
       <c r="I14" s="4">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="5"/>
-        <v>10.275862068965516</v>
+        <v>8.9744572158365266</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1811,7 +1813,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="4">
         <f t="shared" si="2"/>
-        <v>10.275862068965516</v>
+        <v>8.9744572158365266</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" si="3"/>
@@ -1823,15 +1825,15 @@
       </c>
       <c r="I15" s="4">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="5"/>
-        <v>10.275862068965516</v>
+        <v>8.9744572158365266</v>
       </c>
       <c r="K15" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1847,7 +1849,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="4">
         <f t="shared" si="2"/>
-        <v>10.275862068965516</v>
+        <v>8.9744572158365266</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="3"/>
@@ -1859,15 +1861,15 @@
       </c>
       <c r="I16" s="4">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="5"/>
-        <v>10.275862068965516</v>
+        <v>8.9744572158365266</v>
       </c>
       <c r="K16" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1883,7 +1885,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="4">
         <f t="shared" si="2"/>
-        <v>10.275862068965516</v>
+        <v>8.9744572158365266</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" si="3"/>
@@ -1895,15 +1897,15 @@
       </c>
       <c r="I17" s="4">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="5"/>
-        <v>10.275862068965516</v>
+        <v>8.9744572158365266</v>
       </c>
       <c r="K17" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1919,7 +1921,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="4">
         <f t="shared" si="2"/>
-        <v>10.275862068965516</v>
+        <v>8.9744572158365266</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="3"/>
@@ -1931,15 +1933,15 @@
       </c>
       <c r="I18" s="4">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="5"/>
-        <v>10.275862068965516</v>
+        <v>8.9744572158365266</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1955,7 +1957,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="4">
         <f t="shared" si="2"/>
-        <v>10.275862068965516</v>
+        <v>8.9744572158365266</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="3"/>
@@ -1967,15 +1969,15 @@
       </c>
       <c r="I19" s="4">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="5"/>
-        <v>10.275862068965516</v>
+        <v>8.9744572158365266</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1991,7 +1993,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="4">
         <f t="shared" si="2"/>
-        <v>10.275862068965516</v>
+        <v>8.9744572158365266</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="3"/>
@@ -2003,15 +2005,15 @@
       </c>
       <c r="I20" s="4">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="5"/>
-        <v>10.275862068965516</v>
+        <v>8.9744572158365266</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2027,7 +2029,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="4">
         <f t="shared" si="2"/>
-        <v>10.275862068965516</v>
+        <v>8.9744572158365266</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="3"/>
@@ -2039,15 +2041,15 @@
       </c>
       <c r="I21" s="4">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="5"/>
-        <v>10.275862068965516</v>
+        <v>8.9744572158365266</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2063,7 +2065,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="4">
         <f t="shared" si="2"/>
-        <v>10.275862068965516</v>
+        <v>8.9744572158365266</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="3"/>
@@ -2075,15 +2077,15 @@
       </c>
       <c r="I22" s="4">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="5"/>
-        <v>10.275862068965516</v>
+        <v>8.9744572158365266</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2099,7 +2101,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="4">
         <f t="shared" si="2"/>
-        <v>10.275862068965516</v>
+        <v>8.9744572158365266</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="3"/>
@@ -2111,15 +2113,15 @@
       </c>
       <c r="I23" s="4">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="5"/>
-        <v>9.9999999999999982</v>
+        <v>8.6781609195402307</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2135,7 +2137,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="4">
         <f t="shared" si="2"/>
-        <v>9.9999999999999982</v>
+        <v>8.6781609195402307</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="3"/>
@@ -2147,15 +2149,15 @@
       </c>
       <c r="I24" s="4">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="5"/>
-        <v>9.7241379310344804</v>
+        <v>8.3818646232439349</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2171,7 +2173,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="4">
         <f t="shared" si="2"/>
-        <v>9.7241379310344804</v>
+        <v>8.3818646232439349</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="3"/>
@@ -2183,15 +2185,15 @@
       </c>
       <c r="I25" s="4">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="5"/>
-        <v>9.4482758620689626</v>
+        <v>8.0855683269476391</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2207,7 +2209,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="4">
         <f t="shared" si="2"/>
-        <v>9.4482758620689626</v>
+        <v>8.0855683269476391</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="3"/>
@@ -2219,15 +2221,15 @@
       </c>
       <c r="I26" s="4">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="5"/>
-        <v>9.1724137931034448</v>
+        <v>7.7892720306513432</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2243,7 +2245,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="4">
         <f t="shared" si="2"/>
-        <v>9.1724137931034448</v>
+        <v>7.7892720306513432</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="3"/>
@@ -2255,15 +2257,15 @@
       </c>
       <c r="I27" s="4">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="5"/>
-        <v>8.8965517241379271</v>
+        <v>7.4929757343550474</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2279,7 +2281,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4">
         <f t="shared" si="2"/>
-        <v>8.8965517241379271</v>
+        <v>7.4929757343550474</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="3"/>
@@ -2291,15 +2293,15 @@
       </c>
       <c r="I28" s="4">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="5"/>
-        <v>8.6206896551724093</v>
+        <v>7.1966794380587515</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2315,7 +2317,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4">
         <f t="shared" si="2"/>
-        <v>8.6206896551724093</v>
+        <v>7.1966794380587515</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="3"/>
@@ -2327,15 +2329,15 @@
       </c>
       <c r="I29" s="4">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="5"/>
-        <v>8.3448275862068915</v>
+        <v>6.9003831417624557</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2351,7 +2353,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="4">
         <f t="shared" si="2"/>
-        <v>8.3448275862068915</v>
+        <v>6.9003831417624557</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="3"/>
@@ -2363,15 +2365,15 @@
       </c>
       <c r="I30" s="4">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="5"/>
-        <v>8.0689655172413737</v>
+        <v>6.6040868454661599</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2387,7 +2389,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="4">
         <f t="shared" si="2"/>
-        <v>8.0689655172413737</v>
+        <v>6.6040868454661599</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="3"/>
@@ -2399,15 +2401,15 @@
       </c>
       <c r="I31" s="4">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="5"/>
-        <v>7.7931034482758568</v>
+        <v>6.307790549169864</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2423,7 +2425,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4">
         <f t="shared" si="2"/>
-        <v>7.7931034482758568</v>
+        <v>6.307790549169864</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="3"/>
@@ -2435,15 +2437,15 @@
       </c>
       <c r="I32" s="4">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="5"/>
-        <v>7.5172413793103399</v>
+        <v>6.0114942528735682</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2459,7 +2461,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4">
         <f t="shared" si="2"/>
-        <v>7.5172413793103399</v>
+        <v>6.0114942528735682</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="3"/>
@@ -2471,15 +2473,15 @@
       </c>
       <c r="I33" s="4">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J33" s="4">
         <f t="shared" si="5"/>
-        <v>7.241379310344823</v>
+        <v>5.7151979565772724</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2495,7 +2497,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="4">
         <f t="shared" si="2"/>
-        <v>7.241379310344823</v>
+        <v>5.7151979565772724</v>
       </c>
       <c r="G34" s="4">
         <f t="shared" si="3"/>
@@ -2507,15 +2509,15 @@
       </c>
       <c r="I34" s="4">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J34" s="4">
         <f t="shared" si="5"/>
-        <v>6.9655172413793061</v>
+        <v>5.4189016602809765</v>
       </c>
       <c r="K34" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2531,7 +2533,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="4">
         <f t="shared" si="2"/>
-        <v>6.9655172413793061</v>
+        <v>5.4189016602809765</v>
       </c>
       <c r="G35" s="4">
         <f t="shared" si="3"/>
@@ -2543,15 +2545,15 @@
       </c>
       <c r="I35" s="4">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J35" s="4">
         <f t="shared" si="5"/>
-        <v>6.6896551724137892</v>
+        <v>5.1226053639846807</v>
       </c>
       <c r="K35" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2567,7 +2569,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="4">
         <f t="shared" si="2"/>
-        <v>6.6896551724137892</v>
+        <v>5.1226053639846807</v>
       </c>
       <c r="G36" s="4">
         <f t="shared" si="3"/>
@@ -2579,15 +2581,15 @@
       </c>
       <c r="I36" s="4">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J36" s="4">
         <f t="shared" si="5"/>
-        <v>6.4137931034482722</v>
+        <v>4.8263090676883849</v>
       </c>
       <c r="K36" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2603,7 +2605,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="4">
         <f t="shared" si="2"/>
-        <v>6.4137931034482722</v>
+        <v>4.8263090676883849</v>
       </c>
       <c r="G37" s="4">
         <f t="shared" si="3"/>
@@ -2615,15 +2617,15 @@
       </c>
       <c r="I37" s="4">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J37" s="4">
         <f t="shared" si="5"/>
-        <v>6.1379310344827553</v>
+        <v>4.530012771392089</v>
       </c>
       <c r="K37" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2639,7 +2641,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="4">
         <f t="shared" si="2"/>
-        <v>6.1379310344827553</v>
+        <v>4.530012771392089</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" si="3"/>
@@ -2651,15 +2653,15 @@
       </c>
       <c r="I38" s="4">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J38" s="4">
         <f t="shared" si="5"/>
-        <v>5.8620689655172384</v>
+        <v>4.2337164750957932</v>
       </c>
       <c r="K38" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2675,7 +2677,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="4">
         <f t="shared" si="2"/>
-        <v>5.8620689655172384</v>
+        <v>4.2337164750957932</v>
       </c>
       <c r="G39" s="4">
         <f t="shared" si="3"/>
@@ -2687,15 +2689,15 @@
       </c>
       <c r="I39" s="4">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J39" s="4">
         <f t="shared" si="5"/>
-        <v>5.5862068965517215</v>
+        <v>3.9374201787994969</v>
       </c>
       <c r="K39" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2711,7 +2713,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="4">
         <f t="shared" si="2"/>
-        <v>5.5862068965517215</v>
+        <v>3.9374201787994969</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" si="3"/>
@@ -2723,15 +2725,15 @@
       </c>
       <c r="I40" s="4">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J40" s="4">
         <f t="shared" si="5"/>
-        <v>5.3103448275862046</v>
+        <v>3.6411238825032006</v>
       </c>
       <c r="K40" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2747,7 +2749,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="4">
         <f t="shared" si="2"/>
-        <v>5.3103448275862046</v>
+        <v>3.6411238825032006</v>
       </c>
       <c r="G41" s="4">
         <f t="shared" si="3"/>
@@ -2759,15 +2761,15 @@
       </c>
       <c r="I41" s="4">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J41" s="4">
         <f t="shared" si="5"/>
-        <v>5.0344827586206877</v>
+        <v>3.3448275862069043</v>
       </c>
       <c r="K41" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2783,7 +2785,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="4">
         <f t="shared" si="2"/>
-        <v>5.0344827586206877</v>
+        <v>3.3448275862069043</v>
       </c>
       <c r="G42" s="4">
         <f t="shared" si="3"/>
@@ -2795,15 +2797,15 @@
       </c>
       <c r="I42" s="4">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J42" s="4">
         <f t="shared" si="5"/>
-        <v>4.7586206896551708</v>
+        <v>3.0485312899106081</v>
       </c>
       <c r="K42" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2819,7 +2821,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="4">
         <f t="shared" si="2"/>
-        <v>4.7586206896551708</v>
+        <v>3.0485312899106081</v>
       </c>
       <c r="G43" s="4">
         <f t="shared" si="3"/>
@@ -2831,15 +2833,15 @@
       </c>
       <c r="I43" s="4">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J43" s="4">
         <f t="shared" si="5"/>
-        <v>4.4827586206896539</v>
+        <v>2.7522349936143118</v>
       </c>
       <c r="K43" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2855,7 +2857,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="4">
         <f t="shared" si="2"/>
-        <v>4.4827586206896539</v>
+        <v>2.7522349936143118</v>
       </c>
       <c r="G44" s="4">
         <f t="shared" si="3"/>
@@ -2867,15 +2869,15 @@
       </c>
       <c r="I44" s="4">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J44" s="4">
         <f t="shared" si="5"/>
-        <v>4.206896551724137</v>
+        <v>2.4559386973180155</v>
       </c>
       <c r="K44" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2891,7 +2893,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="4">
         <f t="shared" si="2"/>
-        <v>4.206896551724137</v>
+        <v>2.4559386973180155</v>
       </c>
       <c r="G45" s="4">
         <f t="shared" si="3"/>
@@ -2903,15 +2905,15 @@
       </c>
       <c r="I45" s="4">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J45" s="4">
         <f t="shared" si="5"/>
-        <v>3.9310344827586197</v>
+        <v>2.1596424010217192</v>
       </c>
       <c r="K45" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2927,7 +2929,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="4">
         <f t="shared" si="2"/>
-        <v>3.9310344827586197</v>
+        <v>2.1596424010217192</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" si="3"/>
@@ -2939,15 +2941,15 @@
       </c>
       <c r="I46" s="4">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J46" s="4">
         <f t="shared" si="5"/>
-        <v>3.6551724137931023</v>
+        <v>1.8633461047254229</v>
       </c>
       <c r="K46" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2963,7 +2965,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="4">
         <f t="shared" si="2"/>
-        <v>3.6551724137931023</v>
+        <v>1.8633461047254229</v>
       </c>
       <c r="G47" s="4">
         <f t="shared" si="3"/>
@@ -2975,15 +2977,15 @@
       </c>
       <c r="I47" s="4">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J47" s="4">
         <f t="shared" si="5"/>
-        <v>3.379310344827585</v>
+        <v>1.5670498084291267</v>
       </c>
       <c r="K47" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -2999,7 +3001,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="4">
         <f t="shared" si="2"/>
-        <v>3.379310344827585</v>
+        <v>1.5670498084291267</v>
       </c>
       <c r="G48" s="4">
         <f t="shared" si="3"/>
@@ -3011,22 +3013,22 @@
       </c>
       <c r="I48" s="4">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J48" s="4">
         <f t="shared" si="5"/>
-        <v>3.1034482758620676</v>
+        <v>1.2707535121328304</v>
       </c>
       <c r="K48" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="9">
         <f>SUM(B3:B27)</f>
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9">
@@ -3035,7 +3037,7 @@
       </c>
       <c r="E49" s="9">
         <f>AVERAGE(E3:E48)</f>
-        <v>6.8571428571428568</v>
+        <v>6.75</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>

--- a/01_Planning/ProductBurndown.xlsx
+++ b/01_Planning/ProductBurndown.xlsx
@@ -551,82 +551,82 @@
                   <c:v>8.9744572158365266</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.6781609195402307</c:v>
+                  <c:v>8.4559386973180075</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.3818646232439349</c:v>
+                  <c:v>8.1596424010217117</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.0855683269476391</c:v>
+                  <c:v>7.8633461047254158</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.7892720306513432</c:v>
+                  <c:v>7.56704980842912</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.4929757343550474</c:v>
+                  <c:v>7.2707535121328242</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.1966794380587515</c:v>
+                  <c:v>6.9744572158365283</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.9003831417624557</c:v>
+                  <c:v>6.6781609195402325</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.6040868454661599</c:v>
+                  <c:v>6.3818646232439367</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.307790549169864</c:v>
+                  <c:v>6.0855683269476408</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.0114942528735682</c:v>
+                  <c:v>5.789272030651345</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.7151979565772724</c:v>
+                  <c:v>5.4929757343550492</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.4189016602809765</c:v>
+                  <c:v>5.1966794380587533</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.1226053639846807</c:v>
+                  <c:v>4.9003831417624575</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.8263090676883849</c:v>
+                  <c:v>4.6040868454661616</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.530012771392089</c:v>
+                  <c:v>4.3077905491698658</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.2337164750957932</c:v>
+                  <c:v>4.01149425287357</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.9374201787994969</c:v>
+                  <c:v>3.7151979565772737</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.6411238825032006</c:v>
+                  <c:v>3.4189016602809774</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.3448275862069043</c:v>
+                  <c:v>3.1226053639846811</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.0485312899106081</c:v>
+                  <c:v>2.8263090676883849</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.7522349936143118</c:v>
+                  <c:v>2.5300127713920886</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.4559386973180155</c:v>
+                  <c:v>2.2337164750957923</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.1596424010217192</c:v>
+                  <c:v>1.937420178799496</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.8633461047254229</c:v>
+                  <c:v>1.6411238825031997</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.5670498084291267</c:v>
+                  <c:v>1.3448275862069035</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.2707535121328304</c:v>
+                  <c:v>1.0485312899106072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -642,11 +642,11 @@
         </c:dLbls>
         <c:gapWidth val="40"/>
         <c:overlap val="-10"/>
-        <c:axId val="392204488"/>
-        <c:axId val="392205664"/>
+        <c:axId val="178176616"/>
+        <c:axId val="178178184"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="392204488"/>
+        <c:axId val="178176616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -685,14 +685,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392205664"/>
+        <c:crossAx val="178178184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="392205664"/>
+        <c:axId val="178178184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -738,7 +738,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392204488"/>
+        <c:crossAx val="178176616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -1273,10 +1273,10 @@
   <dimension ref="A1:IV49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1666,7 +1666,9 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3">
+        <v>15</v>
+      </c>
       <c r="F11" s="4">
         <f t="shared" si="2"/>
         <v>10.344827586206897</v>
@@ -1717,7 +1719,7 @@
       </c>
       <c r="I12" s="4">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="5"/>
@@ -1753,7 +1755,7 @@
       </c>
       <c r="I13" s="4">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="5"/>
@@ -1789,7 +1791,7 @@
       </c>
       <c r="I14" s="4">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="5"/>
@@ -1825,7 +1827,7 @@
       </c>
       <c r="I15" s="4">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="5"/>
@@ -1861,7 +1863,7 @@
       </c>
       <c r="I16" s="4">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="5"/>
@@ -1897,7 +1899,7 @@
       </c>
       <c r="I17" s="4">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="5"/>
@@ -1933,7 +1935,7 @@
       </c>
       <c r="I18" s="4">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="5"/>
@@ -1969,7 +1971,7 @@
       </c>
       <c r="I19" s="4">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="5"/>
@@ -2005,7 +2007,7 @@
       </c>
       <c r="I20" s="4">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="5"/>
@@ -2041,7 +2043,7 @@
       </c>
       <c r="I21" s="4">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="5"/>
@@ -2077,7 +2079,7 @@
       </c>
       <c r="I22" s="4">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="5"/>
@@ -2094,7 +2096,7 @@
         <v>41531</v>
       </c>
       <c r="B23" s="3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -2113,11 +2115,11 @@
       </c>
       <c r="I23" s="4">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="5"/>
-        <v>8.6781609195402307</v>
+        <v>8.4559386973180075</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="6"/>
@@ -2137,7 +2139,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="4">
         <f t="shared" si="2"/>
-        <v>8.6781609195402307</v>
+        <v>8.4559386973180075</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="3"/>
@@ -2149,11 +2151,11 @@
       </c>
       <c r="I24" s="4">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="5"/>
-        <v>8.3818646232439349</v>
+        <v>8.1596424010217117</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="6"/>
@@ -2173,7 +2175,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="4">
         <f t="shared" si="2"/>
-        <v>8.3818646232439349</v>
+        <v>8.1596424010217117</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="3"/>
@@ -2185,11 +2187,11 @@
       </c>
       <c r="I25" s="4">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="5"/>
-        <v>8.0855683269476391</v>
+        <v>7.8633461047254158</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="6"/>
@@ -2209,7 +2211,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="4">
         <f t="shared" si="2"/>
-        <v>8.0855683269476391</v>
+        <v>7.8633461047254158</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="3"/>
@@ -2221,11 +2223,11 @@
       </c>
       <c r="I26" s="4">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="5"/>
-        <v>7.7892720306513432</v>
+        <v>7.56704980842912</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="6"/>
@@ -2245,7 +2247,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="4">
         <f t="shared" si="2"/>
-        <v>7.7892720306513432</v>
+        <v>7.56704980842912</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="3"/>
@@ -2257,11 +2259,11 @@
       </c>
       <c r="I27" s="4">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="5"/>
-        <v>7.4929757343550474</v>
+        <v>7.2707535121328242</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="6"/>
@@ -2281,7 +2283,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4">
         <f t="shared" si="2"/>
-        <v>7.4929757343550474</v>
+        <v>7.2707535121328242</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="3"/>
@@ -2293,11 +2295,11 @@
       </c>
       <c r="I28" s="4">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="5"/>
-        <v>7.1966794380587515</v>
+        <v>6.9744572158365283</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="6"/>
@@ -2317,7 +2319,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4">
         <f t="shared" si="2"/>
-        <v>7.1966794380587515</v>
+        <v>6.9744572158365283</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="3"/>
@@ -2329,11 +2331,11 @@
       </c>
       <c r="I29" s="4">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="5"/>
-        <v>6.9003831417624557</v>
+        <v>6.6781609195402325</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="6"/>
@@ -2353,7 +2355,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="4">
         <f t="shared" si="2"/>
-        <v>6.9003831417624557</v>
+        <v>6.6781609195402325</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="3"/>
@@ -2365,11 +2367,11 @@
       </c>
       <c r="I30" s="4">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="5"/>
-        <v>6.6040868454661599</v>
+        <v>6.3818646232439367</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="6"/>
@@ -2389,7 +2391,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="4">
         <f t="shared" si="2"/>
-        <v>6.6040868454661599</v>
+        <v>6.3818646232439367</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="3"/>
@@ -2401,11 +2403,11 @@
       </c>
       <c r="I31" s="4">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="5"/>
-        <v>6.307790549169864</v>
+        <v>6.0855683269476408</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="6"/>
@@ -2425,7 +2427,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4">
         <f t="shared" si="2"/>
-        <v>6.307790549169864</v>
+        <v>6.0855683269476408</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="3"/>
@@ -2437,11 +2439,11 @@
       </c>
       <c r="I32" s="4">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="5"/>
-        <v>6.0114942528735682</v>
+        <v>5.789272030651345</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="6"/>
@@ -2461,7 +2463,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4">
         <f t="shared" si="2"/>
-        <v>6.0114942528735682</v>
+        <v>5.789272030651345</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="3"/>
@@ -2473,11 +2475,11 @@
       </c>
       <c r="I33" s="4">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J33" s="4">
         <f t="shared" si="5"/>
-        <v>5.7151979565772724</v>
+        <v>5.4929757343550492</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="6"/>
@@ -2497,7 +2499,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="4">
         <f t="shared" si="2"/>
-        <v>5.7151979565772724</v>
+        <v>5.4929757343550492</v>
       </c>
       <c r="G34" s="4">
         <f t="shared" si="3"/>
@@ -2509,11 +2511,11 @@
       </c>
       <c r="I34" s="4">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J34" s="4">
         <f t="shared" si="5"/>
-        <v>5.4189016602809765</v>
+        <v>5.1966794380587533</v>
       </c>
       <c r="K34" s="7">
         <f t="shared" si="6"/>
@@ -2533,7 +2535,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="4">
         <f t="shared" si="2"/>
-        <v>5.4189016602809765</v>
+        <v>5.1966794380587533</v>
       </c>
       <c r="G35" s="4">
         <f t="shared" si="3"/>
@@ -2545,11 +2547,11 @@
       </c>
       <c r="I35" s="4">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J35" s="4">
         <f t="shared" si="5"/>
-        <v>5.1226053639846807</v>
+        <v>4.9003831417624575</v>
       </c>
       <c r="K35" s="7">
         <f t="shared" si="6"/>
@@ -2569,7 +2571,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="4">
         <f t="shared" si="2"/>
-        <v>5.1226053639846807</v>
+        <v>4.9003831417624575</v>
       </c>
       <c r="G36" s="4">
         <f t="shared" si="3"/>
@@ -2581,11 +2583,11 @@
       </c>
       <c r="I36" s="4">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J36" s="4">
         <f t="shared" si="5"/>
-        <v>4.8263090676883849</v>
+        <v>4.6040868454661616</v>
       </c>
       <c r="K36" s="7">
         <f t="shared" si="6"/>
@@ -2605,7 +2607,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="4">
         <f t="shared" si="2"/>
-        <v>4.8263090676883849</v>
+        <v>4.6040868454661616</v>
       </c>
       <c r="G37" s="4">
         <f t="shared" si="3"/>
@@ -2617,11 +2619,11 @@
       </c>
       <c r="I37" s="4">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J37" s="4">
         <f t="shared" si="5"/>
-        <v>4.530012771392089</v>
+        <v>4.3077905491698658</v>
       </c>
       <c r="K37" s="7">
         <f t="shared" si="6"/>
@@ -2641,7 +2643,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="4">
         <f t="shared" si="2"/>
-        <v>4.530012771392089</v>
+        <v>4.3077905491698658</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" si="3"/>
@@ -2653,11 +2655,11 @@
       </c>
       <c r="I38" s="4">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J38" s="4">
         <f t="shared" si="5"/>
-        <v>4.2337164750957932</v>
+        <v>4.01149425287357</v>
       </c>
       <c r="K38" s="7">
         <f t="shared" si="6"/>
@@ -2677,7 +2679,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="4">
         <f t="shared" si="2"/>
-        <v>4.2337164750957932</v>
+        <v>4.01149425287357</v>
       </c>
       <c r="G39" s="4">
         <f t="shared" si="3"/>
@@ -2689,11 +2691,11 @@
       </c>
       <c r="I39" s="4">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J39" s="4">
         <f t="shared" si="5"/>
-        <v>3.9374201787994969</v>
+        <v>3.7151979565772737</v>
       </c>
       <c r="K39" s="7">
         <f t="shared" si="6"/>
@@ -2713,7 +2715,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="4">
         <f t="shared" si="2"/>
-        <v>3.9374201787994969</v>
+        <v>3.7151979565772737</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" si="3"/>
@@ -2725,11 +2727,11 @@
       </c>
       <c r="I40" s="4">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J40" s="4">
         <f t="shared" si="5"/>
-        <v>3.6411238825032006</v>
+        <v>3.4189016602809774</v>
       </c>
       <c r="K40" s="7">
         <f t="shared" si="6"/>
@@ -2749,7 +2751,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="4">
         <f t="shared" si="2"/>
-        <v>3.6411238825032006</v>
+        <v>3.4189016602809774</v>
       </c>
       <c r="G41" s="4">
         <f t="shared" si="3"/>
@@ -2761,11 +2763,11 @@
       </c>
       <c r="I41" s="4">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J41" s="4">
         <f t="shared" si="5"/>
-        <v>3.3448275862069043</v>
+        <v>3.1226053639846811</v>
       </c>
       <c r="K41" s="7">
         <f t="shared" si="6"/>
@@ -2785,7 +2787,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="4">
         <f t="shared" si="2"/>
-        <v>3.3448275862069043</v>
+        <v>3.1226053639846811</v>
       </c>
       <c r="G42" s="4">
         <f t="shared" si="3"/>
@@ -2797,11 +2799,11 @@
       </c>
       <c r="I42" s="4">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J42" s="4">
         <f t="shared" si="5"/>
-        <v>3.0485312899106081</v>
+        <v>2.8263090676883849</v>
       </c>
       <c r="K42" s="7">
         <f t="shared" si="6"/>
@@ -2821,7 +2823,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="4">
         <f t="shared" si="2"/>
-        <v>3.0485312899106081</v>
+        <v>2.8263090676883849</v>
       </c>
       <c r="G43" s="4">
         <f t="shared" si="3"/>
@@ -2833,11 +2835,11 @@
       </c>
       <c r="I43" s="4">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J43" s="4">
         <f t="shared" si="5"/>
-        <v>2.7522349936143118</v>
+        <v>2.5300127713920886</v>
       </c>
       <c r="K43" s="7">
         <f t="shared" si="6"/>
@@ -2857,7 +2859,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="4">
         <f t="shared" si="2"/>
-        <v>2.7522349936143118</v>
+        <v>2.5300127713920886</v>
       </c>
       <c r="G44" s="4">
         <f t="shared" si="3"/>
@@ -2869,11 +2871,11 @@
       </c>
       <c r="I44" s="4">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J44" s="4">
         <f t="shared" si="5"/>
-        <v>2.4559386973180155</v>
+        <v>2.2337164750957923</v>
       </c>
       <c r="K44" s="7">
         <f t="shared" si="6"/>
@@ -2893,7 +2895,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="4">
         <f t="shared" si="2"/>
-        <v>2.4559386973180155</v>
+        <v>2.2337164750957923</v>
       </c>
       <c r="G45" s="4">
         <f t="shared" si="3"/>
@@ -2905,11 +2907,11 @@
       </c>
       <c r="I45" s="4">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J45" s="4">
         <f t="shared" si="5"/>
-        <v>2.1596424010217192</v>
+        <v>1.937420178799496</v>
       </c>
       <c r="K45" s="7">
         <f t="shared" si="6"/>
@@ -2929,7 +2931,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="4">
         <f t="shared" si="2"/>
-        <v>2.1596424010217192</v>
+        <v>1.937420178799496</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" si="3"/>
@@ -2941,11 +2943,11 @@
       </c>
       <c r="I46" s="4">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J46" s="4">
         <f t="shared" si="5"/>
-        <v>1.8633461047254229</v>
+        <v>1.6411238825031997</v>
       </c>
       <c r="K46" s="7">
         <f t="shared" si="6"/>
@@ -2965,7 +2967,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="4">
         <f t="shared" si="2"/>
-        <v>1.8633461047254229</v>
+        <v>1.6411238825031997</v>
       </c>
       <c r="G47" s="4">
         <f t="shared" si="3"/>
@@ -2977,11 +2979,11 @@
       </c>
       <c r="I47" s="4">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J47" s="4">
         <f t="shared" si="5"/>
-        <v>1.5670498084291267</v>
+        <v>1.3448275862069035</v>
       </c>
       <c r="K47" s="7">
         <f t="shared" si="6"/>
@@ -3001,7 +3003,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="4">
         <f t="shared" si="2"/>
-        <v>1.5670498084291267</v>
+        <v>1.3448275862069035</v>
       </c>
       <c r="G48" s="4">
         <f t="shared" si="3"/>
@@ -3013,11 +3015,11 @@
       </c>
       <c r="I48" s="4">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J48" s="4">
         <f t="shared" si="5"/>
-        <v>1.2707535121328304</v>
+        <v>1.0485312899106072</v>
       </c>
       <c r="K48" s="7">
         <f t="shared" si="6"/>
@@ -3028,7 +3030,7 @@
       <c r="A49" s="8"/>
       <c r="B49" s="9">
         <f>SUM(B3:B27)</f>
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9">
@@ -3037,7 +3039,7 @@
       </c>
       <c r="E49" s="9">
         <f>AVERAGE(E3:E48)</f>
-        <v>6.75</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>

--- a/01_Planning/ProductBurndown.xlsx
+++ b/01_Planning/ProductBurndown.xlsx
@@ -554,79 +554,79 @@
                   <c:v>8.4559386973180075</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.1596424010217117</c:v>
+                  <c:v>7.6411238825031926</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.8633461047254158</c:v>
+                  <c:v>7.3448275862068968</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.56704980842912</c:v>
+                  <c:v>7.048531289910601</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.2707535121328242</c:v>
+                  <c:v>6.7522349936143051</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.9744572158365283</c:v>
+                  <c:v>6.4559386973180093</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.6781609195402325</c:v>
+                  <c:v>6.1596424010217135</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.3818646232439367</c:v>
+                  <c:v>5.8633461047254176</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.0855683269476408</c:v>
+                  <c:v>5.5670498084291218</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.789272030651345</c:v>
+                  <c:v>5.2707535121328259</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.4929757343550492</c:v>
+                  <c:v>4.9744572158365301</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.1966794380587533</c:v>
+                  <c:v>4.6781609195402343</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.9003831417624575</c:v>
+                  <c:v>4.3818646232439384</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.6040868454661616</c:v>
+                  <c:v>4.0855683269476426</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.3077905491698658</c:v>
+                  <c:v>3.7892720306513463</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.01149425287357</c:v>
+                  <c:v>3.49297573435505</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.7151979565772737</c:v>
+                  <c:v>3.1966794380587538</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.4189016602809774</c:v>
+                  <c:v>2.9003831417624575</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.1226053639846811</c:v>
+                  <c:v>2.6040868454661612</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.8263090676883849</c:v>
+                  <c:v>2.3077905491698649</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.5300127713920886</c:v>
+                  <c:v>2.0114942528735686</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.2337164750957923</c:v>
+                  <c:v>1.7151979565772724</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.937420178799496</c:v>
+                  <c:v>1.4189016602809761</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.6411238825031997</c:v>
+                  <c:v>1.1226053639846798</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.3448275862069035</c:v>
+                  <c:v>0.82630906768838353</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.0485312899106072</c:v>
+                  <c:v>0.53001277139208725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -642,11 +642,11 @@
         </c:dLbls>
         <c:gapWidth val="40"/>
         <c:overlap val="-10"/>
-        <c:axId val="178176616"/>
-        <c:axId val="178178184"/>
+        <c:axId val="173452856"/>
+        <c:axId val="173447760"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="178176616"/>
+        <c:axId val="173452856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -685,14 +685,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178178184"/>
+        <c:crossAx val="173447760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="178178184"/>
+        <c:axId val="173447760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -738,7 +738,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178176616"/>
+        <c:crossAx val="173452856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -1273,10 +1273,10 @@
   <dimension ref="A1:IV49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2100,7 +2100,9 @@
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3">
+        <v>9</v>
+      </c>
       <c r="F23" s="4">
         <f t="shared" si="2"/>
         <v>8.9744572158365266</v>
@@ -2132,7 +2134,7 @@
         <v>41538</v>
       </c>
       <c r="B24" s="3">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -2151,11 +2153,11 @@
       </c>
       <c r="I24" s="4">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="5"/>
-        <v>8.1596424010217117</v>
+        <v>7.6411238825031926</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="6"/>
@@ -2175,7 +2177,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="4">
         <f t="shared" si="2"/>
-        <v>8.1596424010217117</v>
+        <v>7.6411238825031926</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="3"/>
@@ -2187,11 +2189,11 @@
       </c>
       <c r="I25" s="4">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="5"/>
-        <v>7.8633461047254158</v>
+        <v>7.3448275862068968</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="6"/>
@@ -2211,7 +2213,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="4">
         <f t="shared" si="2"/>
-        <v>7.8633461047254158</v>
+        <v>7.3448275862068968</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="3"/>
@@ -2223,11 +2225,11 @@
       </c>
       <c r="I26" s="4">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="5"/>
-        <v>7.56704980842912</v>
+        <v>7.048531289910601</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="6"/>
@@ -2247,7 +2249,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="4">
         <f t="shared" si="2"/>
-        <v>7.56704980842912</v>
+        <v>7.048531289910601</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="3"/>
@@ -2259,11 +2261,11 @@
       </c>
       <c r="I27" s="4">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="5"/>
-        <v>7.2707535121328242</v>
+        <v>6.7522349936143051</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="6"/>
@@ -2283,7 +2285,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4">
         <f t="shared" si="2"/>
-        <v>7.2707535121328242</v>
+        <v>6.7522349936143051</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="3"/>
@@ -2295,11 +2297,11 @@
       </c>
       <c r="I28" s="4">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="5"/>
-        <v>6.9744572158365283</v>
+        <v>6.4559386973180093</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="6"/>
@@ -2319,7 +2321,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4">
         <f t="shared" si="2"/>
-        <v>6.9744572158365283</v>
+        <v>6.4559386973180093</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="3"/>
@@ -2331,11 +2333,11 @@
       </c>
       <c r="I29" s="4">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="5"/>
-        <v>6.6781609195402325</v>
+        <v>6.1596424010217135</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="6"/>
@@ -2355,7 +2357,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="4">
         <f t="shared" si="2"/>
-        <v>6.6781609195402325</v>
+        <v>6.1596424010217135</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="3"/>
@@ -2367,11 +2369,11 @@
       </c>
       <c r="I30" s="4">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="5"/>
-        <v>6.3818646232439367</v>
+        <v>5.8633461047254176</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="6"/>
@@ -2391,7 +2393,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="4">
         <f t="shared" si="2"/>
-        <v>6.3818646232439367</v>
+        <v>5.8633461047254176</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="3"/>
@@ -2403,11 +2405,11 @@
       </c>
       <c r="I31" s="4">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="5"/>
-        <v>6.0855683269476408</v>
+        <v>5.5670498084291218</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="6"/>
@@ -2427,7 +2429,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4">
         <f t="shared" si="2"/>
-        <v>6.0855683269476408</v>
+        <v>5.5670498084291218</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="3"/>
@@ -2439,11 +2441,11 @@
       </c>
       <c r="I32" s="4">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="5"/>
-        <v>5.789272030651345</v>
+        <v>5.2707535121328259</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="6"/>
@@ -2463,7 +2465,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4">
         <f t="shared" si="2"/>
-        <v>5.789272030651345</v>
+        <v>5.2707535121328259</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="3"/>
@@ -2475,11 +2477,11 @@
       </c>
       <c r="I33" s="4">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J33" s="4">
         <f t="shared" si="5"/>
-        <v>5.4929757343550492</v>
+        <v>4.9744572158365301</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="6"/>
@@ -2499,7 +2501,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="4">
         <f t="shared" si="2"/>
-        <v>5.4929757343550492</v>
+        <v>4.9744572158365301</v>
       </c>
       <c r="G34" s="4">
         <f t="shared" si="3"/>
@@ -2511,11 +2513,11 @@
       </c>
       <c r="I34" s="4">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J34" s="4">
         <f t="shared" si="5"/>
-        <v>5.1966794380587533</v>
+        <v>4.6781609195402343</v>
       </c>
       <c r="K34" s="7">
         <f t="shared" si="6"/>
@@ -2535,7 +2537,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="4">
         <f t="shared" si="2"/>
-        <v>5.1966794380587533</v>
+        <v>4.6781609195402343</v>
       </c>
       <c r="G35" s="4">
         <f t="shared" si="3"/>
@@ -2547,11 +2549,11 @@
       </c>
       <c r="I35" s="4">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J35" s="4">
         <f t="shared" si="5"/>
-        <v>4.9003831417624575</v>
+        <v>4.3818646232439384</v>
       </c>
       <c r="K35" s="7">
         <f t="shared" si="6"/>
@@ -2571,7 +2573,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="4">
         <f t="shared" si="2"/>
-        <v>4.9003831417624575</v>
+        <v>4.3818646232439384</v>
       </c>
       <c r="G36" s="4">
         <f t="shared" si="3"/>
@@ -2583,11 +2585,11 @@
       </c>
       <c r="I36" s="4">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J36" s="4">
         <f t="shared" si="5"/>
-        <v>4.6040868454661616</v>
+        <v>4.0855683269476426</v>
       </c>
       <c r="K36" s="7">
         <f t="shared" si="6"/>
@@ -2607,7 +2609,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="4">
         <f t="shared" si="2"/>
-        <v>4.6040868454661616</v>
+        <v>4.0855683269476426</v>
       </c>
       <c r="G37" s="4">
         <f t="shared" si="3"/>
@@ -2619,11 +2621,11 @@
       </c>
       <c r="I37" s="4">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J37" s="4">
         <f t="shared" si="5"/>
-        <v>4.3077905491698658</v>
+        <v>3.7892720306513463</v>
       </c>
       <c r="K37" s="7">
         <f t="shared" si="6"/>
@@ -2643,7 +2645,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="4">
         <f t="shared" si="2"/>
-        <v>4.3077905491698658</v>
+        <v>3.7892720306513463</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" si="3"/>
@@ -2655,11 +2657,11 @@
       </c>
       <c r="I38" s="4">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J38" s="4">
         <f t="shared" si="5"/>
-        <v>4.01149425287357</v>
+        <v>3.49297573435505</v>
       </c>
       <c r="K38" s="7">
         <f t="shared" si="6"/>
@@ -2679,7 +2681,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="4">
         <f t="shared" si="2"/>
-        <v>4.01149425287357</v>
+        <v>3.49297573435505</v>
       </c>
       <c r="G39" s="4">
         <f t="shared" si="3"/>
@@ -2691,11 +2693,11 @@
       </c>
       <c r="I39" s="4">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J39" s="4">
         <f t="shared" si="5"/>
-        <v>3.7151979565772737</v>
+        <v>3.1966794380587538</v>
       </c>
       <c r="K39" s="7">
         <f t="shared" si="6"/>
@@ -2715,7 +2717,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="4">
         <f t="shared" si="2"/>
-        <v>3.7151979565772737</v>
+        <v>3.1966794380587538</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" si="3"/>
@@ -2727,11 +2729,11 @@
       </c>
       <c r="I40" s="4">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J40" s="4">
         <f t="shared" si="5"/>
-        <v>3.4189016602809774</v>
+        <v>2.9003831417624575</v>
       </c>
       <c r="K40" s="7">
         <f t="shared" si="6"/>
@@ -2751,7 +2753,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="4">
         <f t="shared" si="2"/>
-        <v>3.4189016602809774</v>
+        <v>2.9003831417624575</v>
       </c>
       <c r="G41" s="4">
         <f t="shared" si="3"/>
@@ -2763,11 +2765,11 @@
       </c>
       <c r="I41" s="4">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J41" s="4">
         <f t="shared" si="5"/>
-        <v>3.1226053639846811</v>
+        <v>2.6040868454661612</v>
       </c>
       <c r="K41" s="7">
         <f t="shared" si="6"/>
@@ -2787,7 +2789,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="4">
         <f t="shared" si="2"/>
-        <v>3.1226053639846811</v>
+        <v>2.6040868454661612</v>
       </c>
       <c r="G42" s="4">
         <f t="shared" si="3"/>
@@ -2799,11 +2801,11 @@
       </c>
       <c r="I42" s="4">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J42" s="4">
         <f t="shared" si="5"/>
-        <v>2.8263090676883849</v>
+        <v>2.3077905491698649</v>
       </c>
       <c r="K42" s="7">
         <f t="shared" si="6"/>
@@ -2823,7 +2825,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="4">
         <f t="shared" si="2"/>
-        <v>2.8263090676883849</v>
+        <v>2.3077905491698649</v>
       </c>
       <c r="G43" s="4">
         <f t="shared" si="3"/>
@@ -2835,11 +2837,11 @@
       </c>
       <c r="I43" s="4">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J43" s="4">
         <f t="shared" si="5"/>
-        <v>2.5300127713920886</v>
+        <v>2.0114942528735686</v>
       </c>
       <c r="K43" s="7">
         <f t="shared" si="6"/>
@@ -2859,7 +2861,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="4">
         <f t="shared" si="2"/>
-        <v>2.5300127713920886</v>
+        <v>2.0114942528735686</v>
       </c>
       <c r="G44" s="4">
         <f t="shared" si="3"/>
@@ -2871,11 +2873,11 @@
       </c>
       <c r="I44" s="4">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J44" s="4">
         <f t="shared" si="5"/>
-        <v>2.2337164750957923</v>
+        <v>1.7151979565772724</v>
       </c>
       <c r="K44" s="7">
         <f t="shared" si="6"/>
@@ -2895,7 +2897,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="4">
         <f t="shared" si="2"/>
-        <v>2.2337164750957923</v>
+        <v>1.7151979565772724</v>
       </c>
       <c r="G45" s="4">
         <f t="shared" si="3"/>
@@ -2907,11 +2909,11 @@
       </c>
       <c r="I45" s="4">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J45" s="4">
         <f t="shared" si="5"/>
-        <v>1.937420178799496</v>
+        <v>1.4189016602809761</v>
       </c>
       <c r="K45" s="7">
         <f t="shared" si="6"/>
@@ -2931,7 +2933,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="4">
         <f t="shared" si="2"/>
-        <v>1.937420178799496</v>
+        <v>1.4189016602809761</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" si="3"/>
@@ -2943,11 +2945,11 @@
       </c>
       <c r="I46" s="4">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J46" s="4">
         <f t="shared" si="5"/>
-        <v>1.6411238825031997</v>
+        <v>1.1226053639846798</v>
       </c>
       <c r="K46" s="7">
         <f t="shared" si="6"/>
@@ -2967,7 +2969,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="4">
         <f t="shared" si="2"/>
-        <v>1.6411238825031997</v>
+        <v>1.1226053639846798</v>
       </c>
       <c r="G47" s="4">
         <f t="shared" si="3"/>
@@ -2979,11 +2981,11 @@
       </c>
       <c r="I47" s="4">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J47" s="4">
         <f t="shared" si="5"/>
-        <v>1.3448275862069035</v>
+        <v>0.82630906768838353</v>
       </c>
       <c r="K47" s="7">
         <f t="shared" si="6"/>
@@ -3003,7 +3005,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="4">
         <f t="shared" si="2"/>
-        <v>1.3448275862069035</v>
+        <v>0.82630906768838353</v>
       </c>
       <c r="G48" s="4">
         <f t="shared" si="3"/>
@@ -3015,11 +3017,11 @@
       </c>
       <c r="I48" s="4">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J48" s="4">
         <f t="shared" si="5"/>
-        <v>1.0485312899106072</v>
+        <v>0.53001277139208725</v>
       </c>
       <c r="K48" s="7">
         <f t="shared" si="6"/>
@@ -3030,7 +3032,7 @@
       <c r="A49" s="8"/>
       <c r="B49" s="9">
         <f>SUM(B3:B27)</f>
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9">
@@ -3039,7 +3041,7 @@
       </c>
       <c r="E49" s="9">
         <f>AVERAGE(E3:E48)</f>
-        <v>7.666666666666667</v>
+        <v>7.8</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>

--- a/01_Planning/ProductBurndown.xlsx
+++ b/01_Planning/ProductBurndown.xlsx
@@ -491,142 +491,142 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
                 <c:pt idx="0" formatCode="0.0">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>8.625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.724137931034482</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.482758620689655</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.344827586206897</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.344827586206897</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.5670498084291182</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.2707535121328224</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.9744572158365266</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.9744572158365266</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.9744572158365266</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.9744572158365266</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.9744572158365266</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.9744572158365266</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.9744572158365266</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.9744572158365266</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.9744572158365266</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.9744572158365266</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.4559386973180075</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.6411238825031926</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.3448275862068968</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.048531289910601</c:v>
+                  <c:v>3.4444444444444446</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.7522349936143051</c:v>
+                  <c:v>2.4074074074074074</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.4559386973180093</c:v>
+                  <c:v>1.3703703703703705</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.1596424010217135</c:v>
+                  <c:v>0.33333333333333348</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.8633461047254176</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.5670498084291218</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.2707535121328259</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.9744572158365301</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.6781609195402343</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.3818646232439384</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.0855683269476426</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.7892720306513463</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.49297573435505</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.1966794380587538</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.9003831417624575</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.6040868454661612</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.3077905491698649</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.0114942528735686</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.7151979565772724</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.4189016602809761</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.1226053639846798</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.82630906768838353</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.53001277139208725</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -642,11 +642,11 @@
         </c:dLbls>
         <c:gapWidth val="40"/>
         <c:overlap val="-10"/>
-        <c:axId val="173452856"/>
-        <c:axId val="173447760"/>
+        <c:axId val="158255392"/>
+        <c:axId val="158256176"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="173452856"/>
+        <c:axId val="158255392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -685,14 +685,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173447760"/>
+        <c:crossAx val="158256176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="173447760"/>
+        <c:axId val="158256176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -738,7 +738,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173452856"/>
+        <c:crossAx val="158255392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -1204,7 +1204,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="3" spans="1:4" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -1273,10 +1273,10 @@
   <dimension ref="A1:IV49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1361,15 +1361,15 @@
       </c>
       <c r="F3" s="4">
         <f>'Sheet 1 - Initial'!A3+C3</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="4">
         <f>'Sheet 1 - Initial'!B3</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H48" si="0">G3+D3</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I3" s="4">
         <f>'Sheet 1 - Initial'!C3</f>
@@ -1377,11 +1377,11 @@
       </c>
       <c r="J3" s="6">
         <f>MAX(IF(OR(ISBLANK(D3),ISBLANK(E3)),F3-'Sheet 1 - Initial'!D3*B3,F3-D3),0)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K3" s="7">
         <f>IF(OR(ISBLANK(D3),ISBLANK(E3)),'Sheet 1 - Initial'!D3,H3/(I3+E3))</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="F4" s="4">
         <f t="shared" ref="F4:F48" si="2">J3+C4</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" ref="G4:G48" si="3">H3</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" ref="I4:I48" si="4">I3+E3</f>
@@ -1415,11 +1415,11 @@
       </c>
       <c r="J4" s="4">
         <f t="shared" ref="J4:J48" si="5">MAX(IF(OR(ISBLANK(D4),ISBLANK(E4)),F4-K3*B4,F4-D4),0)</f>
-        <v>12</v>
+        <v>8.625</v>
       </c>
       <c r="K4" s="7">
         <f t="shared" ref="K4:K48" si="6">IF(OR(ISBLANK(D4),ISBLANK(E4)),K3,H4/(I4+E4))</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1437,15 +1437,15 @@
       </c>
       <c r="F5" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>8.625</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="4"/>
@@ -1453,11 +1453,11 @@
       </c>
       <c r="J5" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1.75</v>
       </c>
       <c r="K5" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1477,15 +1477,15 @@
       </c>
       <c r="F6" s="4">
         <f>J5+C6</f>
-        <v>12</v>
+        <v>1.75</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="4"/>
@@ -1493,11 +1493,11 @@
       </c>
       <c r="J6" s="4">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>0.75</v>
       </c>
       <c r="K6" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>0.20689655172413793</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1514,16 +1514,16 @@
         <v>10</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f>J6+C7</f>
+        <v>0.75</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" si="4"/>
@@ -1531,11 +1531,11 @@
       </c>
       <c r="J7" s="4">
         <f t="shared" si="5"/>
-        <v>10.724137931034482</v>
+        <v>0</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>0.20689655172413793</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1555,15 +1555,15 @@
       </c>
       <c r="F8" s="4">
         <f t="shared" si="2"/>
-        <v>11.724137931034482</v>
+        <v>1</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="4"/>
@@ -1571,11 +1571,11 @@
       </c>
       <c r="J8" s="4">
         <f t="shared" si="5"/>
-        <v>11.482758620689655</v>
+        <v>0</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>0.20689655172413793</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1593,15 +1593,15 @@
       </c>
       <c r="F9" s="4">
         <f t="shared" si="2"/>
-        <v>11.482758620689655</v>
+        <v>0</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" si="4"/>
@@ -1609,11 +1609,11 @@
       </c>
       <c r="J9" s="4">
         <f t="shared" si="5"/>
-        <v>11.344827586206897</v>
+        <v>0</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <v>0.20689655172413793</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1633,15 +1633,15 @@
       </c>
       <c r="F10" s="4">
         <f t="shared" si="2"/>
-        <v>11.344827586206897</v>
+        <v>0</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="4"/>
@@ -1649,11 +1649,11 @@
       </c>
       <c r="J10" s="4">
         <f t="shared" si="5"/>
-        <v>10.344827586206897</v>
+        <v>0</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1671,15 +1671,15 @@
       </c>
       <c r="F11" s="4">
         <f t="shared" si="2"/>
-        <v>10.344827586206897</v>
+        <v>0</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="4"/>
@@ -1687,11 +1687,11 @@
       </c>
       <c r="J11" s="4">
         <f t="shared" si="5"/>
-        <v>9.5670498084291182</v>
+        <v>0</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1707,15 +1707,15 @@
       <c r="E12" s="3"/>
       <c r="F12" s="4">
         <f t="shared" si="2"/>
-        <v>9.5670498084291182</v>
+        <v>0</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" si="4"/>
@@ -1723,11 +1723,11 @@
       </c>
       <c r="J12" s="4">
         <f t="shared" si="5"/>
-        <v>9.2707535121328224</v>
+        <v>0</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1743,15 +1743,15 @@
       <c r="E13" s="3"/>
       <c r="F13" s="4">
         <f t="shared" si="2"/>
-        <v>9.2707535121328224</v>
+        <v>0</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="4"/>
@@ -1759,11 +1759,11 @@
       </c>
       <c r="J13" s="4">
         <f t="shared" si="5"/>
-        <v>8.9744572158365266</v>
+        <v>0</v>
       </c>
       <c r="K13" s="7">
         <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1779,15 +1779,15 @@
       <c r="E14" s="3"/>
       <c r="F14" s="4">
         <f t="shared" si="2"/>
-        <v>8.9744572158365266</v>
+        <v>0</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="4"/>
@@ -1795,11 +1795,11 @@
       </c>
       <c r="J14" s="4">
         <f t="shared" si="5"/>
-        <v>8.9744572158365266</v>
+        <v>0</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1815,15 +1815,15 @@
       <c r="E15" s="3"/>
       <c r="F15" s="4">
         <f t="shared" si="2"/>
-        <v>8.9744572158365266</v>
+        <v>0</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H15" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="4"/>
@@ -1831,11 +1831,11 @@
       </c>
       <c r="J15" s="4">
         <f t="shared" si="5"/>
-        <v>8.9744572158365266</v>
+        <v>0</v>
       </c>
       <c r="K15" s="7">
         <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1851,15 +1851,15 @@
       <c r="E16" s="3"/>
       <c r="F16" s="4">
         <f t="shared" si="2"/>
-        <v>8.9744572158365266</v>
+        <v>0</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="4"/>
@@ -1867,11 +1867,11 @@
       </c>
       <c r="J16" s="4">
         <f t="shared" si="5"/>
-        <v>8.9744572158365266</v>
+        <v>0</v>
       </c>
       <c r="K16" s="7">
         <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1887,15 +1887,15 @@
       <c r="E17" s="3"/>
       <c r="F17" s="4">
         <f t="shared" si="2"/>
-        <v>8.9744572158365266</v>
+        <v>0</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H17" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="4"/>
@@ -1903,11 +1903,11 @@
       </c>
       <c r="J17" s="4">
         <f t="shared" si="5"/>
-        <v>8.9744572158365266</v>
+        <v>0</v>
       </c>
       <c r="K17" s="7">
         <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1923,15 +1923,15 @@
       <c r="E18" s="3"/>
       <c r="F18" s="4">
         <f t="shared" si="2"/>
-        <v>8.9744572158365266</v>
+        <v>0</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H18" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="4"/>
@@ -1939,11 +1939,11 @@
       </c>
       <c r="J18" s="4">
         <f t="shared" si="5"/>
-        <v>8.9744572158365266</v>
+        <v>0</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1959,15 +1959,15 @@
       <c r="E19" s="3"/>
       <c r="F19" s="4">
         <f t="shared" si="2"/>
-        <v>8.9744572158365266</v>
+        <v>0</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H19" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="4"/>
@@ -1975,11 +1975,11 @@
       </c>
       <c r="J19" s="4">
         <f t="shared" si="5"/>
-        <v>8.9744572158365266</v>
+        <v>0</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1995,15 +1995,15 @@
       <c r="E20" s="3"/>
       <c r="F20" s="4">
         <f t="shared" si="2"/>
-        <v>8.9744572158365266</v>
+        <v>0</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H20" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I20" s="4">
         <f t="shared" si="4"/>
@@ -2011,11 +2011,11 @@
       </c>
       <c r="J20" s="4">
         <f t="shared" si="5"/>
-        <v>8.9744572158365266</v>
+        <v>0</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2031,15 +2031,15 @@
       <c r="E21" s="3"/>
       <c r="F21" s="4">
         <f t="shared" si="2"/>
-        <v>8.9744572158365266</v>
+        <v>0</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H21" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I21" s="4">
         <f t="shared" si="4"/>
@@ -2047,11 +2047,11 @@
       </c>
       <c r="J21" s="4">
         <f t="shared" si="5"/>
-        <v>8.9744572158365266</v>
+        <v>0</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2067,15 +2067,15 @@
       <c r="E22" s="3"/>
       <c r="F22" s="4">
         <f t="shared" si="2"/>
-        <v>8.9744572158365266</v>
+        <v>0</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H22" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I22" s="4">
         <f t="shared" si="4"/>
@@ -2083,11 +2083,11 @@
       </c>
       <c r="J22" s="4">
         <f t="shared" si="5"/>
-        <v>8.9744572158365266</v>
+        <v>0</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2105,15 +2105,15 @@
       </c>
       <c r="F23" s="4">
         <f t="shared" si="2"/>
-        <v>8.9744572158365266</v>
+        <v>0</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H23" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I23" s="4">
         <f t="shared" si="4"/>
@@ -2121,11 +2121,11 @@
       </c>
       <c r="J23" s="4">
         <f t="shared" si="5"/>
-        <v>8.4559386973180075</v>
+        <v>0</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2138,18 +2138,20 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3">
+        <v>22</v>
+      </c>
       <c r="F24" s="4">
         <f t="shared" si="2"/>
-        <v>8.4559386973180075</v>
+        <v>0</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H24" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I24" s="4">
         <f t="shared" si="4"/>
@@ -2157,11 +2159,11 @@
       </c>
       <c r="J24" s="4">
         <f t="shared" si="5"/>
-        <v>7.6411238825031926</v>
+        <v>0</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2177,27 +2179,27 @@
       <c r="E25" s="3"/>
       <c r="F25" s="4">
         <f t="shared" si="2"/>
-        <v>7.6411238825031926</v>
+        <v>0</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H25" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I25" s="4">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="5"/>
-        <v>7.3448275862068968</v>
+        <v>0</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2206,34 +2208,36 @@
         <v>41552</v>
       </c>
       <c r="B26" s="3">
-        <v>8</v>
-      </c>
-      <c r="C26" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C26" s="3">
+        <v>5</v>
+      </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="4">
         <f t="shared" si="2"/>
-        <v>7.3448275862068968</v>
+        <v>5</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f>H25</f>
+        <v>7</v>
       </c>
       <c r="H26" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I26" s="4">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="5"/>
-        <v>7.048531289910601</v>
+        <v>3.4444444444444446</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2249,27 +2253,27 @@
       <c r="E27" s="3"/>
       <c r="F27" s="4">
         <f t="shared" si="2"/>
-        <v>7.048531289910601</v>
+        <v>3.4444444444444446</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H27" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I27" s="4">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="5"/>
-        <v>6.7522349936143051</v>
+        <v>2.4074074074074074</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2285,27 +2289,27 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4">
         <f t="shared" si="2"/>
-        <v>6.7522349936143051</v>
+        <v>2.4074074074074074</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H28" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I28" s="4">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="5"/>
-        <v>6.4559386973180093</v>
+        <v>1.3703703703703705</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2321,27 +2325,27 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4">
         <f t="shared" si="2"/>
-        <v>6.4559386973180093</v>
+        <v>1.3703703703703705</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H29" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I29" s="4">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="5"/>
-        <v>6.1596424010217135</v>
+        <v>0.33333333333333348</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2357,27 +2361,27 @@
       <c r="E30" s="3"/>
       <c r="F30" s="4">
         <f t="shared" si="2"/>
-        <v>6.1596424010217135</v>
+        <v>0.33333333333333348</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H30" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I30" s="4">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="5"/>
-        <v>5.8633461047254176</v>
+        <v>0</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2393,27 +2397,27 @@
       <c r="E31" s="3"/>
       <c r="F31" s="4">
         <f t="shared" si="2"/>
-        <v>5.8633461047254176</v>
+        <v>0</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H31" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I31" s="4">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="5"/>
-        <v>5.5670498084291218</v>
+        <v>0</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2429,27 +2433,27 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4">
         <f t="shared" si="2"/>
-        <v>5.5670498084291218</v>
+        <v>0</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H32" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I32" s="4">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="5"/>
-        <v>5.2707535121328259</v>
+        <v>0</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2465,27 +2469,27 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4">
         <f t="shared" si="2"/>
-        <v>5.2707535121328259</v>
+        <v>0</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H33" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I33" s="4">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="J33" s="4">
         <f t="shared" si="5"/>
-        <v>4.9744572158365301</v>
+        <v>0</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2501,27 +2505,27 @@
       <c r="E34" s="3"/>
       <c r="F34" s="4">
         <f t="shared" si="2"/>
-        <v>4.9744572158365301</v>
+        <v>0</v>
       </c>
       <c r="G34" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H34" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I34" s="4">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="J34" s="4">
         <f t="shared" si="5"/>
-        <v>4.6781609195402343</v>
+        <v>0</v>
       </c>
       <c r="K34" s="7">
         <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2537,27 +2541,27 @@
       <c r="E35" s="3"/>
       <c r="F35" s="4">
         <f t="shared" si="2"/>
-        <v>4.6781609195402343</v>
+        <v>0</v>
       </c>
       <c r="G35" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H35" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I35" s="4">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="J35" s="4">
         <f t="shared" si="5"/>
-        <v>4.3818646232439384</v>
+        <v>0</v>
       </c>
       <c r="K35" s="7">
         <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2573,27 +2577,27 @@
       <c r="E36" s="3"/>
       <c r="F36" s="4">
         <f t="shared" si="2"/>
-        <v>4.3818646232439384</v>
+        <v>0</v>
       </c>
       <c r="G36" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H36" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I36" s="4">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="J36" s="4">
         <f t="shared" si="5"/>
-        <v>4.0855683269476426</v>
+        <v>0</v>
       </c>
       <c r="K36" s="7">
         <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2609,27 +2613,27 @@
       <c r="E37" s="3"/>
       <c r="F37" s="4">
         <f t="shared" si="2"/>
-        <v>4.0855683269476426</v>
+        <v>0</v>
       </c>
       <c r="G37" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H37" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I37" s="4">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="J37" s="4">
         <f t="shared" si="5"/>
-        <v>3.7892720306513463</v>
+        <v>0</v>
       </c>
       <c r="K37" s="7">
         <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2645,27 +2649,27 @@
       <c r="E38" s="3"/>
       <c r="F38" s="4">
         <f t="shared" si="2"/>
-        <v>3.7892720306513463</v>
+        <v>0</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H38" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I38" s="4">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="J38" s="4">
         <f t="shared" si="5"/>
-        <v>3.49297573435505</v>
+        <v>0</v>
       </c>
       <c r="K38" s="7">
         <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2681,27 +2685,27 @@
       <c r="E39" s="3"/>
       <c r="F39" s="4">
         <f t="shared" si="2"/>
-        <v>3.49297573435505</v>
+        <v>0</v>
       </c>
       <c r="G39" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H39" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I39" s="4">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="J39" s="4">
         <f t="shared" si="5"/>
-        <v>3.1966794380587538</v>
+        <v>0</v>
       </c>
       <c r="K39" s="7">
         <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2717,27 +2721,27 @@
       <c r="E40" s="3"/>
       <c r="F40" s="4">
         <f t="shared" si="2"/>
-        <v>3.1966794380587538</v>
+        <v>0</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H40" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I40" s="4">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="J40" s="4">
         <f t="shared" si="5"/>
-        <v>2.9003831417624575</v>
+        <v>0</v>
       </c>
       <c r="K40" s="7">
         <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2753,27 +2757,27 @@
       <c r="E41" s="3"/>
       <c r="F41" s="4">
         <f t="shared" si="2"/>
-        <v>2.9003831417624575</v>
+        <v>0</v>
       </c>
       <c r="G41" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H41" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I41" s="4">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="J41" s="4">
         <f t="shared" si="5"/>
-        <v>2.6040868454661612</v>
+        <v>0</v>
       </c>
       <c r="K41" s="7">
         <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2789,27 +2793,27 @@
       <c r="E42" s="3"/>
       <c r="F42" s="4">
         <f t="shared" si="2"/>
-        <v>2.6040868454661612</v>
+        <v>0</v>
       </c>
       <c r="G42" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H42" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I42" s="4">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="J42" s="4">
         <f t="shared" si="5"/>
-        <v>2.3077905491698649</v>
+        <v>0</v>
       </c>
       <c r="K42" s="7">
         <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2825,27 +2829,27 @@
       <c r="E43" s="3"/>
       <c r="F43" s="4">
         <f t="shared" si="2"/>
-        <v>2.3077905491698649</v>
+        <v>0</v>
       </c>
       <c r="G43" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H43" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I43" s="4">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="J43" s="4">
         <f t="shared" si="5"/>
-        <v>2.0114942528735686</v>
+        <v>0</v>
       </c>
       <c r="K43" s="7">
         <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2861,27 +2865,27 @@
       <c r="E44" s="3"/>
       <c r="F44" s="4">
         <f t="shared" si="2"/>
-        <v>2.0114942528735686</v>
+        <v>0</v>
       </c>
       <c r="G44" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H44" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I44" s="4">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="J44" s="4">
         <f t="shared" si="5"/>
-        <v>1.7151979565772724</v>
+        <v>0</v>
       </c>
       <c r="K44" s="7">
         <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2897,27 +2901,27 @@
       <c r="E45" s="3"/>
       <c r="F45" s="4">
         <f t="shared" si="2"/>
-        <v>1.7151979565772724</v>
+        <v>0</v>
       </c>
       <c r="G45" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H45" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I45" s="4">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="J45" s="4">
         <f t="shared" si="5"/>
-        <v>1.4189016602809761</v>
+        <v>0</v>
       </c>
       <c r="K45" s="7">
         <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2933,27 +2937,27 @@
       <c r="E46" s="3"/>
       <c r="F46" s="4">
         <f t="shared" si="2"/>
-        <v>1.4189016602809761</v>
+        <v>0</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H46" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I46" s="4">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="J46" s="4">
         <f t="shared" si="5"/>
-        <v>1.1226053639846798</v>
+        <v>0</v>
       </c>
       <c r="K46" s="7">
         <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2969,27 +2973,27 @@
       <c r="E47" s="3"/>
       <c r="F47" s="4">
         <f t="shared" si="2"/>
-        <v>1.1226053639846798</v>
+        <v>0</v>
       </c>
       <c r="G47" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H47" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I47" s="4">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="J47" s="4">
         <f t="shared" si="5"/>
-        <v>0.82630906768838353</v>
+        <v>0</v>
       </c>
       <c r="K47" s="7">
         <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -3005,34 +3009,34 @@
       <c r="E48" s="3"/>
       <c r="F48" s="4">
         <f t="shared" si="2"/>
-        <v>0.82630906768838353</v>
+        <v>0</v>
       </c>
       <c r="G48" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H48" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I48" s="4">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="J48" s="4">
         <f t="shared" si="5"/>
-        <v>0.53001277139208725</v>
+        <v>0</v>
       </c>
       <c r="K48" s="7">
         <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="9">
         <f>SUM(B3:B27)</f>
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9">
@@ -3041,7 +3045,7 @@
       </c>
       <c r="E49" s="9">
         <f>AVERAGE(E3:E48)</f>
-        <v>7.8</v>
+        <v>9.0909090909090917</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>

--- a/01_Planning/ProductBurndown.xlsx
+++ b/01_Planning/ProductBurndown.xlsx
@@ -494,139 +494,139 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.625</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.75</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>11.724137931034482</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>12.482758620689655</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>12.344827586206897</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>11.344827586206897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>10.567049808429118</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>10.270753512132822</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>9.9744572158365266</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>9.9744572158365266</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>9.9744572158365266</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>9.9744572158365266</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>9.9744572158365266</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>9.9744572158365266</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>9.9744572158365266</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>9.9744572158365266</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>9.9744572158365266</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>9.9744572158365266</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>9.4559386973180075</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>8.6411238825031926</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>8.3448275862068968</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.4444444444444446</c:v>
+                  <c:v>12.900383141762452</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.4074074074074074</c:v>
+                  <c:v>12.641123882503193</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.3703703703703705</c:v>
+                  <c:v>12.344827586206897</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.33333333333333348</c:v>
+                  <c:v>12.048531289910601</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>11.752234993614305</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>11.455938697318009</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>11.159642401021713</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>10.863346104725418</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>10.567049808429122</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>10.270753512132826</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>9.9744572158365301</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>9.6781609195402343</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>9.3818646232439384</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>9.0855683269476426</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>8.7892720306513468</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>8.4929757343550509</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>8.1966794380587551</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>7.9003831417624593</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>7.6040868454661634</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>7.3077905491698676</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>7.0114942528735718</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>6.7151979565772759</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>6.4189016602809801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -642,11 +642,11 @@
         </c:dLbls>
         <c:gapWidth val="40"/>
         <c:overlap val="-10"/>
-        <c:axId val="158255392"/>
-        <c:axId val="158256176"/>
+        <c:axId val="192915800"/>
+        <c:axId val="192909920"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="158255392"/>
+        <c:axId val="192915800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -685,14 +685,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158256176"/>
+        <c:crossAx val="192909920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="158256176"/>
+        <c:axId val="192909920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -738,7 +738,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158255392"/>
+        <c:crossAx val="192915800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -1204,7 +1204,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1243,7 +1243,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -1273,10 +1273,10 @@
   <dimension ref="A1:IV49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1365,11 +1365,11 @@
       </c>
       <c r="G3" s="4">
         <f>'Sheet 1 - Initial'!B3</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H48" si="0">G3+D3</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I3" s="4">
         <f>'Sheet 1 - Initial'!C3</f>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="K3" s="7">
         <f>IF(OR(ISBLANK(D3),ISBLANK(E3)),'Sheet 1 - Initial'!D3,H3/(I3+E3))</f>
-        <v>0.625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1403,11 +1403,11 @@
       </c>
       <c r="G4" s="4">
         <f t="shared" ref="G4:G48" si="3">H3</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" ref="I4:I48" si="4">I3+E3</f>
@@ -1415,11 +1415,11 @@
       </c>
       <c r="J4" s="4">
         <f t="shared" ref="J4:J48" si="5">MAX(IF(OR(ISBLANK(D4),ISBLANK(E4)),F4-K3*B4,F4-D4),0)</f>
-        <v>8.625</v>
+        <v>13</v>
       </c>
       <c r="K4" s="7">
         <f t="shared" ref="K4:K48" si="6">IF(OR(ISBLANK(D4),ISBLANK(E4)),K3,H4/(I4+E4))</f>
-        <v>0.625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1437,15 +1437,15 @@
       </c>
       <c r="F5" s="4">
         <f t="shared" si="2"/>
-        <v>8.625</v>
+        <v>13</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="4"/>
@@ -1453,11 +1453,11 @@
       </c>
       <c r="J5" s="4">
         <f t="shared" si="5"/>
-        <v>1.75</v>
+        <v>13</v>
       </c>
       <c r="K5" s="7">
         <f t="shared" si="6"/>
-        <v>0.625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1477,15 +1477,15 @@
       </c>
       <c r="F6" s="4">
         <f>J5+C6</f>
-        <v>1.75</v>
+        <v>13</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="4"/>
@@ -1493,11 +1493,11 @@
       </c>
       <c r="J6" s="4">
         <f t="shared" si="5"/>
-        <v>0.75</v>
+        <v>12</v>
       </c>
       <c r="K6" s="7">
         <f t="shared" si="6"/>
-        <v>0.20689655172413793</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1515,15 +1515,15 @@
       </c>
       <c r="F7" s="4">
         <f>J6+C7</f>
-        <v>0.75</v>
+        <v>12</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" si="4"/>
@@ -1531,11 +1531,11 @@
       </c>
       <c r="J7" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>11.724137931034482</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" si="6"/>
-        <v>0.20689655172413793</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1555,15 +1555,15 @@
       </c>
       <c r="F8" s="4">
         <f t="shared" si="2"/>
+        <v>12.724137931034482</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G8" s="4">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
       <c r="H8" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="4"/>
@@ -1571,11 +1571,11 @@
       </c>
       <c r="J8" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>12.482758620689655</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="6"/>
-        <v>0.20689655172413793</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1593,15 +1593,15 @@
       </c>
       <c r="F9" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12.482758620689655</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" si="4"/>
@@ -1609,11 +1609,11 @@
       </c>
       <c r="J9" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>12.344827586206897</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="6"/>
-        <v>0.20689655172413793</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1633,15 +1633,15 @@
       </c>
       <c r="F10" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12.344827586206897</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="4"/>
@@ -1649,11 +1649,11 @@
       </c>
       <c r="J10" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>11.344827586206897</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1671,15 +1671,15 @@
       </c>
       <c r="F11" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11.344827586206897</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="4"/>
@@ -1687,11 +1687,11 @@
       </c>
       <c r="J11" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>10.567049808429118</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1707,15 +1707,15 @@
       <c r="E12" s="3"/>
       <c r="F12" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10.567049808429118</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" si="4"/>
@@ -1723,11 +1723,11 @@
       </c>
       <c r="J12" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>10.270753512132822</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1743,15 +1743,15 @@
       <c r="E13" s="3"/>
       <c r="F13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10.270753512132822</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="4"/>
@@ -1759,11 +1759,11 @@
       </c>
       <c r="J13" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.9744572158365266</v>
       </c>
       <c r="K13" s="7">
         <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1779,15 +1779,15 @@
       <c r="E14" s="3"/>
       <c r="F14" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.9744572158365266</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="4"/>
@@ -1795,11 +1795,11 @@
       </c>
       <c r="J14" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.9744572158365266</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1815,15 +1815,15 @@
       <c r="E15" s="3"/>
       <c r="F15" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.9744572158365266</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H15" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="4"/>
@@ -1831,11 +1831,11 @@
       </c>
       <c r="J15" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.9744572158365266</v>
       </c>
       <c r="K15" s="7">
         <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1851,15 +1851,15 @@
       <c r="E16" s="3"/>
       <c r="F16" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.9744572158365266</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="4"/>
@@ -1867,11 +1867,11 @@
       </c>
       <c r="J16" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.9744572158365266</v>
       </c>
       <c r="K16" s="7">
         <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1887,15 +1887,15 @@
       <c r="E17" s="3"/>
       <c r="F17" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.9744572158365266</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H17" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="4"/>
@@ -1903,11 +1903,11 @@
       </c>
       <c r="J17" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.9744572158365266</v>
       </c>
       <c r="K17" s="7">
         <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1923,15 +1923,15 @@
       <c r="E18" s="3"/>
       <c r="F18" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.9744572158365266</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H18" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="4"/>
@@ -1939,11 +1939,11 @@
       </c>
       <c r="J18" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.9744572158365266</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1959,15 +1959,15 @@
       <c r="E19" s="3"/>
       <c r="F19" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.9744572158365266</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H19" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="4"/>
@@ -1975,11 +1975,11 @@
       </c>
       <c r="J19" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.9744572158365266</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1995,15 +1995,15 @@
       <c r="E20" s="3"/>
       <c r="F20" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.9744572158365266</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H20" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I20" s="4">
         <f t="shared" si="4"/>
@@ -2011,11 +2011,11 @@
       </c>
       <c r="J20" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.9744572158365266</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2031,15 +2031,15 @@
       <c r="E21" s="3"/>
       <c r="F21" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.9744572158365266</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H21" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I21" s="4">
         <f t="shared" si="4"/>
@@ -2047,11 +2047,11 @@
       </c>
       <c r="J21" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.9744572158365266</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2067,15 +2067,15 @@
       <c r="E22" s="3"/>
       <c r="F22" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.9744572158365266</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H22" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I22" s="4">
         <f t="shared" si="4"/>
@@ -2083,11 +2083,11 @@
       </c>
       <c r="J22" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.9744572158365266</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2105,15 +2105,15 @@
       </c>
       <c r="F23" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.9744572158365266</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H23" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I23" s="4">
         <f t="shared" si="4"/>
@@ -2121,11 +2121,11 @@
       </c>
       <c r="J23" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.4559386973180075</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2143,15 +2143,15 @@
       </c>
       <c r="F24" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.4559386973180075</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H24" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I24" s="4">
         <f t="shared" si="4"/>
@@ -2159,11 +2159,11 @@
       </c>
       <c r="J24" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8.6411238825031926</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2175,19 +2175,21 @@
         <v>8</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3">
+        <v>3</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.6411238825031926</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H25" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I25" s="4">
         <f t="shared" si="4"/>
@@ -2195,11 +2197,11 @@
       </c>
       <c r="J25" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8.3448275862068968</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2214,18 +2216,20 @@
         <v>5</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="E26" s="3">
+        <v>6</v>
+      </c>
       <c r="F26" s="4">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>13.344827586206897</v>
       </c>
       <c r="G26" s="4">
         <f>H25</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H26" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I26" s="4">
         <f t="shared" si="4"/>
@@ -2233,11 +2237,11 @@
       </c>
       <c r="J26" s="4">
         <f t="shared" si="5"/>
-        <v>3.4444444444444446</v>
+        <v>12.900383141762452</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2246,34 +2250,34 @@
         <v>41559</v>
       </c>
       <c r="B27" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="4">
         <f t="shared" si="2"/>
-        <v>3.4444444444444446</v>
+        <v>12.900383141762452</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H27" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I27" s="4">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="5"/>
-        <v>2.4074074074074074</v>
+        <v>12.641123882503193</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2289,27 +2293,27 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4">
         <f t="shared" si="2"/>
-        <v>2.4074074074074074</v>
+        <v>12.641123882503193</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H28" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I28" s="4">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="5"/>
-        <v>1.3703703703703705</v>
+        <v>12.344827586206897</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2325,27 +2329,27 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4">
         <f t="shared" si="2"/>
-        <v>1.3703703703703705</v>
+        <v>12.344827586206897</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H29" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I29" s="4">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="5"/>
-        <v>0.33333333333333348</v>
+        <v>12.048531289910601</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2361,27 +2365,27 @@
       <c r="E30" s="3"/>
       <c r="F30" s="4">
         <f t="shared" si="2"/>
-        <v>0.33333333333333348</v>
+        <v>12.048531289910601</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H30" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I30" s="4">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>11.752234993614305</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2397,27 +2401,27 @@
       <c r="E31" s="3"/>
       <c r="F31" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11.752234993614305</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H31" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I31" s="4">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>11.455938697318009</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2433,27 +2437,27 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11.455938697318009</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H32" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I32" s="4">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>11.159642401021713</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2469,27 +2473,27 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11.159642401021713</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H33" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I33" s="4">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="J33" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>10.863346104725418</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2505,27 +2509,27 @@
       <c r="E34" s="3"/>
       <c r="F34" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10.863346104725418</v>
       </c>
       <c r="G34" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H34" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I34" s="4">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="J34" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>10.567049808429122</v>
       </c>
       <c r="K34" s="7">
         <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2541,27 +2545,27 @@
       <c r="E35" s="3"/>
       <c r="F35" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10.567049808429122</v>
       </c>
       <c r="G35" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H35" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I35" s="4">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="J35" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>10.270753512132826</v>
       </c>
       <c r="K35" s="7">
         <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2577,27 +2581,27 @@
       <c r="E36" s="3"/>
       <c r="F36" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10.270753512132826</v>
       </c>
       <c r="G36" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H36" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I36" s="4">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="J36" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.9744572158365301</v>
       </c>
       <c r="K36" s="7">
         <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2613,27 +2617,27 @@
       <c r="E37" s="3"/>
       <c r="F37" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.9744572158365301</v>
       </c>
       <c r="G37" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H37" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I37" s="4">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="J37" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.6781609195402343</v>
       </c>
       <c r="K37" s="7">
         <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2649,27 +2653,27 @@
       <c r="E38" s="3"/>
       <c r="F38" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.6781609195402343</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H38" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I38" s="4">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="J38" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.3818646232439384</v>
       </c>
       <c r="K38" s="7">
         <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2685,27 +2689,27 @@
       <c r="E39" s="3"/>
       <c r="F39" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.3818646232439384</v>
       </c>
       <c r="G39" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H39" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I39" s="4">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="J39" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.0855683269476426</v>
       </c>
       <c r="K39" s="7">
         <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2721,27 +2725,27 @@
       <c r="E40" s="3"/>
       <c r="F40" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.0855683269476426</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H40" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I40" s="4">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="J40" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8.7892720306513468</v>
       </c>
       <c r="K40" s="7">
         <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2757,27 +2761,27 @@
       <c r="E41" s="3"/>
       <c r="F41" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.7892720306513468</v>
       </c>
       <c r="G41" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H41" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I41" s="4">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="J41" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8.4929757343550509</v>
       </c>
       <c r="K41" s="7">
         <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2793,27 +2797,27 @@
       <c r="E42" s="3"/>
       <c r="F42" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.4929757343550509</v>
       </c>
       <c r="G42" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H42" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I42" s="4">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="J42" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8.1966794380587551</v>
       </c>
       <c r="K42" s="7">
         <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2829,27 +2833,27 @@
       <c r="E43" s="3"/>
       <c r="F43" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.1966794380587551</v>
       </c>
       <c r="G43" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H43" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I43" s="4">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="J43" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7.9003831417624593</v>
       </c>
       <c r="K43" s="7">
         <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2865,27 +2869,27 @@
       <c r="E44" s="3"/>
       <c r="F44" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.9003831417624593</v>
       </c>
       <c r="G44" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H44" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I44" s="4">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="J44" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7.6040868454661634</v>
       </c>
       <c r="K44" s="7">
         <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2901,27 +2905,27 @@
       <c r="E45" s="3"/>
       <c r="F45" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.6040868454661634</v>
       </c>
       <c r="G45" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H45" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I45" s="4">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="J45" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7.3077905491698676</v>
       </c>
       <c r="K45" s="7">
         <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2937,27 +2941,27 @@
       <c r="E46" s="3"/>
       <c r="F46" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.3077905491698676</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H46" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I46" s="4">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="J46" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7.0114942528735718</v>
       </c>
       <c r="K46" s="7">
         <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2973,27 +2977,27 @@
       <c r="E47" s="3"/>
       <c r="F47" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.0114942528735718</v>
       </c>
       <c r="G47" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H47" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I47" s="4">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="J47" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6.7151979565772759</v>
       </c>
       <c r="K47" s="7">
         <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -3009,43 +3013,43 @@
       <c r="E48" s="3"/>
       <c r="F48" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.7151979565772759</v>
       </c>
       <c r="G48" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H48" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I48" s="4">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="J48" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6.4189016602809801</v>
       </c>
       <c r="K48" s="7">
         <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="9">
         <f>SUM(B3:B27)</f>
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9">
         <f>AVERAGE(D3:D48)</f>
-        <v>0.66666666666666663</v>
+        <v>1.25</v>
       </c>
       <c r="E49" s="9">
         <f>AVERAGE(E3:E48)</f>
-        <v>9.0909090909090917</v>
+        <v>8.8333333333333339</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>

--- a/01_Planning/ProductBurndown.xlsx
+++ b/01_Planning/ProductBurndown.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr date1904="1" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eva\Documents\GitHub\Nachhilfeboerse\01_Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danijal\Documents\Nachhilfeboerse\01_Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Initial" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet 1 - Product Burndown" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet 1 - Drawings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mmm\ d&quot;, &quot;yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -272,7 +272,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -563,74 +563,79 @@
                   <c:v>12.900383141762452</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12.641123882503193</c:v>
+                  <c:v>12.344827586206897</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12.344827586206897</c:v>
+                  <c:v>12.048531289910601</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>12.048531289910601</c:v>
+                  <c:v>11.752234993614305</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11.752234993614305</c:v>
+                  <c:v>11.455938697318009</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11.455938697318009</c:v>
+                  <c:v>11.159642401021713</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11.159642401021713</c:v>
+                  <c:v>10.863346104725418</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10.863346104725418</c:v>
+                  <c:v>10.567049808429122</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10.567049808429122</c:v>
+                  <c:v>10.270753512132826</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>10.270753512132826</c:v>
+                  <c:v>9.9744572158365301</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.9744572158365301</c:v>
+                  <c:v>9.6781609195402343</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9.6781609195402343</c:v>
+                  <c:v>9.3818646232439384</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.3818646232439384</c:v>
+                  <c:v>9.0855683269476426</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.0855683269476426</c:v>
+                  <c:v>8.7892720306513468</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8.7892720306513468</c:v>
+                  <c:v>8.4929757343550509</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8.4929757343550509</c:v>
+                  <c:v>8.1966794380587551</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.1966794380587551</c:v>
+                  <c:v>7.9003831417624593</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7.9003831417624593</c:v>
+                  <c:v>7.6040868454661634</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7.6040868454661634</c:v>
+                  <c:v>7.3077905491698676</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7.3077905491698676</c:v>
+                  <c:v>7.0114942528735718</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7.0114942528735718</c:v>
+                  <c:v>6.7151979565772759</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.7151979565772759</c:v>
+                  <c:v>6.4189016602809801</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.4189016602809801</c:v>
+                  <c:v>6.1226053639846842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-68C5-458F-9EF9-3D760483AA7F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -682,7 +687,7 @@
                 <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="192909920"/>
@@ -735,7 +740,7 @@
                 <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="192915800"/>
@@ -804,7 +809,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -834,7 +845,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -890,7 +907,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1196,7 +1219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1207,16 +1230,16 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="19.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="1" customWidth="1"/>
-    <col min="5" max="256" width="19.5703125" style="1" customWidth="1"/>
-    <col min="257" max="1025" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.86328125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="19.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.3984375" style="1" customWidth="1"/>
+    <col min="5" max="256" width="19.59765625" style="1" customWidth="1"/>
+    <col min="257" max="1025" width="19.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1224,7 +1247,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:4" ht="32.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="32.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1238,7 +1261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>13</v>
       </c>
@@ -1266,36 +1289,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1328125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.73046875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.3984375" style="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="1" customWidth="1"/>
-    <col min="11" max="256" width="14.42578125" style="1" customWidth="1"/>
-    <col min="257" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.1328125" style="1" customWidth="1"/>
+    <col min="11" max="256" width="14.3984375" style="1" customWidth="1"/>
+    <col min="257" max="1025" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
@@ -1310,7 +1333,7 @@
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:11" ht="44.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="44.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1345,7 +1368,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>41391</v>
       </c>
@@ -1384,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <f t="shared" ref="A4:A48" si="1">A3+7</f>
         <v>41398</v>
@@ -1422,7 +1445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <f t="shared" si="1"/>
         <v>41405</v>
@@ -1460,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <f t="shared" si="1"/>
         <v>41412</v>
@@ -1500,7 +1523,7 @@
         <v>3.4482758620689655E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <f t="shared" si="1"/>
         <v>41419</v>
@@ -1538,7 +1561,7 @@
         <v>3.4482758620689655E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <f t="shared" si="1"/>
         <v>41426</v>
@@ -1578,7 +1601,7 @@
         <v>3.4482758620689655E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <f t="shared" si="1"/>
         <v>41433</v>
@@ -1616,7 +1639,7 @@
         <v>3.4482758620689655E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <f t="shared" si="1"/>
         <v>41440</v>
@@ -1656,7 +1679,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <f t="shared" si="1"/>
         <v>41447</v>
@@ -1694,7 +1717,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <f t="shared" si="1"/>
         <v>41454</v>
@@ -1730,7 +1753,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <f t="shared" si="1"/>
         <v>41461</v>
@@ -1766,7 +1789,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <f t="shared" si="1"/>
         <v>41468</v>
@@ -1802,7 +1825,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <f t="shared" si="1"/>
         <v>41475</v>
@@ -1838,7 +1861,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <f t="shared" si="1"/>
         <v>41482</v>
@@ -1874,7 +1897,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <f t="shared" si="1"/>
         <v>41489</v>
@@ -1910,7 +1933,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <f t="shared" si="1"/>
         <v>41496</v>
@@ -1946,7 +1969,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <f t="shared" si="1"/>
         <v>41503</v>
@@ -1982,7 +2005,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <f t="shared" si="1"/>
         <v>41510</v>
@@ -2018,7 +2041,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <f t="shared" si="1"/>
         <v>41517</v>
@@ -2054,7 +2077,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <f t="shared" si="1"/>
         <v>41524</v>
@@ -2090,7 +2113,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <f t="shared" si="1"/>
         <v>41531</v>
@@ -2128,7 +2151,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <f t="shared" si="1"/>
         <v>41538</v>
@@ -2166,7 +2189,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <f t="shared" si="1"/>
         <v>41545</v>
@@ -2204,7 +2227,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <f t="shared" si="1"/>
         <v>41552</v>
@@ -2217,7 +2240,7 @@
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="2"/>
@@ -2244,13 +2267,13 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <f t="shared" si="1"/>
         <v>41559</v>
       </c>
       <c r="B27" s="3">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -2269,18 +2292,18 @@
       </c>
       <c r="I27" s="4">
         <f t="shared" si="4"/>
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="5"/>
-        <v>12.641123882503193</v>
+        <v>12.344827586206897</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <f t="shared" si="1"/>
         <v>41566</v>
@@ -2293,7 +2316,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4">
         <f t="shared" si="2"/>
-        <v>12.641123882503193</v>
+        <v>12.344827586206897</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="3"/>
@@ -2305,18 +2328,18 @@
       </c>
       <c r="I28" s="4">
         <f t="shared" si="4"/>
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="5"/>
-        <v>12.344827586206897</v>
+        <v>12.048531289910601</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <f t="shared" si="1"/>
         <v>41573</v>
@@ -2329,7 +2352,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4">
         <f t="shared" si="2"/>
-        <v>12.344827586206897</v>
+        <v>12.048531289910601</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="3"/>
@@ -2341,18 +2364,18 @@
       </c>
       <c r="I29" s="4">
         <f t="shared" si="4"/>
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="5"/>
-        <v>12.048531289910601</v>
+        <v>11.752234993614305</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <f t="shared" si="1"/>
         <v>41580</v>
@@ -2365,7 +2388,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="4">
         <f t="shared" si="2"/>
-        <v>12.048531289910601</v>
+        <v>11.752234993614305</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="3"/>
@@ -2377,18 +2400,18 @@
       </c>
       <c r="I30" s="4">
         <f t="shared" si="4"/>
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="5"/>
-        <v>11.752234993614305</v>
+        <v>11.455938697318009</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <f t="shared" si="1"/>
         <v>41587</v>
@@ -2401,7 +2424,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="4">
         <f t="shared" si="2"/>
-        <v>11.752234993614305</v>
+        <v>11.455938697318009</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="3"/>
@@ -2413,18 +2436,18 @@
       </c>
       <c r="I31" s="4">
         <f t="shared" si="4"/>
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="5"/>
-        <v>11.455938697318009</v>
+        <v>11.159642401021713</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <f t="shared" si="1"/>
         <v>41594</v>
@@ -2437,7 +2460,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4">
         <f t="shared" si="2"/>
-        <v>11.455938697318009</v>
+        <v>11.159642401021713</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="3"/>
@@ -2449,18 +2472,18 @@
       </c>
       <c r="I32" s="4">
         <f t="shared" si="4"/>
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="5"/>
-        <v>11.159642401021713</v>
+        <v>10.863346104725418</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <f t="shared" si="1"/>
         <v>41601</v>
@@ -2473,7 +2496,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4">
         <f t="shared" si="2"/>
-        <v>11.159642401021713</v>
+        <v>10.863346104725418</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="3"/>
@@ -2485,18 +2508,18 @@
       </c>
       <c r="I33" s="4">
         <f t="shared" si="4"/>
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="J33" s="4">
         <f t="shared" si="5"/>
-        <v>10.863346104725418</v>
+        <v>10.567049808429122</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <f t="shared" si="1"/>
         <v>41608</v>
@@ -2509,7 +2532,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="4">
         <f t="shared" si="2"/>
-        <v>10.863346104725418</v>
+        <v>10.567049808429122</v>
       </c>
       <c r="G34" s="4">
         <f t="shared" si="3"/>
@@ -2521,18 +2544,18 @@
       </c>
       <c r="I34" s="4">
         <f t="shared" si="4"/>
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="J34" s="4">
         <f t="shared" si="5"/>
-        <v>10.567049808429122</v>
+        <v>10.270753512132826</v>
       </c>
       <c r="K34" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <f t="shared" si="1"/>
         <v>41615</v>
@@ -2545,7 +2568,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="4">
         <f t="shared" si="2"/>
-        <v>10.567049808429122</v>
+        <v>10.270753512132826</v>
       </c>
       <c r="G35" s="4">
         <f t="shared" si="3"/>
@@ -2557,18 +2580,18 @@
       </c>
       <c r="I35" s="4">
         <f t="shared" si="4"/>
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="J35" s="4">
         <f t="shared" si="5"/>
-        <v>10.270753512132826</v>
+        <v>9.9744572158365301</v>
       </c>
       <c r="K35" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <f t="shared" si="1"/>
         <v>41622</v>
@@ -2581,7 +2604,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="4">
         <f t="shared" si="2"/>
-        <v>10.270753512132826</v>
+        <v>9.9744572158365301</v>
       </c>
       <c r="G36" s="4">
         <f t="shared" si="3"/>
@@ -2593,18 +2616,18 @@
       </c>
       <c r="I36" s="4">
         <f t="shared" si="4"/>
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="J36" s="4">
         <f t="shared" si="5"/>
-        <v>9.9744572158365301</v>
+        <v>9.6781609195402343</v>
       </c>
       <c r="K36" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <f t="shared" si="1"/>
         <v>41629</v>
@@ -2617,7 +2640,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="4">
         <f t="shared" si="2"/>
-        <v>9.9744572158365301</v>
+        <v>9.6781609195402343</v>
       </c>
       <c r="G37" s="4">
         <f t="shared" si="3"/>
@@ -2629,18 +2652,18 @@
       </c>
       <c r="I37" s="4">
         <f t="shared" si="4"/>
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="J37" s="4">
         <f t="shared" si="5"/>
-        <v>9.6781609195402343</v>
+        <v>9.3818646232439384</v>
       </c>
       <c r="K37" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <f t="shared" si="1"/>
         <v>41636</v>
@@ -2653,7 +2676,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="4">
         <f t="shared" si="2"/>
-        <v>9.6781609195402343</v>
+        <v>9.3818646232439384</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" si="3"/>
@@ -2665,18 +2688,18 @@
       </c>
       <c r="I38" s="4">
         <f t="shared" si="4"/>
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="J38" s="4">
         <f t="shared" si="5"/>
-        <v>9.3818646232439384</v>
+        <v>9.0855683269476426</v>
       </c>
       <c r="K38" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <f t="shared" si="1"/>
         <v>41643</v>
@@ -2689,7 +2712,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="4">
         <f t="shared" si="2"/>
-        <v>9.3818646232439384</v>
+        <v>9.0855683269476426</v>
       </c>
       <c r="G39" s="4">
         <f t="shared" si="3"/>
@@ -2701,18 +2724,18 @@
       </c>
       <c r="I39" s="4">
         <f t="shared" si="4"/>
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="J39" s="4">
         <f t="shared" si="5"/>
-        <v>9.0855683269476426</v>
+        <v>8.7892720306513468</v>
       </c>
       <c r="K39" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <f t="shared" si="1"/>
         <v>41650</v>
@@ -2725,7 +2748,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="4">
         <f t="shared" si="2"/>
-        <v>9.0855683269476426</v>
+        <v>8.7892720306513468</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" si="3"/>
@@ -2737,18 +2760,18 @@
       </c>
       <c r="I40" s="4">
         <f t="shared" si="4"/>
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="J40" s="4">
         <f t="shared" si="5"/>
-        <v>8.7892720306513468</v>
+        <v>8.4929757343550509</v>
       </c>
       <c r="K40" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <f t="shared" si="1"/>
         <v>41657</v>
@@ -2761,7 +2784,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="4">
         <f t="shared" si="2"/>
-        <v>8.7892720306513468</v>
+        <v>8.4929757343550509</v>
       </c>
       <c r="G41" s="4">
         <f t="shared" si="3"/>
@@ -2773,18 +2796,18 @@
       </c>
       <c r="I41" s="4">
         <f t="shared" si="4"/>
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="J41" s="4">
         <f t="shared" si="5"/>
-        <v>8.4929757343550509</v>
+        <v>8.1966794380587551</v>
       </c>
       <c r="K41" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <f t="shared" si="1"/>
         <v>41664</v>
@@ -2797,7 +2820,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="4">
         <f t="shared" si="2"/>
-        <v>8.4929757343550509</v>
+        <v>8.1966794380587551</v>
       </c>
       <c r="G42" s="4">
         <f t="shared" si="3"/>
@@ -2809,18 +2832,18 @@
       </c>
       <c r="I42" s="4">
         <f t="shared" si="4"/>
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="J42" s="4">
         <f t="shared" si="5"/>
-        <v>8.1966794380587551</v>
+        <v>7.9003831417624593</v>
       </c>
       <c r="K42" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <f t="shared" si="1"/>
         <v>41671</v>
@@ -2833,7 +2856,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="4">
         <f t="shared" si="2"/>
-        <v>8.1966794380587551</v>
+        <v>7.9003831417624593</v>
       </c>
       <c r="G43" s="4">
         <f t="shared" si="3"/>
@@ -2845,18 +2868,18 @@
       </c>
       <c r="I43" s="4">
         <f t="shared" si="4"/>
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="J43" s="4">
         <f t="shared" si="5"/>
-        <v>7.9003831417624593</v>
+        <v>7.6040868454661634</v>
       </c>
       <c r="K43" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <f t="shared" si="1"/>
         <v>41678</v>
@@ -2869,7 +2892,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="4">
         <f t="shared" si="2"/>
-        <v>7.9003831417624593</v>
+        <v>7.6040868454661634</v>
       </c>
       <c r="G44" s="4">
         <f t="shared" si="3"/>
@@ -2881,18 +2904,18 @@
       </c>
       <c r="I44" s="4">
         <f t="shared" si="4"/>
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="J44" s="4">
         <f t="shared" si="5"/>
-        <v>7.6040868454661634</v>
+        <v>7.3077905491698676</v>
       </c>
       <c r="K44" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <f t="shared" si="1"/>
         <v>41685</v>
@@ -2905,7 +2928,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="4">
         <f t="shared" si="2"/>
-        <v>7.6040868454661634</v>
+        <v>7.3077905491698676</v>
       </c>
       <c r="G45" s="4">
         <f t="shared" si="3"/>
@@ -2917,18 +2940,18 @@
       </c>
       <c r="I45" s="4">
         <f t="shared" si="4"/>
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="J45" s="4">
         <f t="shared" si="5"/>
-        <v>7.3077905491698676</v>
+        <v>7.0114942528735718</v>
       </c>
       <c r="K45" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <f t="shared" si="1"/>
         <v>41692</v>
@@ -2941,7 +2964,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="4">
         <f t="shared" si="2"/>
-        <v>7.3077905491698676</v>
+        <v>7.0114942528735718</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" si="3"/>
@@ -2953,18 +2976,18 @@
       </c>
       <c r="I46" s="4">
         <f t="shared" si="4"/>
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="J46" s="4">
         <f t="shared" si="5"/>
-        <v>7.0114942528735718</v>
+        <v>6.7151979565772759</v>
       </c>
       <c r="K46" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <f t="shared" si="1"/>
         <v>41699</v>
@@ -2977,7 +3000,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="4">
         <f t="shared" si="2"/>
-        <v>7.0114942528735718</v>
+        <v>6.7151979565772759</v>
       </c>
       <c r="G47" s="4">
         <f t="shared" si="3"/>
@@ -2989,18 +3012,18 @@
       </c>
       <c r="I47" s="4">
         <f t="shared" si="4"/>
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="J47" s="4">
         <f t="shared" si="5"/>
-        <v>6.7151979565772759</v>
+        <v>6.4189016602809801</v>
       </c>
       <c r="K47" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <f t="shared" si="1"/>
         <v>41706</v>
@@ -3013,7 +3036,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="4">
         <f t="shared" si="2"/>
-        <v>6.7151979565772759</v>
+        <v>6.4189016602809801</v>
       </c>
       <c r="G48" s="4">
         <f t="shared" si="3"/>
@@ -3025,22 +3048,22 @@
       </c>
       <c r="I48" s="4">
         <f t="shared" si="4"/>
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="J48" s="4">
         <f t="shared" si="5"/>
-        <v>6.4189016602809801</v>
+        <v>6.1226053639846842</v>
       </c>
       <c r="K48" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="8"/>
       <c r="B49" s="9">
         <f>SUM(B3:B27)</f>
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9">
@@ -3049,7 +3072,7 @@
       </c>
       <c r="E49" s="9">
         <f>AVERAGE(E3:E48)</f>
-        <v>8.8333333333333339</v>
+        <v>9.8333333333333339</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
@@ -3071,7 +3094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3079,7 +3102,7 @@
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="H7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1025" width="10" customWidth="1"/>
   </cols>

--- a/01_Planning/ProductBurndown.xlsx
+++ b/01_Planning/ProductBurndown.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danijal\Documents\Nachhilfeboerse\01_Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eva\Documents\GitHub\Nachhilfeboerse\01_Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Initial" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet 1 - Product Burndown" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet 1 - Drawings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mmm\ d&quot;, &quot;yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -272,7 +272,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -331,7 +331,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -566,72 +566,72 @@
                   <c:v>12.344827586206897</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12.048531289910601</c:v>
+                  <c:v>11.826309067688378</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11.752234993614305</c:v>
+                  <c:v>11.530012771392082</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11.455938697318009</c:v>
+                  <c:v>11.233716475095786</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11.159642401021713</c:v>
+                  <c:v>10.93742017879949</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10.863346104725418</c:v>
+                  <c:v>10.641123882503194</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10.567049808429122</c:v>
+                  <c:v>10.344827586206899</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10.270753512132826</c:v>
+                  <c:v>10.048531289910603</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9.9744572158365301</c:v>
+                  <c:v>9.7522349936143069</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.6781609195402343</c:v>
+                  <c:v>9.4559386973180111</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9.3818646232439384</c:v>
+                  <c:v>9.1596424010217152</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.0855683269476426</c:v>
+                  <c:v>8.8633461047254194</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.7892720306513468</c:v>
+                  <c:v>8.5670498084291236</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8.4929757343550509</c:v>
+                  <c:v>8.2707535121328277</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8.1966794380587551</c:v>
+                  <c:v>7.9744572158365319</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.9003831417624593</c:v>
+                  <c:v>7.6781609195402361</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7.6040868454661634</c:v>
+                  <c:v>7.3818646232439402</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7.3077905491698676</c:v>
+                  <c:v>7.0855683269476444</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7.0114942528735718</c:v>
+                  <c:v>6.7892720306513485</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.7151979565772759</c:v>
+                  <c:v>6.4929757343550527</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.4189016602809801</c:v>
+                  <c:v>6.1966794380587569</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.1226053639846842</c:v>
+                  <c:v>5.900383141762461</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-68C5-458F-9EF9-3D760483AA7F}"/>
             </c:ext>
@@ -647,11 +647,11 @@
         </c:dLbls>
         <c:gapWidth val="40"/>
         <c:overlap val="-10"/>
-        <c:axId val="192915800"/>
-        <c:axId val="192909920"/>
+        <c:axId val="203100272"/>
+        <c:axId val="203098704"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="192915800"/>
+        <c:axId val="203100272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -687,17 +687,17 @@
                 <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192909920"/>
+        <c:crossAx val="203098704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="192909920"/>
+        <c:axId val="203098704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -740,10 +740,10 @@
                 <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192915800"/>
+        <c:crossAx val="203100272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -812,7 +812,7 @@
         <xdr:cNvPr id="2" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -848,7 +848,7 @@
         <xdr:cNvPr id="3" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -910,7 +910,7 @@
         <xdr:cNvPr id="4" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1219,7 +1219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1230,16 +1230,16 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.86328125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="19.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.3984375" style="1" customWidth="1"/>
-    <col min="5" max="256" width="19.59765625" style="1" customWidth="1"/>
-    <col min="257" max="1025" width="19.59765625" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="19.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="1" customWidth="1"/>
+    <col min="5" max="256" width="19.5703125" style="1" customWidth="1"/>
+    <col min="257" max="1025" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1247,7 +1247,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:4" ht="32.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="32.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>13</v>
       </c>
@@ -1289,36 +1289,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.3984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.73046875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.3984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1328125" style="1" customWidth="1"/>
-    <col min="11" max="256" width="14.3984375" style="1" customWidth="1"/>
-    <col min="257" max="1025" width="14.3984375" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="1" customWidth="1"/>
+    <col min="11" max="256" width="14.42578125" style="1" customWidth="1"/>
+    <col min="257" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
@@ -1333,7 +1333,7 @@
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:11" ht="44.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="44.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>41391</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f t="shared" ref="A4:A48" si="1">A3+7</f>
         <v>41398</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f t="shared" si="1"/>
         <v>41405</v>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f t="shared" si="1"/>
         <v>41412</v>
@@ -1523,7 +1523,7 @@
         <v>3.4482758620689655E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f t="shared" si="1"/>
         <v>41419</v>
@@ -1561,7 +1561,7 @@
         <v>3.4482758620689655E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f t="shared" si="1"/>
         <v>41426</v>
@@ -1601,7 +1601,7 @@
         <v>3.4482758620689655E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f t="shared" si="1"/>
         <v>41433</v>
@@ -1639,7 +1639,7 @@
         <v>3.4482758620689655E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f t="shared" si="1"/>
         <v>41440</v>
@@ -1679,7 +1679,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f t="shared" si="1"/>
         <v>41447</v>
@@ -1717,7 +1717,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f t="shared" si="1"/>
         <v>41454</v>
@@ -1753,7 +1753,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f t="shared" si="1"/>
         <v>41461</v>
@@ -1789,7 +1789,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f t="shared" si="1"/>
         <v>41468</v>
@@ -1825,7 +1825,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <f t="shared" si="1"/>
         <v>41475</v>
@@ -1861,7 +1861,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <f t="shared" si="1"/>
         <v>41482</v>
@@ -1897,7 +1897,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <f t="shared" si="1"/>
         <v>41489</v>
@@ -1933,7 +1933,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <f t="shared" si="1"/>
         <v>41496</v>
@@ -1969,7 +1969,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <f t="shared" si="1"/>
         <v>41503</v>
@@ -2005,7 +2005,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <f t="shared" si="1"/>
         <v>41510</v>
@@ -2041,7 +2041,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <f t="shared" si="1"/>
         <v>41517</v>
@@ -2077,7 +2077,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <f t="shared" si="1"/>
         <v>41524</v>
@@ -2113,7 +2113,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <f t="shared" si="1"/>
         <v>41531</v>
@@ -2151,7 +2151,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <f t="shared" si="1"/>
         <v>41538</v>
@@ -2189,7 +2189,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <f t="shared" si="1"/>
         <v>41545</v>
@@ -2227,7 +2227,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <f t="shared" si="1"/>
         <v>41552</v>
@@ -2267,7 +2267,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <f t="shared" si="1"/>
         <v>41559</v>
@@ -2277,7 +2277,9 @@
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3">
+        <v>15</v>
+      </c>
       <c r="F27" s="4">
         <f t="shared" si="2"/>
         <v>12.900383141762452</v>
@@ -2303,13 +2305,13 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <f t="shared" si="1"/>
         <v>41566</v>
       </c>
       <c r="B28" s="3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -2328,18 +2330,18 @@
       </c>
       <c r="I28" s="4">
         <f t="shared" si="4"/>
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="5"/>
-        <v>12.048531289910601</v>
+        <v>11.826309067688378</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <f t="shared" si="1"/>
         <v>41573</v>
@@ -2352,7 +2354,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4">
         <f t="shared" si="2"/>
-        <v>12.048531289910601</v>
+        <v>11.826309067688378</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="3"/>
@@ -2364,18 +2366,18 @@
       </c>
       <c r="I29" s="4">
         <f t="shared" si="4"/>
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="5"/>
-        <v>11.752234993614305</v>
+        <v>11.530012771392082</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <f t="shared" si="1"/>
         <v>41580</v>
@@ -2388,7 +2390,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="4">
         <f t="shared" si="2"/>
-        <v>11.752234993614305</v>
+        <v>11.530012771392082</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="3"/>
@@ -2400,18 +2402,18 @@
       </c>
       <c r="I30" s="4">
         <f t="shared" si="4"/>
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="5"/>
-        <v>11.455938697318009</v>
+        <v>11.233716475095786</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <f t="shared" si="1"/>
         <v>41587</v>
@@ -2424,7 +2426,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="4">
         <f t="shared" si="2"/>
-        <v>11.455938697318009</v>
+        <v>11.233716475095786</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="3"/>
@@ -2436,18 +2438,18 @@
       </c>
       <c r="I31" s="4">
         <f t="shared" si="4"/>
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="5"/>
-        <v>11.159642401021713</v>
+        <v>10.93742017879949</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <f t="shared" si="1"/>
         <v>41594</v>
@@ -2460,7 +2462,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4">
         <f t="shared" si="2"/>
-        <v>11.159642401021713</v>
+        <v>10.93742017879949</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="3"/>
@@ -2472,18 +2474,18 @@
       </c>
       <c r="I32" s="4">
         <f t="shared" si="4"/>
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="5"/>
-        <v>10.863346104725418</v>
+        <v>10.641123882503194</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <f t="shared" si="1"/>
         <v>41601</v>
@@ -2496,7 +2498,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4">
         <f t="shared" si="2"/>
-        <v>10.863346104725418</v>
+        <v>10.641123882503194</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="3"/>
@@ -2508,18 +2510,18 @@
       </c>
       <c r="I33" s="4">
         <f t="shared" si="4"/>
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="J33" s="4">
         <f t="shared" si="5"/>
-        <v>10.567049808429122</v>
+        <v>10.344827586206899</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <f t="shared" si="1"/>
         <v>41608</v>
@@ -2532,7 +2534,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="4">
         <f t="shared" si="2"/>
-        <v>10.567049808429122</v>
+        <v>10.344827586206899</v>
       </c>
       <c r="G34" s="4">
         <f t="shared" si="3"/>
@@ -2544,18 +2546,18 @@
       </c>
       <c r="I34" s="4">
         <f t="shared" si="4"/>
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="J34" s="4">
         <f t="shared" si="5"/>
-        <v>10.270753512132826</v>
+        <v>10.048531289910603</v>
       </c>
       <c r="K34" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <f t="shared" si="1"/>
         <v>41615</v>
@@ -2568,7 +2570,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="4">
         <f t="shared" si="2"/>
-        <v>10.270753512132826</v>
+        <v>10.048531289910603</v>
       </c>
       <c r="G35" s="4">
         <f t="shared" si="3"/>
@@ -2580,18 +2582,18 @@
       </c>
       <c r="I35" s="4">
         <f t="shared" si="4"/>
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="J35" s="4">
         <f t="shared" si="5"/>
-        <v>9.9744572158365301</v>
+        <v>9.7522349936143069</v>
       </c>
       <c r="K35" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <f t="shared" si="1"/>
         <v>41622</v>
@@ -2604,7 +2606,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="4">
         <f t="shared" si="2"/>
-        <v>9.9744572158365301</v>
+        <v>9.7522349936143069</v>
       </c>
       <c r="G36" s="4">
         <f t="shared" si="3"/>
@@ -2616,18 +2618,18 @@
       </c>
       <c r="I36" s="4">
         <f t="shared" si="4"/>
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="J36" s="4">
         <f t="shared" si="5"/>
-        <v>9.6781609195402343</v>
+        <v>9.4559386973180111</v>
       </c>
       <c r="K36" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <f t="shared" si="1"/>
         <v>41629</v>
@@ -2640,7 +2642,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="4">
         <f t="shared" si="2"/>
-        <v>9.6781609195402343</v>
+        <v>9.4559386973180111</v>
       </c>
       <c r="G37" s="4">
         <f t="shared" si="3"/>
@@ -2652,18 +2654,18 @@
       </c>
       <c r="I37" s="4">
         <f t="shared" si="4"/>
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="J37" s="4">
         <f t="shared" si="5"/>
-        <v>9.3818646232439384</v>
+        <v>9.1596424010217152</v>
       </c>
       <c r="K37" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <f t="shared" si="1"/>
         <v>41636</v>
@@ -2676,7 +2678,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="4">
         <f t="shared" si="2"/>
-        <v>9.3818646232439384</v>
+        <v>9.1596424010217152</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" si="3"/>
@@ -2688,18 +2690,18 @@
       </c>
       <c r="I38" s="4">
         <f t="shared" si="4"/>
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="J38" s="4">
         <f t="shared" si="5"/>
-        <v>9.0855683269476426</v>
+        <v>8.8633461047254194</v>
       </c>
       <c r="K38" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <f t="shared" si="1"/>
         <v>41643</v>
@@ -2712,7 +2714,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="4">
         <f t="shared" si="2"/>
-        <v>9.0855683269476426</v>
+        <v>8.8633461047254194</v>
       </c>
       <c r="G39" s="4">
         <f t="shared" si="3"/>
@@ -2724,18 +2726,18 @@
       </c>
       <c r="I39" s="4">
         <f t="shared" si="4"/>
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="J39" s="4">
         <f t="shared" si="5"/>
-        <v>8.7892720306513468</v>
+        <v>8.5670498084291236</v>
       </c>
       <c r="K39" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <f t="shared" si="1"/>
         <v>41650</v>
@@ -2748,7 +2750,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="4">
         <f t="shared" si="2"/>
-        <v>8.7892720306513468</v>
+        <v>8.5670498084291236</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" si="3"/>
@@ -2760,18 +2762,18 @@
       </c>
       <c r="I40" s="4">
         <f t="shared" si="4"/>
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="J40" s="4">
         <f t="shared" si="5"/>
-        <v>8.4929757343550509</v>
+        <v>8.2707535121328277</v>
       </c>
       <c r="K40" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <f t="shared" si="1"/>
         <v>41657</v>
@@ -2784,7 +2786,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="4">
         <f t="shared" si="2"/>
-        <v>8.4929757343550509</v>
+        <v>8.2707535121328277</v>
       </c>
       <c r="G41" s="4">
         <f t="shared" si="3"/>
@@ -2796,18 +2798,18 @@
       </c>
       <c r="I41" s="4">
         <f t="shared" si="4"/>
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="J41" s="4">
         <f t="shared" si="5"/>
-        <v>8.1966794380587551</v>
+        <v>7.9744572158365319</v>
       </c>
       <c r="K41" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <f t="shared" si="1"/>
         <v>41664</v>
@@ -2820,7 +2822,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="4">
         <f t="shared" si="2"/>
-        <v>8.1966794380587551</v>
+        <v>7.9744572158365319</v>
       </c>
       <c r="G42" s="4">
         <f t="shared" si="3"/>
@@ -2832,18 +2834,18 @@
       </c>
       <c r="I42" s="4">
         <f t="shared" si="4"/>
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="J42" s="4">
         <f t="shared" si="5"/>
-        <v>7.9003831417624593</v>
+        <v>7.6781609195402361</v>
       </c>
       <c r="K42" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <f t="shared" si="1"/>
         <v>41671</v>
@@ -2856,7 +2858,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="4">
         <f t="shared" si="2"/>
-        <v>7.9003831417624593</v>
+        <v>7.6781609195402361</v>
       </c>
       <c r="G43" s="4">
         <f t="shared" si="3"/>
@@ -2868,18 +2870,18 @@
       </c>
       <c r="I43" s="4">
         <f t="shared" si="4"/>
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="J43" s="4">
         <f t="shared" si="5"/>
-        <v>7.6040868454661634</v>
+        <v>7.3818646232439402</v>
       </c>
       <c r="K43" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <f t="shared" si="1"/>
         <v>41678</v>
@@ -2892,7 +2894,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="4">
         <f t="shared" si="2"/>
-        <v>7.6040868454661634</v>
+        <v>7.3818646232439402</v>
       </c>
       <c r="G44" s="4">
         <f t="shared" si="3"/>
@@ -2904,18 +2906,18 @@
       </c>
       <c r="I44" s="4">
         <f t="shared" si="4"/>
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="J44" s="4">
         <f t="shared" si="5"/>
-        <v>7.3077905491698676</v>
+        <v>7.0855683269476444</v>
       </c>
       <c r="K44" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <f t="shared" si="1"/>
         <v>41685</v>
@@ -2928,7 +2930,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="4">
         <f t="shared" si="2"/>
-        <v>7.3077905491698676</v>
+        <v>7.0855683269476444</v>
       </c>
       <c r="G45" s="4">
         <f t="shared" si="3"/>
@@ -2940,18 +2942,18 @@
       </c>
       <c r="I45" s="4">
         <f t="shared" si="4"/>
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="J45" s="4">
         <f t="shared" si="5"/>
-        <v>7.0114942528735718</v>
+        <v>6.7892720306513485</v>
       </c>
       <c r="K45" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <f t="shared" si="1"/>
         <v>41692</v>
@@ -2964,7 +2966,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="4">
         <f t="shared" si="2"/>
-        <v>7.0114942528735718</v>
+        <v>6.7892720306513485</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" si="3"/>
@@ -2976,18 +2978,18 @@
       </c>
       <c r="I46" s="4">
         <f t="shared" si="4"/>
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="J46" s="4">
         <f t="shared" si="5"/>
-        <v>6.7151979565772759</v>
+        <v>6.4929757343550527</v>
       </c>
       <c r="K46" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <f t="shared" si="1"/>
         <v>41699</v>
@@ -3000,7 +3002,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="4">
         <f t="shared" si="2"/>
-        <v>6.7151979565772759</v>
+        <v>6.4929757343550527</v>
       </c>
       <c r="G47" s="4">
         <f t="shared" si="3"/>
@@ -3012,18 +3014,18 @@
       </c>
       <c r="I47" s="4">
         <f t="shared" si="4"/>
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="J47" s="4">
         <f t="shared" si="5"/>
-        <v>6.4189016602809801</v>
+        <v>6.1966794380587569</v>
       </c>
       <c r="K47" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <f t="shared" si="1"/>
         <v>41706</v>
@@ -3036,7 +3038,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="4">
         <f t="shared" si="2"/>
-        <v>6.4189016602809801</v>
+        <v>6.1966794380587569</v>
       </c>
       <c r="G48" s="4">
         <f t="shared" si="3"/>
@@ -3048,18 +3050,18 @@
       </c>
       <c r="I48" s="4">
         <f t="shared" si="4"/>
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="J48" s="4">
         <f t="shared" si="5"/>
-        <v>6.1226053639846842</v>
+        <v>5.900383141762461</v>
       </c>
       <c r="K48" s="7">
         <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="9">
         <f>SUM(B3:B27)</f>
@@ -3072,7 +3074,7 @@
       </c>
       <c r="E49" s="9">
         <f>AVERAGE(E3:E48)</f>
-        <v>9.8333333333333339</v>
+        <v>10.23076923076923</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
@@ -3094,7 +3096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3102,7 +3104,7 @@
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="H7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1025" width="10" customWidth="1"/>
   </cols>

--- a/01_Planning/ProductBurndown.xlsx
+++ b/01_Planning/ProductBurndown.xlsx
@@ -569,64 +569,64 @@
                   <c:v>11.826309067688378</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11.530012771392082</c:v>
+                  <c:v>11.826309067688378</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11.233716475095786</c:v>
+                  <c:v>11.826309067688378</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10.93742017879949</c:v>
+                  <c:v>11.344827586206897</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10.641123882503194</c:v>
+                  <c:v>11.048531289910601</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10.344827586206899</c:v>
+                  <c:v>10.752234993614305</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10.048531289910603</c:v>
+                  <c:v>10.455938697318009</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9.7522349936143069</c:v>
+                  <c:v>10.159642401021713</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.4559386973180111</c:v>
+                  <c:v>9.8633461047254176</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9.1596424010217152</c:v>
+                  <c:v>9.5670498084291218</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.8633461047254194</c:v>
+                  <c:v>9.2707535121328259</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.5670498084291236</c:v>
+                  <c:v>8.9744572158365301</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8.2707535121328277</c:v>
+                  <c:v>8.6781609195402343</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.9744572158365319</c:v>
+                  <c:v>8.3818646232439384</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.6781609195402361</c:v>
+                  <c:v>8.0855683269476426</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7.3818646232439402</c:v>
+                  <c:v>7.7892720306513468</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7.0855683269476444</c:v>
+                  <c:v>7.4929757343550509</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.7892720306513485</c:v>
+                  <c:v>7.1966794380587551</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.4929757343550527</c:v>
+                  <c:v>6.9003831417624593</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.1966794380587569</c:v>
+                  <c:v>6.6040868454661634</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.900383141762461</c:v>
+                  <c:v>6.3077905491698676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -647,11 +647,11 @@
         </c:dLbls>
         <c:gapWidth val="40"/>
         <c:overlap val="-10"/>
-        <c:axId val="203100272"/>
-        <c:axId val="203098704"/>
+        <c:axId val="178375264"/>
+        <c:axId val="178376048"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="203100272"/>
+        <c:axId val="178375264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -690,14 +690,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203098704"/>
+        <c:crossAx val="178376048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="203098704"/>
+        <c:axId val="178376048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -743,7 +743,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203100272"/>
+        <c:crossAx val="178375264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -812,7 +812,7 @@
         <xdr:cNvPr id="2" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -848,7 +848,7 @@
         <xdr:cNvPr id="3" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -910,7 +910,7 @@
         <xdr:cNvPr id="4" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1299,7 +1299,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2315,7 +2315,9 @@
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="E28" s="3">
+        <v>12</v>
+      </c>
       <c r="F28" s="4">
         <f t="shared" si="2"/>
         <v>12.344827586206897</v>
@@ -2347,7 +2349,7 @@
         <v>41573</v>
       </c>
       <c r="B29" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -2366,11 +2368,11 @@
       </c>
       <c r="I29" s="4">
         <f t="shared" si="4"/>
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="5"/>
-        <v>11.530012771392082</v>
+        <v>11.826309067688378</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="6"/>
@@ -2383,14 +2385,14 @@
         <v>41580</v>
       </c>
       <c r="B30" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="4">
         <f t="shared" si="2"/>
-        <v>11.530012771392082</v>
+        <v>11.826309067688378</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="3"/>
@@ -2402,11 +2404,11 @@
       </c>
       <c r="I30" s="4">
         <f t="shared" si="4"/>
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="5"/>
-        <v>11.233716475095786</v>
+        <v>11.826309067688378</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="6"/>
@@ -2419,14 +2421,14 @@
         <v>41587</v>
       </c>
       <c r="B31" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="4">
         <f t="shared" si="2"/>
-        <v>11.233716475095786</v>
+        <v>11.826309067688378</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="3"/>
@@ -2438,11 +2440,11 @@
       </c>
       <c r="I31" s="4">
         <f t="shared" si="4"/>
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="5"/>
-        <v>10.93742017879949</v>
+        <v>11.344827586206897</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="6"/>
@@ -2462,7 +2464,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4">
         <f t="shared" si="2"/>
-        <v>10.93742017879949</v>
+        <v>11.344827586206897</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="3"/>
@@ -2474,11 +2476,11 @@
       </c>
       <c r="I32" s="4">
         <f t="shared" si="4"/>
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="5"/>
-        <v>10.641123882503194</v>
+        <v>11.048531289910601</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="6"/>
@@ -2498,7 +2500,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4">
         <f t="shared" si="2"/>
-        <v>10.641123882503194</v>
+        <v>11.048531289910601</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="3"/>
@@ -2510,11 +2512,11 @@
       </c>
       <c r="I33" s="4">
         <f t="shared" si="4"/>
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="J33" s="4">
         <f t="shared" si="5"/>
-        <v>10.344827586206899</v>
+        <v>10.752234993614305</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="6"/>
@@ -2534,7 +2536,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="4">
         <f t="shared" si="2"/>
-        <v>10.344827586206899</v>
+        <v>10.752234993614305</v>
       </c>
       <c r="G34" s="4">
         <f t="shared" si="3"/>
@@ -2546,11 +2548,11 @@
       </c>
       <c r="I34" s="4">
         <f t="shared" si="4"/>
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="J34" s="4">
         <f t="shared" si="5"/>
-        <v>10.048531289910603</v>
+        <v>10.455938697318009</v>
       </c>
       <c r="K34" s="7">
         <f t="shared" si="6"/>
@@ -2570,7 +2572,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="4">
         <f t="shared" si="2"/>
-        <v>10.048531289910603</v>
+        <v>10.455938697318009</v>
       </c>
       <c r="G35" s="4">
         <f t="shared" si="3"/>
@@ -2582,11 +2584,11 @@
       </c>
       <c r="I35" s="4">
         <f t="shared" si="4"/>
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="J35" s="4">
         <f t="shared" si="5"/>
-        <v>9.7522349936143069</v>
+        <v>10.159642401021713</v>
       </c>
       <c r="K35" s="7">
         <f t="shared" si="6"/>
@@ -2606,7 +2608,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="4">
         <f t="shared" si="2"/>
-        <v>9.7522349936143069</v>
+        <v>10.159642401021713</v>
       </c>
       <c r="G36" s="4">
         <f t="shared" si="3"/>
@@ -2618,11 +2620,11 @@
       </c>
       <c r="I36" s="4">
         <f t="shared" si="4"/>
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="J36" s="4">
         <f t="shared" si="5"/>
-        <v>9.4559386973180111</v>
+        <v>9.8633461047254176</v>
       </c>
       <c r="K36" s="7">
         <f t="shared" si="6"/>
@@ -2642,7 +2644,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="4">
         <f t="shared" si="2"/>
-        <v>9.4559386973180111</v>
+        <v>9.8633461047254176</v>
       </c>
       <c r="G37" s="4">
         <f t="shared" si="3"/>
@@ -2654,11 +2656,11 @@
       </c>
       <c r="I37" s="4">
         <f t="shared" si="4"/>
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="J37" s="4">
         <f t="shared" si="5"/>
-        <v>9.1596424010217152</v>
+        <v>9.5670498084291218</v>
       </c>
       <c r="K37" s="7">
         <f t="shared" si="6"/>
@@ -2678,7 +2680,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="4">
         <f t="shared" si="2"/>
-        <v>9.1596424010217152</v>
+        <v>9.5670498084291218</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" si="3"/>
@@ -2690,11 +2692,11 @@
       </c>
       <c r="I38" s="4">
         <f t="shared" si="4"/>
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="J38" s="4">
         <f t="shared" si="5"/>
-        <v>8.8633461047254194</v>
+        <v>9.2707535121328259</v>
       </c>
       <c r="K38" s="7">
         <f t="shared" si="6"/>
@@ -2714,7 +2716,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="4">
         <f t="shared" si="2"/>
-        <v>8.8633461047254194</v>
+        <v>9.2707535121328259</v>
       </c>
       <c r="G39" s="4">
         <f t="shared" si="3"/>
@@ -2726,11 +2728,11 @@
       </c>
       <c r="I39" s="4">
         <f t="shared" si="4"/>
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="J39" s="4">
         <f t="shared" si="5"/>
-        <v>8.5670498084291236</v>
+        <v>8.9744572158365301</v>
       </c>
       <c r="K39" s="7">
         <f t="shared" si="6"/>
@@ -2750,7 +2752,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="4">
         <f t="shared" si="2"/>
-        <v>8.5670498084291236</v>
+        <v>8.9744572158365301</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" si="3"/>
@@ -2762,11 +2764,11 @@
       </c>
       <c r="I40" s="4">
         <f t="shared" si="4"/>
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="J40" s="4">
         <f t="shared" si="5"/>
-        <v>8.2707535121328277</v>
+        <v>8.6781609195402343</v>
       </c>
       <c r="K40" s="7">
         <f t="shared" si="6"/>
@@ -2786,7 +2788,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="4">
         <f t="shared" si="2"/>
-        <v>8.2707535121328277</v>
+        <v>8.6781609195402343</v>
       </c>
       <c r="G41" s="4">
         <f t="shared" si="3"/>
@@ -2798,11 +2800,11 @@
       </c>
       <c r="I41" s="4">
         <f t="shared" si="4"/>
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="J41" s="4">
         <f t="shared" si="5"/>
-        <v>7.9744572158365319</v>
+        <v>8.3818646232439384</v>
       </c>
       <c r="K41" s="7">
         <f t="shared" si="6"/>
@@ -2822,7 +2824,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="4">
         <f t="shared" si="2"/>
-        <v>7.9744572158365319</v>
+        <v>8.3818646232439384</v>
       </c>
       <c r="G42" s="4">
         <f t="shared" si="3"/>
@@ -2834,11 +2836,11 @@
       </c>
       <c r="I42" s="4">
         <f t="shared" si="4"/>
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="J42" s="4">
         <f t="shared" si="5"/>
-        <v>7.6781609195402361</v>
+        <v>8.0855683269476426</v>
       </c>
       <c r="K42" s="7">
         <f t="shared" si="6"/>
@@ -2858,7 +2860,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="4">
         <f t="shared" si="2"/>
-        <v>7.6781609195402361</v>
+        <v>8.0855683269476426</v>
       </c>
       <c r="G43" s="4">
         <f t="shared" si="3"/>
@@ -2870,11 +2872,11 @@
       </c>
       <c r="I43" s="4">
         <f t="shared" si="4"/>
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="J43" s="4">
         <f t="shared" si="5"/>
-        <v>7.3818646232439402</v>
+        <v>7.7892720306513468</v>
       </c>
       <c r="K43" s="7">
         <f t="shared" si="6"/>
@@ -2894,7 +2896,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="4">
         <f t="shared" si="2"/>
-        <v>7.3818646232439402</v>
+        <v>7.7892720306513468</v>
       </c>
       <c r="G44" s="4">
         <f t="shared" si="3"/>
@@ -2906,11 +2908,11 @@
       </c>
       <c r="I44" s="4">
         <f t="shared" si="4"/>
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="J44" s="4">
         <f t="shared" si="5"/>
-        <v>7.0855683269476444</v>
+        <v>7.4929757343550509</v>
       </c>
       <c r="K44" s="7">
         <f t="shared" si="6"/>
@@ -2930,7 +2932,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="4">
         <f t="shared" si="2"/>
-        <v>7.0855683269476444</v>
+        <v>7.4929757343550509</v>
       </c>
       <c r="G45" s="4">
         <f t="shared" si="3"/>
@@ -2942,11 +2944,11 @@
       </c>
       <c r="I45" s="4">
         <f t="shared" si="4"/>
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="J45" s="4">
         <f t="shared" si="5"/>
-        <v>6.7892720306513485</v>
+        <v>7.1966794380587551</v>
       </c>
       <c r="K45" s="7">
         <f t="shared" si="6"/>
@@ -2966,7 +2968,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="4">
         <f t="shared" si="2"/>
-        <v>6.7892720306513485</v>
+        <v>7.1966794380587551</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" si="3"/>
@@ -2978,11 +2980,11 @@
       </c>
       <c r="I46" s="4">
         <f t="shared" si="4"/>
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="J46" s="4">
         <f t="shared" si="5"/>
-        <v>6.4929757343550527</v>
+        <v>6.9003831417624593</v>
       </c>
       <c r="K46" s="7">
         <f t="shared" si="6"/>
@@ -3002,7 +3004,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="4">
         <f t="shared" si="2"/>
-        <v>6.4929757343550527</v>
+        <v>6.9003831417624593</v>
       </c>
       <c r="G47" s="4">
         <f t="shared" si="3"/>
@@ -3014,11 +3016,11 @@
       </c>
       <c r="I47" s="4">
         <f t="shared" si="4"/>
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="J47" s="4">
         <f t="shared" si="5"/>
-        <v>6.1966794380587569</v>
+        <v>6.6040868454661634</v>
       </c>
       <c r="K47" s="7">
         <f t="shared" si="6"/>
@@ -3038,7 +3040,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="4">
         <f t="shared" si="2"/>
-        <v>6.1966794380587569</v>
+        <v>6.6040868454661634</v>
       </c>
       <c r="G48" s="4">
         <f t="shared" si="3"/>
@@ -3050,11 +3052,11 @@
       </c>
       <c r="I48" s="4">
         <f t="shared" si="4"/>
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="J48" s="4">
         <f t="shared" si="5"/>
-        <v>5.900383141762461</v>
+        <v>6.3077905491698676</v>
       </c>
       <c r="K48" s="7">
         <f t="shared" si="6"/>
@@ -3074,7 +3076,7 @@
       </c>
       <c r="E49" s="9">
         <f>AVERAGE(E3:E48)</f>
-        <v>10.23076923076923</v>
+        <v>10.357142857142858</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>

--- a/01_Planning/ProductBurndown.xlsx
+++ b/01_Planning/ProductBurndown.xlsx
@@ -285,8 +285,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.3901855176541001E-2"/>
-          <c:y val="0.14035822771551301"/>
+          <c:x val="4.9358650765272141E-2"/>
+          <c:y val="2.3246800326667229E-2"/>
           <c:w val="0.91101137043686398"/>
           <c:h val="0.78977689326489997"/>
         </c:manualLayout>
@@ -339,294 +339,180 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1 - Product Burndown'!$A$3:$A$48</c:f>
+              <c:f>'Sheet 1 - Product Burndown'!$A$3:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>mmm\ d", "yyyy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>41391</c:v>
+                  <c:v>41527</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41398</c:v>
+                  <c:v>41534</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41405</c:v>
+                  <c:v>41541</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41412</c:v>
+                  <c:v>41548</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41419</c:v>
+                  <c:v>41555</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41426</c:v>
+                  <c:v>41562</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41433</c:v>
+                  <c:v>41569</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41440</c:v>
+                  <c:v>41576</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41447</c:v>
+                  <c:v>41583</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41454</c:v>
+                  <c:v>41590</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41461</c:v>
+                  <c:v>41597</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41468</c:v>
+                  <c:v>41604</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41475</c:v>
+                  <c:v>41611</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41482</c:v>
+                  <c:v>41618</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41489</c:v>
+                  <c:v>41625</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41496</c:v>
+                  <c:v>41632</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41503</c:v>
+                  <c:v>41639</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41510</c:v>
+                  <c:v>41646</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41517</c:v>
+                  <c:v>41653</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41524</c:v>
+                  <c:v>41660</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41531</c:v>
+                  <c:v>41667</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41538</c:v>
+                  <c:v>41674</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41545</c:v>
+                  <c:v>41681</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41552</c:v>
+                  <c:v>41688</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41559</c:v>
+                  <c:v>41695</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41566</c:v>
+                  <c:v>41702</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41573</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>41580</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>41587</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>41594</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>41601</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>41608</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>41615</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>41622</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>41629</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>41636</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>41643</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>41650</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>41657</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>41664</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41671</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41678</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>41685</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>41692</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>41699</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>41706</c:v>
+                  <c:v>41709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1 - Product Burndown'!$J$3:$J$48</c:f>
+              <c:f>'Sheet 1 - Product Burndown'!$J$3:$J$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0" formatCode="0.0">
-                  <c:v>13</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>18.857142857142858</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>18.651535380507344</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>15.651535380507344</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.724137931034482</c:v>
+                  <c:v>15.31820204717401</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.482758620689655</c:v>
+                  <c:v>14.901535380507344</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.344827586206897</c:v>
+                  <c:v>11.901535380507344</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.344827586206897</c:v>
+                  <c:v>11.901535380507344</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.567049808429118</c:v>
+                  <c:v>11.901535380507344</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.270753512132822</c:v>
+                  <c:v>11.901535380507344</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.9744572158365266</c:v>
+                  <c:v>11.481535380507344</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.9744572158365266</c:v>
+                  <c:v>11.201535380507345</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.9744572158365266</c:v>
+                  <c:v>10.921535380507345</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.9744572158365266</c:v>
+                  <c:v>10.641535380507346</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.9744572158365266</c:v>
+                  <c:v>10.361535380507346</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.9744572158365266</c:v>
+                  <c:v>10.361535380507346</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.9744572158365266</c:v>
+                  <c:v>10.361535380507346</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.9744572158365266</c:v>
+                  <c:v>10.081535380507347</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.9744572158365266</c:v>
+                  <c:v>9.8015353805073477</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.9744572158365266</c:v>
+                  <c:v>9.5215353805073484</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.4559386973180075</c:v>
+                  <c:v>9.241535380507349</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.6411238825031926</c:v>
+                  <c:v>8.9615353805073497</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.3448275862068968</c:v>
+                  <c:v>8.6815353805073503</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12.900383141762452</c:v>
+                  <c:v>8.6815353805073503</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12.344827586206897</c:v>
+                  <c:v>8.4015353805073509</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11.826309067688378</c:v>
+                  <c:v>8.1215353805073516</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11.826309067688378</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>11.826309067688378</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>11.344827586206897</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>11.048531289910601</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>10.752234993614305</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>10.455938697318009</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>10.159642401021713</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>9.8633461047254176</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9.5670498084291218</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>9.2707535121328259</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>8.9744572158365301</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>8.6781609195402343</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>8.3818646232439384</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8.0855683269476426</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>7.7892720306513468</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>7.4929757343550509</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>7.1966794380587551</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>6.9003831417624593</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>6.6040868454661634</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>6.3077905491698676</c:v>
+                  <c:v>7.8415353805073513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -647,11 +533,11 @@
         </c:dLbls>
         <c:gapWidth val="40"/>
         <c:overlap val="-10"/>
-        <c:axId val="178375264"/>
-        <c:axId val="178376048"/>
+        <c:axId val="146720704"/>
+        <c:axId val="146721488"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="178375264"/>
+        <c:axId val="146720704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -690,14 +576,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178376048"/>
+        <c:crossAx val="146721488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="178376048"/>
+        <c:axId val="146721488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -743,7 +629,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178375264"/>
+        <c:crossAx val="146720704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -797,22 +683,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>235440</xdr:colOff>
+      <xdr:colOff>235439</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>139680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>606600</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>547686</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>109440</xdr:rowOff>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -833,68 +719,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>472680</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>544320</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>113400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4705560" y="2840760"/>
-          <a:ext cx="6420960" cy="12131640"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-          <a:tile/>
-        </a:blipFill>
-        <a:ln w="12600">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="50000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
       <xdr:colOff>221040</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>108720</xdr:rowOff>
@@ -910,7 +734,7 @@
         <xdr:cNvPr id="4" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1227,7 +1051,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1263,17 +1087,17 @@
     </row>
     <row r="3" spans="1:4" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="e">
+        <v>90</v>
+      </c>
+      <c r="D3" s="4">
         <f>B3/C3</f>
-        <v>#DIV/0!</v>
+        <v>1.1111111111111112E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1293,13 +1117,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV49"/>
+  <dimension ref="A1:IV53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K36" sqref="K36"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1370,7 +1194,7 @@
     </row>
     <row r="3" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <v>41391</v>
+        <v>41527</v>
       </c>
       <c r="B3" s="3">
         <v>7</v>
@@ -1384,559 +1208,546 @@
       </c>
       <c r="F3" s="4">
         <f>'Sheet 1 - Initial'!A3+C3</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G3" s="4">
         <f>'Sheet 1 - Initial'!B3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="4">
-        <f t="shared" ref="H3:H48" si="0">G3+D3</f>
-        <v>0</v>
+        <f t="shared" ref="H3:H33" si="0">G3+D3</f>
+        <v>1</v>
       </c>
       <c r="I3" s="4">
         <f>'Sheet 1 - Initial'!C3</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="J3" s="6">
         <f>MAX(IF(OR(ISBLANK(D3),ISBLANK(E3)),F3-'Sheet 1 - Initial'!D3*B3,F3-D3),0)</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K3" s="7">
         <f>IF(OR(ISBLANK(D3),ISBLANK(E3)),'Sheet 1 - Initial'!D3,H3/(I3+E3))</f>
-        <v>0</v>
+        <v>1.020408163265306E-2</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <f t="shared" ref="A4:A48" si="1">A3+7</f>
-        <v>41398</v>
+        <v>41534</v>
       </c>
       <c r="B4" s="3">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
-        <v>8</v>
-      </c>
-      <c r="F4" s="4">
-        <f t="shared" ref="F4:F48" si="2">J3+C4</f>
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="F4" s="6">
+        <f>J3+C4</f>
+        <v>19</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" ref="G4:G48" si="3">H3</f>
-        <v>0</v>
+        <f>H3</f>
+        <v>1</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" ref="I4:I48" si="4">I3+E3</f>
-        <v>8</v>
+        <f>I3+E3</f>
+        <v>98</v>
       </c>
       <c r="J4" s="4">
-        <f t="shared" ref="J4:J48" si="5">MAX(IF(OR(ISBLANK(D4),ISBLANK(E4)),F4-K3*B4,F4-D4),0)</f>
-        <v>13</v>
+        <f>MAX(IF(OR(ISBLANK(D4),ISBLANK(E4)),F4-K3*B4,F4-D4),0)</f>
+        <v>18.857142857142858</v>
       </c>
       <c r="K4" s="7">
-        <f t="shared" ref="K4:K48" si="6">IF(OR(ISBLANK(D4),ISBLANK(E4)),K3,H4/(I4+E4))</f>
-        <v>0</v>
+        <f>IF(OR(ISBLANK(D4),ISBLANK(E4)),H4/(I4+E4))</f>
+        <v>9.3457943925233638E-3</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
-        <f t="shared" si="1"/>
-        <v>41405</v>
+        <v>41541</v>
       </c>
       <c r="B5" s="3">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
-        <v>6</v>
-      </c>
-      <c r="F5" s="4">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" ref="F5:F10" si="1">J4+C5</f>
+        <v>18.857142857142858</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="G5:G33" si="2">H4</f>
+        <v>1</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" si="4"/>
-        <v>16</v>
+        <f t="shared" ref="I5:I33" si="3">I4+E4</f>
+        <v>107</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <f t="shared" ref="J5:J33" si="4">MAX(IF(OR(ISBLANK(D5),ISBLANK(E5)),F5-K4*B5,F5-D5),0)</f>
+        <v>18.651535380507344</v>
       </c>
       <c r="K5" s="7">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ref="K5:K33" si="5">IF(OR(ISBLANK(D5),ISBLANK(E5)),K4,H5/(I5+E5))</f>
+        <v>9.3457943925233638E-3</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
-        <f t="shared" si="1"/>
-        <v>41412</v>
+        <v>41548</v>
       </c>
       <c r="B6" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>15</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="1"/>
+        <v>18.651535380507344</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E6" s="3">
-        <v>7</v>
-      </c>
-      <c r="F6" s="4">
-        <f>J5+C6</f>
-        <v>13</v>
-      </c>
-      <c r="G6" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="H6" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" si="4"/>
-        <v>22</v>
+        <f t="shared" si="3"/>
+        <v>129</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>15.651535380507344</v>
       </c>
       <c r="K6" s="7">
-        <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
-        <f t="shared" si="1"/>
-        <v>41419</v>
+        <v>41555</v>
       </c>
       <c r="B7" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4">
-        <f>J6+C7</f>
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="1"/>
+        <v>15.651535380507344</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>H6</f>
+        <v>4</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" si="4"/>
-        <v>29</v>
+        <f t="shared" si="3"/>
+        <v>144</v>
       </c>
       <c r="J7" s="4">
-        <f t="shared" si="5"/>
-        <v>11.724137931034482</v>
+        <f t="shared" si="4"/>
+        <v>15.31820204717401</v>
       </c>
       <c r="K7" s="7">
-        <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
-        <f t="shared" si="1"/>
-        <v>41426</v>
+        <v>41562</v>
       </c>
       <c r="B8" s="3">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3">
-        <v>6</v>
-      </c>
-      <c r="F8" s="4">
-        <f t="shared" si="2"/>
-        <v>12.724137931034482</v>
+        <v>15</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="1"/>
+        <v>15.31820204717401</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" si="4"/>
-        <v>39</v>
+        <f t="shared" si="3"/>
+        <v>162</v>
       </c>
       <c r="J8" s="4">
-        <f t="shared" si="5"/>
-        <v>12.482758620689655</v>
+        <f t="shared" si="4"/>
+        <v>14.901535380507344</v>
       </c>
       <c r="K8" s="7">
-        <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
+        <v>41569</v>
+      </c>
+      <c r="B9" s="3">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>12</v>
+      </c>
+      <c r="F9" s="6">
         <f t="shared" si="1"/>
-        <v>41433</v>
-      </c>
-      <c r="B9" s="3">
+        <v>14.901535380507344</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3">
-        <v>3</v>
-      </c>
-      <c r="F9" s="4">
-        <f t="shared" si="2"/>
-        <v>12.482758620689655</v>
-      </c>
-      <c r="G9" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
       <c r="H9" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="4"/>
-        <v>45</v>
+        <f t="shared" si="3"/>
+        <v>177</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" si="5"/>
-        <v>12.344827586206897</v>
+        <f t="shared" si="4"/>
+        <v>11.901535380507344</v>
       </c>
       <c r="K9" s="7">
-        <f t="shared" si="6"/>
-        <v>3.4482758620689655E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
+        <v>41576</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
         <f t="shared" si="1"/>
-        <v>41440</v>
-      </c>
-      <c r="B10" s="3">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
-        <v>6</v>
-      </c>
-      <c r="F10" s="4">
-        <f t="shared" si="2"/>
-        <v>12.344827586206897</v>
+        <v>11.901535380507344</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="4"/>
-        <v>48</v>
+        <f t="shared" si="3"/>
+        <v>189</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="5"/>
-        <v>11.344827586206897</v>
+        <f t="shared" si="4"/>
+        <v>11.901535380507344</v>
       </c>
       <c r="K10" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
-        <f t="shared" si="1"/>
-        <v>41447</v>
+        <v>41583</v>
       </c>
       <c r="B11" s="3">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="2"/>
-        <v>11.344827586206897</v>
+        <f t="shared" ref="F5:F33" si="6">J10+C11</f>
+        <v>11.901535380507344</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="4"/>
-        <v>54</v>
+        <f t="shared" si="3"/>
+        <v>189</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="5"/>
-        <v>10.567049808429118</v>
+        <f t="shared" si="4"/>
+        <v>11.901535380507344</v>
       </c>
       <c r="K11" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
-        <f t="shared" si="1"/>
-        <v>41454</v>
+        <v>41590</v>
       </c>
       <c r="B12" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>11</v>
+      </c>
       <c r="F12" s="4">
-        <f t="shared" si="2"/>
-        <v>10.567049808429118</v>
+        <f t="shared" si="6"/>
+        <v>11.901535380507344</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="4"/>
-        <v>69</v>
+        <f t="shared" si="3"/>
+        <v>189</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="5"/>
-        <v>10.270753512132822</v>
+        <f t="shared" si="4"/>
+        <v>11.901535380507344</v>
       </c>
       <c r="K12" s="7">
-        <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
-        <f t="shared" si="1"/>
-        <v>41461</v>
+        <v>41597</v>
       </c>
       <c r="B13" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="4">
-        <f t="shared" si="2"/>
-        <v>10.270753512132822</v>
+        <f t="shared" si="6"/>
+        <v>11.901535380507344</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="4"/>
-        <v>69</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="5"/>
-        <v>9.9744572158365266</v>
+        <f t="shared" si="4"/>
+        <v>11.481535380507344</v>
       </c>
       <c r="K13" s="7">
-        <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
-        <f t="shared" si="1"/>
-        <v>41468</v>
+        <v>41604</v>
       </c>
       <c r="B14" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="4">
-        <f t="shared" si="2"/>
-        <v>9.9744572158365266</v>
+        <f t="shared" si="6"/>
+        <v>11.481535380507344</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="4"/>
-        <v>69</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="5"/>
-        <v>9.9744572158365266</v>
+        <f t="shared" si="4"/>
+        <v>11.201535380507345</v>
       </c>
       <c r="K14" s="7">
-        <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
-        <f t="shared" si="1"/>
-        <v>41475</v>
+        <v>41611</v>
       </c>
       <c r="B15" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="4">
-        <f t="shared" si="2"/>
-        <v>9.9744572158365266</v>
+        <f t="shared" si="6"/>
+        <v>11.201535380507345</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="H15" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" si="4"/>
-        <v>69</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" si="5"/>
-        <v>9.9744572158365266</v>
+        <f t="shared" si="4"/>
+        <v>10.921535380507345</v>
       </c>
       <c r="K15" s="7">
-        <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
-        <f t="shared" si="1"/>
-        <v>41482</v>
+        <v>41618</v>
       </c>
       <c r="B16" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="4">
-        <f t="shared" si="2"/>
-        <v>9.9744572158365266</v>
+        <f t="shared" si="6"/>
+        <v>10.921535380507345</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="4"/>
-        <v>69</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="5"/>
-        <v>9.9744572158365266</v>
+        <f t="shared" si="4"/>
+        <v>10.641535380507346</v>
       </c>
       <c r="K16" s="7">
-        <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
-        <f t="shared" si="1"/>
-        <v>41489</v>
+        <v>41625</v>
       </c>
       <c r="B17" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="4">
-        <f t="shared" si="2"/>
-        <v>9.9744572158365266</v>
+        <f t="shared" si="6"/>
+        <v>10.641535380507346</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="H17" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="4"/>
-        <v>69</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="J17" s="4">
-        <f t="shared" si="5"/>
-        <v>9.9744572158365266</v>
+        <f t="shared" si="4"/>
+        <v>10.361535380507346</v>
       </c>
       <c r="K17" s="7">
-        <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
-        <f t="shared" si="1"/>
-        <v>41496</v>
+        <v>41632</v>
       </c>
       <c r="B18" s="3">
         <v>0</v>
@@ -1945,34 +1756,33 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="4">
-        <f t="shared" si="2"/>
-        <v>9.9744572158365266</v>
+        <f t="shared" si="6"/>
+        <v>10.361535380507346</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="H18" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="4"/>
-        <v>69</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" si="5"/>
-        <v>9.9744572158365266</v>
+        <f t="shared" si="4"/>
+        <v>10.361535380507346</v>
       </c>
       <c r="K18" s="7">
-        <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
-        <f t="shared" si="1"/>
-        <v>41503</v>
+        <v>41639</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -1981,480 +1791,453 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="4">
-        <f t="shared" si="2"/>
-        <v>9.9744572158365266</v>
+        <f t="shared" si="6"/>
+        <v>10.361535380507346</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="H19" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="4"/>
-        <v>69</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="5"/>
-        <v>9.9744572158365266</v>
+        <f t="shared" si="4"/>
+        <v>10.361535380507346</v>
       </c>
       <c r="K19" s="7">
-        <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
-        <f t="shared" si="1"/>
-        <v>41510</v>
+        <v>41646</v>
       </c>
       <c r="B20" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="4">
-        <f t="shared" si="2"/>
-        <v>9.9744572158365266</v>
+        <f t="shared" si="6"/>
+        <v>10.361535380507346</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="H20" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="4"/>
-        <v>69</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" si="5"/>
-        <v>9.9744572158365266</v>
+        <f t="shared" si="4"/>
+        <v>10.081535380507347</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
-        <f t="shared" si="1"/>
-        <v>41517</v>
+        <v>41653</v>
       </c>
       <c r="B21" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="4">
-        <f t="shared" si="2"/>
-        <v>9.9744572158365266</v>
+        <f t="shared" si="6"/>
+        <v>10.081535380507347</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="H21" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="4"/>
-        <v>69</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="5"/>
-        <v>9.9744572158365266</v>
+        <f t="shared" si="4"/>
+        <v>9.8015353805073477</v>
       </c>
       <c r="K21" s="7">
-        <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
-        <f t="shared" si="1"/>
-        <v>41524</v>
+        <v>41660</v>
       </c>
       <c r="B22" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="4">
-        <f t="shared" si="2"/>
-        <v>9.9744572158365266</v>
+        <f t="shared" si="6"/>
+        <v>9.8015353805073477</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="H22" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="4"/>
-        <v>69</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" si="5"/>
-        <v>9.9744572158365266</v>
+        <f t="shared" si="4"/>
+        <v>9.5215353805073484</v>
       </c>
       <c r="K22" s="7">
-        <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
-        <f t="shared" si="1"/>
-        <v>41531</v>
+        <v>41667</v>
       </c>
       <c r="B23" s="3">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="3">
-        <v>9</v>
-      </c>
+      <c r="E23" s="3"/>
       <c r="F23" s="4">
-        <f t="shared" si="2"/>
-        <v>9.9744572158365266</v>
+        <f t="shared" si="6"/>
+        <v>9.5215353805073484</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="H23" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="4"/>
-        <v>69</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" si="5"/>
-        <v>9.4559386973180075</v>
+        <f t="shared" si="4"/>
+        <v>9.241535380507349</v>
       </c>
       <c r="K23" s="7">
-        <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
-        <f t="shared" si="1"/>
-        <v>41538</v>
+        <v>41674</v>
       </c>
       <c r="B24" s="3">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="3">
-        <v>22</v>
-      </c>
+      <c r="E24" s="3"/>
       <c r="F24" s="4">
-        <f t="shared" si="2"/>
-        <v>9.4559386973180075</v>
+        <f t="shared" si="6"/>
+        <v>9.241535380507349</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="H24" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="4"/>
-        <v>78</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="J24" s="4">
-        <f t="shared" si="5"/>
-        <v>8.6411238825031926</v>
+        <f t="shared" si="4"/>
+        <v>8.9615353805073497</v>
       </c>
       <c r="K24" s="7">
-        <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
-        <f t="shared" si="1"/>
-        <v>41545</v>
+        <v>41681</v>
       </c>
       <c r="B25" s="3">
         <v>8</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="3">
-        <v>3</v>
-      </c>
+      <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="4">
-        <f t="shared" si="2"/>
-        <v>8.6411238825031926</v>
+        <f t="shared" si="6"/>
+        <v>8.9615353805073497</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="H25" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" si="4"/>
-        <v>100</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="J25" s="4">
-        <f t="shared" si="5"/>
-        <v>8.3448275862068968</v>
+        <f t="shared" si="4"/>
+        <v>8.6815353805073503</v>
       </c>
       <c r="K25" s="7">
-        <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
-        <f t="shared" si="1"/>
-        <v>41552</v>
+        <v>41688</v>
       </c>
       <c r="B26" s="3">
-        <v>12</v>
-      </c>
-      <c r="C26" s="3">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="3">
-        <v>18</v>
-      </c>
+      <c r="E26" s="3"/>
       <c r="F26" s="4">
-        <f t="shared" si="2"/>
-        <v>13.344827586206897</v>
+        <f t="shared" si="6"/>
+        <v>8.6815353805073503</v>
       </c>
       <c r="G26" s="4">
-        <f>H25</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="H26" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="4"/>
-        <v>100</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="J26" s="4">
-        <f t="shared" si="5"/>
-        <v>12.900383141762452</v>
+        <f t="shared" si="4"/>
+        <v>8.6815353805073503</v>
       </c>
       <c r="K26" s="7">
-        <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
-        <f t="shared" si="1"/>
-        <v>41559</v>
+        <v>41695</v>
       </c>
       <c r="B27" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="3">
-        <v>15</v>
-      </c>
+      <c r="E27" s="3"/>
       <c r="F27" s="4">
-        <f t="shared" si="2"/>
-        <v>12.900383141762452</v>
+        <f t="shared" si="6"/>
+        <v>8.6815353805073503</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="H27" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="4"/>
-        <v>118</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="J27" s="4">
-        <f t="shared" si="5"/>
-        <v>12.344827586206897</v>
+        <f t="shared" si="4"/>
+        <v>8.4015353805073509</v>
       </c>
       <c r="K27" s="7">
-        <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <f t="shared" si="1"/>
-        <v>41566</v>
+        <v>41702</v>
       </c>
       <c r="B28" s="3">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="3">
-        <v>12</v>
-      </c>
+      <c r="E28" s="3"/>
       <c r="F28" s="4">
-        <f t="shared" si="2"/>
-        <v>12.344827586206897</v>
+        <f t="shared" si="6"/>
+        <v>8.4015353805073509</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="H28" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" si="4"/>
-        <v>133</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="J28" s="4">
-        <f t="shared" si="5"/>
-        <v>11.826309067688378</v>
+        <f t="shared" si="4"/>
+        <v>8.1215353805073516</v>
       </c>
       <c r="K28" s="7">
-        <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
-        <f t="shared" si="1"/>
-        <v>41573</v>
+        <v>41709</v>
       </c>
       <c r="B29" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="4">
-        <f t="shared" si="2"/>
-        <v>11.826309067688378</v>
+        <f t="shared" si="6"/>
+        <v>8.1215353805073516</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="H29" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" si="4"/>
-        <v>145</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="J29" s="4">
-        <f t="shared" si="5"/>
-        <v>11.826309067688378</v>
+        <f t="shared" si="4"/>
+        <v>7.8415353805073513</v>
       </c>
       <c r="K29" s="7">
-        <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
-        <f t="shared" si="1"/>
-        <v>41580</v>
+        <v>41716</v>
       </c>
       <c r="B30" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="4">
-        <f t="shared" si="2"/>
-        <v>11.826309067688378</v>
+        <f t="shared" si="6"/>
+        <v>7.8415353805073513</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="H30" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" si="4"/>
-        <v>145</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="J30" s="4">
-        <f t="shared" si="5"/>
-        <v>11.826309067688378</v>
+        <f t="shared" si="4"/>
+        <v>7.5615353805073511</v>
       </c>
       <c r="K30" s="7">
-        <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
-        <f t="shared" si="1"/>
-        <v>41587</v>
+        <v>41723</v>
       </c>
       <c r="B31" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="4">
-        <f t="shared" si="2"/>
-        <v>11.826309067688378</v>
+        <f t="shared" si="6"/>
+        <v>7.5615353805073511</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="H31" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" si="4"/>
-        <v>145</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="J31" s="4">
-        <f t="shared" si="5"/>
-        <v>11.344827586206897</v>
+        <f t="shared" si="4"/>
+        <v>7.2815353805073508</v>
       </c>
       <c r="K31" s="7">
-        <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
-        <f t="shared" si="1"/>
-        <v>41594</v>
+        <v>41730</v>
       </c>
       <c r="B32" s="3">
         <v>8</v>
@@ -2463,34 +2246,33 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="4">
-        <f t="shared" si="2"/>
-        <v>11.344827586206897</v>
+        <f t="shared" si="6"/>
+        <v>7.2815353805073508</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="H32" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" si="4"/>
-        <v>145</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="J32" s="4">
-        <f t="shared" si="5"/>
-        <v>11.048531289910601</v>
+        <f t="shared" si="4"/>
+        <v>7.0015353805073506</v>
       </c>
       <c r="K32" s="7">
-        <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
-        <f t="shared" si="1"/>
-        <v>41601</v>
+        <v>41737</v>
       </c>
       <c r="B33" s="3">
         <v>8</v>
@@ -2499,592 +2281,71 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="4">
-        <f t="shared" si="2"/>
-        <v>11.048531289910601</v>
+        <f t="shared" si="6"/>
+        <v>7.0015353805073506</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="H33" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" si="4"/>
-        <v>145</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="J33" s="4">
-        <f t="shared" si="5"/>
-        <v>10.752234993614305</v>
+        <f t="shared" si="4"/>
+        <v>6.7215353805073503</v>
       </c>
       <c r="K33" s="7">
-        <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
-        <f t="shared" si="1"/>
-        <v>41608</v>
-      </c>
-      <c r="B34" s="3">
-        <v>8</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="4">
-        <f t="shared" si="2"/>
-        <v>10.752234993614305</v>
-      </c>
-      <c r="G34" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="H34" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I34" s="4">
-        <f t="shared" si="4"/>
-        <v>145</v>
-      </c>
-      <c r="J34" s="4">
-        <f t="shared" si="5"/>
-        <v>10.455938697318009</v>
-      </c>
-      <c r="K34" s="7">
-        <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
-        <f t="shared" si="1"/>
-        <v>41615</v>
-      </c>
-      <c r="B35" s="3">
-        <v>8</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="4">
-        <f t="shared" si="2"/>
-        <v>10.455938697318009</v>
-      </c>
-      <c r="G35" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="H35" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I35" s="4">
-        <f t="shared" si="4"/>
-        <v>145</v>
-      </c>
-      <c r="J35" s="4">
-        <f t="shared" si="5"/>
-        <v>10.159642401021713</v>
-      </c>
-      <c r="K35" s="7">
-        <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
-        <f t="shared" si="1"/>
-        <v>41622</v>
-      </c>
-      <c r="B36" s="3">
-        <v>8</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="4">
-        <f t="shared" si="2"/>
-        <v>10.159642401021713</v>
-      </c>
-      <c r="G36" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="H36" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I36" s="4">
-        <f t="shared" si="4"/>
-        <v>145</v>
-      </c>
-      <c r="J36" s="4">
-        <f t="shared" si="5"/>
-        <v>9.8633461047254176</v>
-      </c>
-      <c r="K36" s="7">
-        <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
-        <f t="shared" si="1"/>
-        <v>41629</v>
-      </c>
-      <c r="B37" s="3">
-        <v>8</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="4">
-        <f t="shared" si="2"/>
-        <v>9.8633461047254176</v>
-      </c>
-      <c r="G37" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="H37" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I37" s="4">
-        <f t="shared" si="4"/>
-        <v>145</v>
-      </c>
-      <c r="J37" s="4">
-        <f t="shared" si="5"/>
-        <v>9.5670498084291218</v>
-      </c>
-      <c r="K37" s="7">
-        <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
-        <f t="shared" si="1"/>
-        <v>41636</v>
-      </c>
-      <c r="B38" s="3">
-        <v>8</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="4">
-        <f t="shared" si="2"/>
-        <v>9.5670498084291218</v>
-      </c>
-      <c r="G38" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="H38" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I38" s="4">
-        <f t="shared" si="4"/>
-        <v>145</v>
-      </c>
-      <c r="J38" s="4">
-        <f t="shared" si="5"/>
-        <v>9.2707535121328259</v>
-      </c>
-      <c r="K38" s="7">
-        <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
-        <f t="shared" si="1"/>
-        <v>41643</v>
-      </c>
-      <c r="B39" s="3">
-        <v>8</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="4">
-        <f t="shared" si="2"/>
-        <v>9.2707535121328259</v>
-      </c>
-      <c r="G39" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="H39" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I39" s="4">
-        <f t="shared" si="4"/>
-        <v>145</v>
-      </c>
-      <c r="J39" s="4">
-        <f t="shared" si="5"/>
-        <v>8.9744572158365301</v>
-      </c>
-      <c r="K39" s="7">
-        <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
-        <f t="shared" si="1"/>
-        <v>41650</v>
-      </c>
-      <c r="B40" s="3">
-        <v>8</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="4">
-        <f t="shared" si="2"/>
-        <v>8.9744572158365301</v>
-      </c>
-      <c r="G40" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="H40" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I40" s="4">
-        <f t="shared" si="4"/>
-        <v>145</v>
-      </c>
-      <c r="J40" s="4">
-        <f t="shared" si="5"/>
-        <v>8.6781609195402343</v>
-      </c>
-      <c r="K40" s="7">
-        <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
-        <f t="shared" si="1"/>
-        <v>41657</v>
-      </c>
-      <c r="B41" s="3">
-        <v>8</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="4">
-        <f t="shared" si="2"/>
-        <v>8.6781609195402343</v>
-      </c>
-      <c r="G41" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="H41" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I41" s="4">
-        <f t="shared" si="4"/>
-        <v>145</v>
-      </c>
-      <c r="J41" s="4">
-        <f t="shared" si="5"/>
-        <v>8.3818646232439384</v>
-      </c>
-      <c r="K41" s="7">
-        <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
-        <f t="shared" si="1"/>
-        <v>41664</v>
-      </c>
-      <c r="B42" s="3">
-        <v>8</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="4">
-        <f t="shared" si="2"/>
-        <v>8.3818646232439384</v>
-      </c>
-      <c r="G42" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="H42" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I42" s="4">
-        <f t="shared" si="4"/>
-        <v>145</v>
-      </c>
-      <c r="J42" s="4">
-        <f t="shared" si="5"/>
-        <v>8.0855683269476426</v>
-      </c>
-      <c r="K42" s="7">
-        <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
-        <f t="shared" si="1"/>
-        <v>41671</v>
-      </c>
-      <c r="B43" s="3">
-        <v>8</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="4">
-        <f t="shared" si="2"/>
-        <v>8.0855683269476426</v>
-      </c>
-      <c r="G43" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="H43" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I43" s="4">
-        <f t="shared" si="4"/>
-        <v>145</v>
-      </c>
-      <c r="J43" s="4">
-        <f t="shared" si="5"/>
-        <v>7.7892720306513468</v>
-      </c>
-      <c r="K43" s="7">
-        <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
-        <f t="shared" si="1"/>
-        <v>41678</v>
-      </c>
-      <c r="B44" s="3">
-        <v>8</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="4">
-        <f t="shared" si="2"/>
-        <v>7.7892720306513468</v>
-      </c>
-      <c r="G44" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="H44" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I44" s="4">
-        <f t="shared" si="4"/>
-        <v>145</v>
-      </c>
-      <c r="J44" s="4">
-        <f t="shared" si="5"/>
-        <v>7.4929757343550509</v>
-      </c>
-      <c r="K44" s="7">
-        <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
-        <f t="shared" si="1"/>
-        <v>41685</v>
-      </c>
-      <c r="B45" s="3">
-        <v>8</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="4">
-        <f t="shared" si="2"/>
-        <v>7.4929757343550509</v>
-      </c>
-      <c r="G45" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="H45" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I45" s="4">
-        <f t="shared" si="4"/>
-        <v>145</v>
-      </c>
-      <c r="J45" s="4">
-        <f t="shared" si="5"/>
-        <v>7.1966794380587551</v>
-      </c>
-      <c r="K45" s="7">
-        <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
-        <f t="shared" si="1"/>
-        <v>41692</v>
-      </c>
-      <c r="B46" s="3">
-        <v>8</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="4">
-        <f t="shared" si="2"/>
-        <v>7.1966794380587551</v>
-      </c>
-      <c r="G46" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="H46" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I46" s="4">
-        <f t="shared" si="4"/>
-        <v>145</v>
-      </c>
-      <c r="J46" s="4">
-        <f t="shared" si="5"/>
-        <v>6.9003831417624593</v>
-      </c>
-      <c r="K46" s="7">
-        <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
-        <f t="shared" si="1"/>
-        <v>41699</v>
-      </c>
-      <c r="B47" s="3">
-        <v>8</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="4">
-        <f t="shared" si="2"/>
-        <v>6.9003831417624593</v>
-      </c>
-      <c r="G47" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="H47" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I47" s="4">
-        <f t="shared" si="4"/>
-        <v>145</v>
-      </c>
-      <c r="J47" s="4">
-        <f t="shared" si="5"/>
-        <v>6.6040868454661634</v>
-      </c>
-      <c r="K47" s="7">
-        <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
-        <f t="shared" si="1"/>
-        <v>41706</v>
-      </c>
-      <c r="B48" s="3">
-        <v>8</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="4">
-        <f t="shared" si="2"/>
-        <v>6.6040868454661634</v>
-      </c>
-      <c r="G48" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="H48" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I48" s="4">
-        <f t="shared" si="4"/>
-        <v>145</v>
-      </c>
-      <c r="J48" s="4">
-        <f t="shared" si="5"/>
-        <v>6.3077905491698676</v>
-      </c>
-      <c r="K48" s="7">
-        <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="8"/>
-      <c r="B49" s="9">
-        <f>SUM(B3:B27)</f>
-        <v>168</v>
-      </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9">
-        <f>AVERAGE(D3:D48)</f>
-        <v>1.25</v>
-      </c>
-      <c r="E49" s="9">
-        <f>AVERAGE(E3:E48)</f>
-        <v>10.357142857142858</v>
-      </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="10"/>
-    </row>
+      <c r="A34" s="8"/>
+      <c r="B34" s="9">
+        <f>SUM(B3:B8)</f>
+        <v>78</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9">
+        <f>AVERAGE(D3:D29)</f>
+        <v>1.5</v>
+      </c>
+      <c r="E34" s="9">
+        <f>AVERAGE(E3:E29)</f>
+        <v>11</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="10"/>
+    </row>
+    <row r="35" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="20.65" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="20.65" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="20.65" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="20.65" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="20.65" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
@@ -3104,7 +2365,9 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="H8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/01_Planning/ProductBurndown.xlsx
+++ b/01_Planning/ProductBurndown.xlsx
@@ -467,52 +467,52 @@
                   <c:v>11.481535380507344</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.201535380507345</c:v>
+                  <c:v>11.061535380507344</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.921535380507345</c:v>
+                  <c:v>10.781535380507345</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.641535380507346</c:v>
+                  <c:v>10.501535380507345</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.361535380507346</c:v>
+                  <c:v>10.221535380507346</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.361535380507346</c:v>
+                  <c:v>10.221535380507346</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.361535380507346</c:v>
+                  <c:v>10.221535380507346</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.081535380507347</c:v>
+                  <c:v>9.9415353805073465</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.8015353805073477</c:v>
+                  <c:v>9.6615353805073472</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.5215353805073484</c:v>
+                  <c:v>9.3815353805073478</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.241535380507349</c:v>
+                  <c:v>9.1015353805073484</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.9615353805073497</c:v>
+                  <c:v>8.8215353805073491</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.6815353805073503</c:v>
+                  <c:v>8.5415353805073497</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.6815353805073503</c:v>
+                  <c:v>8.5415353805073497</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.4015353805073509</c:v>
+                  <c:v>8.2615353805073504</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.1215353805073516</c:v>
+                  <c:v>7.9815353805073501</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.8415353805073513</c:v>
+                  <c:v>7.7015353805073499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -533,11 +533,11 @@
         </c:dLbls>
         <c:gapWidth val="40"/>
         <c:overlap val="-10"/>
-        <c:axId val="146720704"/>
-        <c:axId val="146721488"/>
+        <c:axId val="189724880"/>
+        <c:axId val="189730760"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="146720704"/>
+        <c:axId val="189724880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -576,14 +576,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146721488"/>
+        <c:crossAx val="189730760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="146721488"/>
+        <c:axId val="189730760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -629,7 +629,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146720704"/>
+        <c:crossAx val="189724880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -698,7 +698,7 @@
         <xdr:cNvPr id="2" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -734,7 +734,7 @@
         <xdr:cNvPr id="4" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1123,7 +1123,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" ref="F5:F33" si="6">J10+C11</f>
+        <f t="shared" ref="F11:F33" si="6">J10+C11</f>
         <v>11.901535380507344</v>
       </c>
       <c r="G11" s="4">
@@ -1579,7 +1579,9 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3">
+        <v>12</v>
+      </c>
       <c r="F13" s="4">
         <f t="shared" si="6"/>
         <v>11.901535380507344</v>
@@ -1610,7 +1612,7 @@
         <v>41604</v>
       </c>
       <c r="B14" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1629,11 +1631,11 @@
       </c>
       <c r="I14" s="4">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="4"/>
-        <v>11.201535380507345</v>
+        <v>11.061535380507344</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" si="5"/>
@@ -1652,7 +1654,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="4">
         <f t="shared" si="6"/>
-        <v>11.201535380507345</v>
+        <v>11.061535380507344</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" si="2"/>
@@ -1664,11 +1666,11 @@
       </c>
       <c r="I15" s="4">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="4"/>
-        <v>10.921535380507345</v>
+        <v>10.781535380507345</v>
       </c>
       <c r="K15" s="7">
         <f t="shared" si="5"/>
@@ -1687,7 +1689,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="4">
         <f t="shared" si="6"/>
-        <v>10.921535380507345</v>
+        <v>10.781535380507345</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="2"/>
@@ -1699,11 +1701,11 @@
       </c>
       <c r="I16" s="4">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="4"/>
-        <v>10.641535380507346</v>
+        <v>10.501535380507345</v>
       </c>
       <c r="K16" s="7">
         <f t="shared" si="5"/>
@@ -1722,7 +1724,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="4">
         <f t="shared" si="6"/>
-        <v>10.641535380507346</v>
+        <v>10.501535380507345</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" si="2"/>
@@ -1734,11 +1736,11 @@
       </c>
       <c r="I17" s="4">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="4"/>
-        <v>10.361535380507346</v>
+        <v>10.221535380507346</v>
       </c>
       <c r="K17" s="7">
         <f t="shared" si="5"/>
@@ -1757,7 +1759,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="4">
         <f t="shared" si="6"/>
-        <v>10.361535380507346</v>
+        <v>10.221535380507346</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="2"/>
@@ -1769,11 +1771,11 @@
       </c>
       <c r="I18" s="4">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="4"/>
-        <v>10.361535380507346</v>
+        <v>10.221535380507346</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" si="5"/>
@@ -1792,7 +1794,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="4">
         <f t="shared" si="6"/>
-        <v>10.361535380507346</v>
+        <v>10.221535380507346</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="2"/>
@@ -1804,11 +1806,11 @@
       </c>
       <c r="I19" s="4">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="4"/>
-        <v>10.361535380507346</v>
+        <v>10.221535380507346</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" si="5"/>
@@ -1827,7 +1829,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="4">
         <f t="shared" si="6"/>
-        <v>10.361535380507346</v>
+        <v>10.221535380507346</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="2"/>
@@ -1839,11 +1841,11 @@
       </c>
       <c r="I20" s="4">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="4"/>
-        <v>10.081535380507347</v>
+        <v>9.9415353805073465</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" si="5"/>
@@ -1862,7 +1864,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="4">
         <f t="shared" si="6"/>
-        <v>10.081535380507347</v>
+        <v>9.9415353805073465</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="2"/>
@@ -1874,11 +1876,11 @@
       </c>
       <c r="I21" s="4">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="4"/>
-        <v>9.8015353805073477</v>
+        <v>9.6615353805073472</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" si="5"/>
@@ -1897,7 +1899,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="4">
         <f t="shared" si="6"/>
-        <v>9.8015353805073477</v>
+        <v>9.6615353805073472</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="2"/>
@@ -1909,11 +1911,11 @@
       </c>
       <c r="I22" s="4">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="4"/>
-        <v>9.5215353805073484</v>
+        <v>9.3815353805073478</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" si="5"/>
@@ -1932,7 +1934,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="4">
         <f t="shared" si="6"/>
-        <v>9.5215353805073484</v>
+        <v>9.3815353805073478</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="2"/>
@@ -1944,11 +1946,11 @@
       </c>
       <c r="I23" s="4">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="4"/>
-        <v>9.241535380507349</v>
+        <v>9.1015353805073484</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="5"/>
@@ -1967,7 +1969,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="4">
         <f t="shared" si="6"/>
-        <v>9.241535380507349</v>
+        <v>9.1015353805073484</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="2"/>
@@ -1979,11 +1981,11 @@
       </c>
       <c r="I24" s="4">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="4"/>
-        <v>8.9615353805073497</v>
+        <v>8.8215353805073491</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="5"/>
@@ -2002,7 +2004,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="4">
         <f t="shared" si="6"/>
-        <v>8.9615353805073497</v>
+        <v>8.8215353805073491</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="2"/>
@@ -2014,11 +2016,11 @@
       </c>
       <c r="I25" s="4">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="4"/>
-        <v>8.6815353805073503</v>
+        <v>8.5415353805073497</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="5"/>
@@ -2037,7 +2039,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="4">
         <f t="shared" si="6"/>
-        <v>8.6815353805073503</v>
+        <v>8.5415353805073497</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="2"/>
@@ -2049,11 +2051,11 @@
       </c>
       <c r="I26" s="4">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="4"/>
-        <v>8.6815353805073503</v>
+        <v>8.5415353805073497</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="5"/>
@@ -2072,7 +2074,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="4">
         <f t="shared" si="6"/>
-        <v>8.6815353805073503</v>
+        <v>8.5415353805073497</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="2"/>
@@ -2084,11 +2086,11 @@
       </c>
       <c r="I27" s="4">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="4"/>
-        <v>8.4015353805073509</v>
+        <v>8.2615353805073504</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="5"/>
@@ -2107,7 +2109,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4">
         <f t="shared" si="6"/>
-        <v>8.4015353805073509</v>
+        <v>8.2615353805073504</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="2"/>
@@ -2119,11 +2121,11 @@
       </c>
       <c r="I28" s="4">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="4"/>
-        <v>8.1215353805073516</v>
+        <v>7.9815353805073501</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="5"/>
@@ -2142,7 +2144,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4">
         <f t="shared" si="6"/>
-        <v>8.1215353805073516</v>
+        <v>7.9815353805073501</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="2"/>
@@ -2154,11 +2156,11 @@
       </c>
       <c r="I29" s="4">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="4"/>
-        <v>7.8415353805073513</v>
+        <v>7.7015353805073499</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="5"/>
@@ -2177,7 +2179,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="4">
         <f t="shared" si="6"/>
-        <v>7.8415353805073513</v>
+        <v>7.7015353805073499</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="2"/>
@@ -2189,11 +2191,11 @@
       </c>
       <c r="I30" s="4">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="4"/>
-        <v>7.5615353805073511</v>
+        <v>7.4215353805073496</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="5"/>
@@ -2212,7 +2214,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="4">
         <f t="shared" si="6"/>
-        <v>7.5615353805073511</v>
+        <v>7.4215353805073496</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="2"/>
@@ -2224,11 +2226,11 @@
       </c>
       <c r="I31" s="4">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="4"/>
-        <v>7.2815353805073508</v>
+        <v>7.1415353805073494</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="5"/>
@@ -2247,7 +2249,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4">
         <f t="shared" si="6"/>
-        <v>7.2815353805073508</v>
+        <v>7.1415353805073494</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="2"/>
@@ -2259,11 +2261,11 @@
       </c>
       <c r="I32" s="4">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="4"/>
-        <v>7.0015353805073506</v>
+        <v>6.8615353805073491</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="5"/>
@@ -2282,7 +2284,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4">
         <f t="shared" si="6"/>
-        <v>7.0015353805073506</v>
+        <v>6.8615353805073491</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="2"/>
@@ -2294,11 +2296,11 @@
       </c>
       <c r="I33" s="4">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="J33" s="4">
         <f t="shared" si="4"/>
-        <v>6.7215353805073503</v>
+        <v>6.5815353805073489</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="5"/>
@@ -2318,7 +2320,7 @@
       </c>
       <c r="E34" s="9">
         <f>AVERAGE(E3:E29)</f>
-        <v>11</v>
+        <v>11.090909090909092</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>

--- a/01_Planning/ProductBurndown.xlsx
+++ b/01_Planning/ProductBurndown.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Initial" sheetId="1" r:id="rId1"/>
@@ -1119,11 +1119,11 @@
   </sheetPr>
   <dimension ref="A1:IV53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2367,7 +2367,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>

--- a/01_Planning/ProductBurndown.xlsx
+++ b/01_Planning/ProductBurndown.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Initial" sheetId="1" r:id="rId1"/>
@@ -470,49 +470,49 @@
                   <c:v>11.061535380507344</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.781535380507345</c:v>
+                  <c:v>10.641535380507344</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.501535380507345</c:v>
+                  <c:v>10.361535380507345</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.221535380507346</c:v>
+                  <c:v>10.081535380507345</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.221535380507346</c:v>
+                  <c:v>10.081535380507345</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.221535380507346</c:v>
+                  <c:v>10.081535380507345</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.9415353805073465</c:v>
+                  <c:v>9.801535380507346</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.6615353805073472</c:v>
+                  <c:v>9.5215353805073466</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.3815353805073478</c:v>
+                  <c:v>9.2415353805073472</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.1015353805073484</c:v>
+                  <c:v>8.9615353805073479</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.8215353805073491</c:v>
+                  <c:v>8.6815353805073485</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.5415353805073497</c:v>
+                  <c:v>8.4015353805073492</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.5415353805073497</c:v>
+                  <c:v>8.4015353805073492</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.2615353805073504</c:v>
+                  <c:v>8.1215353805073498</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.9815353805073501</c:v>
+                  <c:v>7.8415353805073496</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.7015353805073499</c:v>
+                  <c:v>7.5615353805073493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -533,11 +533,11 @@
         </c:dLbls>
         <c:gapWidth val="40"/>
         <c:overlap val="-10"/>
-        <c:axId val="189724880"/>
-        <c:axId val="189730760"/>
+        <c:axId val="221771040"/>
+        <c:axId val="221773000"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="189724880"/>
+        <c:axId val="221771040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -576,14 +576,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189730760"/>
+        <c:crossAx val="221773000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="189730760"/>
+        <c:axId val="221773000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -629,7 +629,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189724880"/>
+        <c:crossAx val="221771040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -698,7 +698,7 @@
         <xdr:cNvPr id="2" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -734,7 +734,7 @@
         <xdr:cNvPr id="4" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1119,11 +1119,11 @@
   </sheetPr>
   <dimension ref="A1:IV53"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1616,7 +1616,9 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3">
+        <v>15</v>
+      </c>
       <c r="F14" s="4">
         <f t="shared" si="6"/>
         <v>11.481535380507344</v>
@@ -1647,7 +1649,7 @@
         <v>41611</v>
       </c>
       <c r="B15" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1666,11 +1668,11 @@
       </c>
       <c r="I15" s="4">
         <f t="shared" si="3"/>
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="4"/>
-        <v>10.781535380507345</v>
+        <v>10.641535380507344</v>
       </c>
       <c r="K15" s="7">
         <f t="shared" si="5"/>
@@ -1689,7 +1691,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="4">
         <f t="shared" si="6"/>
-        <v>10.781535380507345</v>
+        <v>10.641535380507344</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="2"/>
@@ -1701,11 +1703,11 @@
       </c>
       <c r="I16" s="4">
         <f t="shared" si="3"/>
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="4"/>
-        <v>10.501535380507345</v>
+        <v>10.361535380507345</v>
       </c>
       <c r="K16" s="7">
         <f t="shared" si="5"/>
@@ -1724,7 +1726,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="4">
         <f t="shared" si="6"/>
-        <v>10.501535380507345</v>
+        <v>10.361535380507345</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" si="2"/>
@@ -1736,11 +1738,11 @@
       </c>
       <c r="I17" s="4">
         <f t="shared" si="3"/>
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="4"/>
-        <v>10.221535380507346</v>
+        <v>10.081535380507345</v>
       </c>
       <c r="K17" s="7">
         <f t="shared" si="5"/>
@@ -1759,7 +1761,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="4">
         <f t="shared" si="6"/>
-        <v>10.221535380507346</v>
+        <v>10.081535380507345</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="2"/>
@@ -1771,11 +1773,11 @@
       </c>
       <c r="I18" s="4">
         <f t="shared" si="3"/>
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="4"/>
-        <v>10.221535380507346</v>
+        <v>10.081535380507345</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" si="5"/>
@@ -1794,7 +1796,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="4">
         <f t="shared" si="6"/>
-        <v>10.221535380507346</v>
+        <v>10.081535380507345</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="2"/>
@@ -1806,11 +1808,11 @@
       </c>
       <c r="I19" s="4">
         <f t="shared" si="3"/>
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="4"/>
-        <v>10.221535380507346</v>
+        <v>10.081535380507345</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" si="5"/>
@@ -1829,7 +1831,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="4">
         <f t="shared" si="6"/>
-        <v>10.221535380507346</v>
+        <v>10.081535380507345</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="2"/>
@@ -1841,11 +1843,11 @@
       </c>
       <c r="I20" s="4">
         <f t="shared" si="3"/>
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="4"/>
-        <v>9.9415353805073465</v>
+        <v>9.801535380507346</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" si="5"/>
@@ -1864,7 +1866,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="4">
         <f t="shared" si="6"/>
-        <v>9.9415353805073465</v>
+        <v>9.801535380507346</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="2"/>
@@ -1876,11 +1878,11 @@
       </c>
       <c r="I21" s="4">
         <f t="shared" si="3"/>
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="4"/>
-        <v>9.6615353805073472</v>
+        <v>9.5215353805073466</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" si="5"/>
@@ -1899,7 +1901,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="4">
         <f t="shared" si="6"/>
-        <v>9.6615353805073472</v>
+        <v>9.5215353805073466</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="2"/>
@@ -1911,11 +1913,11 @@
       </c>
       <c r="I22" s="4">
         <f t="shared" si="3"/>
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="4"/>
-        <v>9.3815353805073478</v>
+        <v>9.2415353805073472</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" si="5"/>
@@ -1934,7 +1936,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="4">
         <f t="shared" si="6"/>
-        <v>9.3815353805073478</v>
+        <v>9.2415353805073472</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="2"/>
@@ -1946,11 +1948,11 @@
       </c>
       <c r="I23" s="4">
         <f t="shared" si="3"/>
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="4"/>
-        <v>9.1015353805073484</v>
+        <v>8.9615353805073479</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="5"/>
@@ -1969,7 +1971,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="4">
         <f t="shared" si="6"/>
-        <v>9.1015353805073484</v>
+        <v>8.9615353805073479</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="2"/>
@@ -1981,11 +1983,11 @@
       </c>
       <c r="I24" s="4">
         <f t="shared" si="3"/>
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="4"/>
-        <v>8.8215353805073491</v>
+        <v>8.6815353805073485</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="5"/>
@@ -2004,7 +2006,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="4">
         <f t="shared" si="6"/>
-        <v>8.8215353805073491</v>
+        <v>8.6815353805073485</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="2"/>
@@ -2016,11 +2018,11 @@
       </c>
       <c r="I25" s="4">
         <f t="shared" si="3"/>
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="4"/>
-        <v>8.5415353805073497</v>
+        <v>8.4015353805073492</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="5"/>
@@ -2039,7 +2041,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="4">
         <f t="shared" si="6"/>
-        <v>8.5415353805073497</v>
+        <v>8.4015353805073492</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="2"/>
@@ -2051,11 +2053,11 @@
       </c>
       <c r="I26" s="4">
         <f t="shared" si="3"/>
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="4"/>
-        <v>8.5415353805073497</v>
+        <v>8.4015353805073492</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="5"/>
@@ -2074,7 +2076,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="4">
         <f t="shared" si="6"/>
-        <v>8.5415353805073497</v>
+        <v>8.4015353805073492</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="2"/>
@@ -2086,11 +2088,11 @@
       </c>
       <c r="I27" s="4">
         <f t="shared" si="3"/>
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="4"/>
-        <v>8.2615353805073504</v>
+        <v>8.1215353805073498</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="5"/>
@@ -2109,7 +2111,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4">
         <f t="shared" si="6"/>
-        <v>8.2615353805073504</v>
+        <v>8.1215353805073498</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="2"/>
@@ -2121,11 +2123,11 @@
       </c>
       <c r="I28" s="4">
         <f t="shared" si="3"/>
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="4"/>
-        <v>7.9815353805073501</v>
+        <v>7.8415353805073496</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="5"/>
@@ -2144,7 +2146,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4">
         <f t="shared" si="6"/>
-        <v>7.9815353805073501</v>
+        <v>7.8415353805073496</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="2"/>
@@ -2156,11 +2158,11 @@
       </c>
       <c r="I29" s="4">
         <f t="shared" si="3"/>
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="4"/>
-        <v>7.7015353805073499</v>
+        <v>7.5615353805073493</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="5"/>
@@ -2179,7 +2181,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="4">
         <f t="shared" si="6"/>
-        <v>7.7015353805073499</v>
+        <v>7.5615353805073493</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="2"/>
@@ -2191,11 +2193,11 @@
       </c>
       <c r="I30" s="4">
         <f t="shared" si="3"/>
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="4"/>
-        <v>7.4215353805073496</v>
+        <v>7.2815353805073491</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="5"/>
@@ -2214,7 +2216,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="4">
         <f t="shared" si="6"/>
-        <v>7.4215353805073496</v>
+        <v>7.2815353805073491</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="2"/>
@@ -2226,11 +2228,11 @@
       </c>
       <c r="I31" s="4">
         <f t="shared" si="3"/>
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="4"/>
-        <v>7.1415353805073494</v>
+        <v>7.0015353805073488</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="5"/>
@@ -2249,7 +2251,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4">
         <f t="shared" si="6"/>
-        <v>7.1415353805073494</v>
+        <v>7.0015353805073488</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="2"/>
@@ -2261,11 +2263,11 @@
       </c>
       <c r="I32" s="4">
         <f t="shared" si="3"/>
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="4"/>
-        <v>6.8615353805073491</v>
+        <v>6.7215353805073486</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="5"/>
@@ -2284,7 +2286,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4">
         <f t="shared" si="6"/>
-        <v>6.8615353805073491</v>
+        <v>6.7215353805073486</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="2"/>
@@ -2296,11 +2298,11 @@
       </c>
       <c r="I33" s="4">
         <f t="shared" si="3"/>
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="J33" s="4">
         <f t="shared" si="4"/>
-        <v>6.5815353805073489</v>
+        <v>6.4415353805073483</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="5"/>
@@ -2320,7 +2322,7 @@
       </c>
       <c r="E34" s="9">
         <f>AVERAGE(E3:E29)</f>
-        <v>11.090909090909092</v>
+        <v>11.416666666666666</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
@@ -2367,7 +2369,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="H8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>

--- a/01_Planning/ProductBurndown.xlsx
+++ b/01_Planning/ProductBurndown.xlsx
@@ -470,49 +470,49 @@
                   <c:v>11.061535380507344</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.641535380507344</c:v>
+                  <c:v>5.061535380507344</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.361535380507345</c:v>
+                  <c:v>4.6263889369926998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.081535380507345</c:v>
+                  <c:v>4.1912424934780557</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.081535380507345</c:v>
+                  <c:v>4.1912424934780557</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.081535380507345</c:v>
+                  <c:v>4.1912424934780557</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.801535380507346</c:v>
+                  <c:v>3.7560960499634115</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.5215353805073466</c:v>
+                  <c:v>3.3209496064487674</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.2415353805073472</c:v>
+                  <c:v>2.8858031629341232</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.9615353805073479</c:v>
+                  <c:v>2.450656719419479</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.6815353805073485</c:v>
+                  <c:v>2.0155102759048349</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.4015353805073492</c:v>
+                  <c:v>1.5803638323901905</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.4015353805073492</c:v>
+                  <c:v>1.5803638323901905</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.1215353805073498</c:v>
+                  <c:v>1.1452173888755461</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.8415353805073496</c:v>
+                  <c:v>0.71007094536090176</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.5615353805073493</c:v>
+                  <c:v>0.27492450184625739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -533,11 +533,11 @@
         </c:dLbls>
         <c:gapWidth val="40"/>
         <c:overlap val="-10"/>
-        <c:axId val="221771040"/>
-        <c:axId val="221773000"/>
+        <c:axId val="227378928"/>
+        <c:axId val="227377360"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="221771040"/>
+        <c:axId val="227378928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -576,14 +576,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221773000"/>
+        <c:crossAx val="227377360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="221773000"/>
+        <c:axId val="227377360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -629,7 +629,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221771040"/>
+        <c:crossAx val="227378928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -698,7 +698,7 @@
         <xdr:cNvPr id="2" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -734,7 +734,7 @@
         <xdr:cNvPr id="4" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1123,7 +1123,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1652,8 +1652,12 @@
         <v>12</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="D15" s="3">
+        <v>6</v>
+      </c>
+      <c r="E15" s="3">
+        <v>12</v>
+      </c>
       <c r="F15" s="4">
         <f t="shared" si="6"/>
         <v>11.061535380507344</v>
@@ -1664,7 +1668,7 @@
       </c>
       <c r="H15" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="3"/>
@@ -1672,11 +1676,11 @@
       </c>
       <c r="J15" s="4">
         <f t="shared" si="4"/>
-        <v>10.641535380507344</v>
+        <v>5.061535380507344</v>
       </c>
       <c r="K15" s="7">
         <f t="shared" si="5"/>
-        <v>3.5000000000000003E-2</v>
+        <v>5.4393305439330547E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1691,27 +1695,27 @@
       <c r="E16" s="3"/>
       <c r="F16" s="4">
         <f t="shared" si="6"/>
-        <v>10.641535380507344</v>
+        <v>5.061535380507344</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="3"/>
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="4"/>
-        <v>10.361535380507345</v>
+        <v>4.6263889369926998</v>
       </c>
       <c r="K16" s="7">
         <f t="shared" si="5"/>
-        <v>3.5000000000000003E-2</v>
+        <v>5.4393305439330547E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1726,27 +1730,27 @@
       <c r="E17" s="3"/>
       <c r="F17" s="4">
         <f t="shared" si="6"/>
-        <v>10.361535380507345</v>
+        <v>4.6263889369926998</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H17" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="3"/>
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="4"/>
-        <v>10.081535380507345</v>
+        <v>4.1912424934780557</v>
       </c>
       <c r="K17" s="7">
         <f t="shared" si="5"/>
-        <v>3.5000000000000003E-2</v>
+        <v>5.4393305439330547E-2</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1761,27 +1765,27 @@
       <c r="E18" s="3"/>
       <c r="F18" s="4">
         <f t="shared" si="6"/>
-        <v>10.081535380507345</v>
+        <v>4.1912424934780557</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H18" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="3"/>
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="4"/>
-        <v>10.081535380507345</v>
+        <v>4.1912424934780557</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" si="5"/>
-        <v>3.5000000000000003E-2</v>
+        <v>5.4393305439330547E-2</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1796,27 +1800,27 @@
       <c r="E19" s="3"/>
       <c r="F19" s="4">
         <f t="shared" si="6"/>
-        <v>10.081535380507345</v>
+        <v>4.1912424934780557</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H19" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="3"/>
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="4"/>
-        <v>10.081535380507345</v>
+        <v>4.1912424934780557</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" si="5"/>
-        <v>3.5000000000000003E-2</v>
+        <v>5.4393305439330547E-2</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1831,27 +1835,27 @@
       <c r="E20" s="3"/>
       <c r="F20" s="4">
         <f t="shared" si="6"/>
-        <v>10.081535380507345</v>
+        <v>4.1912424934780557</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H20" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I20" s="4">
         <f t="shared" si="3"/>
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="4"/>
-        <v>9.801535380507346</v>
+        <v>3.7560960499634115</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" si="5"/>
-        <v>3.5000000000000003E-2</v>
+        <v>5.4393305439330547E-2</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1866,27 +1870,27 @@
       <c r="E21" s="3"/>
       <c r="F21" s="4">
         <f t="shared" si="6"/>
-        <v>9.801535380507346</v>
+        <v>3.7560960499634115</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H21" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I21" s="4">
         <f t="shared" si="3"/>
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="4"/>
-        <v>9.5215353805073466</v>
+        <v>3.3209496064487674</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" si="5"/>
-        <v>3.5000000000000003E-2</v>
+        <v>5.4393305439330547E-2</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1901,27 +1905,27 @@
       <c r="E22" s="3"/>
       <c r="F22" s="4">
         <f t="shared" si="6"/>
-        <v>9.5215353805073466</v>
+        <v>3.3209496064487674</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H22" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I22" s="4">
         <f t="shared" si="3"/>
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="4"/>
-        <v>9.2415353805073472</v>
+        <v>2.8858031629341232</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" si="5"/>
-        <v>3.5000000000000003E-2</v>
+        <v>5.4393305439330547E-2</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1936,27 +1940,27 @@
       <c r="E23" s="3"/>
       <c r="F23" s="4">
         <f t="shared" si="6"/>
-        <v>9.2415353805073472</v>
+        <v>2.8858031629341232</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H23" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I23" s="4">
         <f t="shared" si="3"/>
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="4"/>
-        <v>8.9615353805073479</v>
+        <v>2.450656719419479</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="5"/>
-        <v>3.5000000000000003E-2</v>
+        <v>5.4393305439330547E-2</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1971,27 +1975,27 @@
       <c r="E24" s="3"/>
       <c r="F24" s="4">
         <f t="shared" si="6"/>
-        <v>8.9615353805073479</v>
+        <v>2.450656719419479</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H24" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I24" s="4">
         <f t="shared" si="3"/>
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="4"/>
-        <v>8.6815353805073485</v>
+        <v>2.0155102759048349</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="5"/>
-        <v>3.5000000000000003E-2</v>
+        <v>5.4393305439330547E-2</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2006,27 +2010,27 @@
       <c r="E25" s="3"/>
       <c r="F25" s="4">
         <f t="shared" si="6"/>
-        <v>8.6815353805073485</v>
+        <v>2.0155102759048349</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H25" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I25" s="4">
         <f t="shared" si="3"/>
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="4"/>
-        <v>8.4015353805073492</v>
+        <v>1.5803638323901905</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="5"/>
-        <v>3.5000000000000003E-2</v>
+        <v>5.4393305439330547E-2</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2041,27 +2045,27 @@
       <c r="E26" s="3"/>
       <c r="F26" s="4">
         <f t="shared" si="6"/>
-        <v>8.4015353805073492</v>
+        <v>1.5803638323901905</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H26" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I26" s="4">
         <f t="shared" si="3"/>
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="4"/>
-        <v>8.4015353805073492</v>
+        <v>1.5803638323901905</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="5"/>
-        <v>3.5000000000000003E-2</v>
+        <v>5.4393305439330547E-2</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2076,27 +2080,27 @@
       <c r="E27" s="3"/>
       <c r="F27" s="4">
         <f t="shared" si="6"/>
-        <v>8.4015353805073492</v>
+        <v>1.5803638323901905</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H27" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I27" s="4">
         <f t="shared" si="3"/>
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="4"/>
-        <v>8.1215353805073498</v>
+        <v>1.1452173888755461</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="5"/>
-        <v>3.5000000000000003E-2</v>
+        <v>5.4393305439330547E-2</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2111,27 +2115,27 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4">
         <f t="shared" si="6"/>
-        <v>8.1215353805073498</v>
+        <v>1.1452173888755461</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H28" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I28" s="4">
         <f t="shared" si="3"/>
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="4"/>
-        <v>7.8415353805073496</v>
+        <v>0.71007094536090176</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="5"/>
-        <v>3.5000000000000003E-2</v>
+        <v>5.4393305439330547E-2</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2146,27 +2150,27 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4">
         <f t="shared" si="6"/>
-        <v>7.8415353805073496</v>
+        <v>0.71007094536090176</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H29" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I29" s="4">
         <f t="shared" si="3"/>
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="4"/>
-        <v>7.5615353805073493</v>
+        <v>0.27492450184625739</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="5"/>
-        <v>3.5000000000000003E-2</v>
+        <v>5.4393305439330547E-2</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2181,27 +2185,27 @@
       <c r="E30" s="3"/>
       <c r="F30" s="4">
         <f t="shared" si="6"/>
-        <v>7.5615353805073493</v>
+        <v>0.27492450184625739</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H30" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I30" s="4">
         <f t="shared" si="3"/>
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="4"/>
-        <v>7.2815353805073491</v>
+        <v>0</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="5"/>
-        <v>3.5000000000000003E-2</v>
+        <v>5.4393305439330547E-2</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2216,27 +2220,27 @@
       <c r="E31" s="3"/>
       <c r="F31" s="4">
         <f t="shared" si="6"/>
-        <v>7.2815353805073491</v>
+        <v>0</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H31" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I31" s="4">
         <f t="shared" si="3"/>
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="4"/>
-        <v>7.0015353805073488</v>
+        <v>0</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="5"/>
-        <v>3.5000000000000003E-2</v>
+        <v>5.4393305439330547E-2</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2251,27 +2255,27 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4">
         <f t="shared" si="6"/>
-        <v>7.0015353805073488</v>
+        <v>0</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H32" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I32" s="4">
         <f t="shared" si="3"/>
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="4"/>
-        <v>6.7215353805073486</v>
+        <v>0</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="5"/>
-        <v>3.5000000000000003E-2</v>
+        <v>5.4393305439330547E-2</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2286,27 +2290,27 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4">
         <f t="shared" si="6"/>
-        <v>6.7215353805073486</v>
+        <v>0</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H33" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I33" s="4">
         <f t="shared" si="3"/>
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="J33" s="4">
         <f t="shared" si="4"/>
-        <v>6.4415353805073483</v>
+        <v>0</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="5"/>
-        <v>3.5000000000000003E-2</v>
+        <v>5.4393305439330547E-2</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2318,11 +2322,11 @@
       <c r="C34" s="9"/>
       <c r="D34" s="9">
         <f>AVERAGE(D3:D29)</f>
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="E34" s="9">
         <f>AVERAGE(E3:E29)</f>
-        <v>11.416666666666666</v>
+        <v>11.461538461538462</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>

--- a/01_Planning/ProductBurndown.xlsx
+++ b/01_Planning/ProductBurndown.xlsx
@@ -473,46 +473,46 @@
                   <c:v>5.061535380507344</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.6263889369926998</c:v>
+                  <c:v>6.4088157152353773</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.1912424934780557</c:v>
+                  <c:v>5.9736692717207331</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.1912424934780557</c:v>
+                  <c:v>5.9736692717207331</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.1912424934780557</c:v>
+                  <c:v>5.9736692717207331</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.7560960499634115</c:v>
+                  <c:v>5.538522828206089</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.3209496064487674</c:v>
+                  <c:v>5.1033763846914448</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.8858031629341232</c:v>
+                  <c:v>4.6682299411768007</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.450656719419479</c:v>
+                  <c:v>4.2330834976621565</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0155102759048349</c:v>
+                  <c:v>3.7979370541475124</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.5803638323901905</c:v>
+                  <c:v>3.3627906106328682</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.5803638323901905</c:v>
+                  <c:v>3.3627906106328682</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.1452173888755461</c:v>
+                  <c:v>2.9276441671182241</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.71007094536090176</c:v>
+                  <c:v>2.4924977236035799</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.27492450184625739</c:v>
+                  <c:v>2.0573512800889358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -533,11 +533,11 @@
         </c:dLbls>
         <c:gapWidth val="40"/>
         <c:overlap val="-10"/>
-        <c:axId val="227378928"/>
-        <c:axId val="227377360"/>
+        <c:axId val="212577112"/>
+        <c:axId val="212576328"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="227378928"/>
+        <c:axId val="212577112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -576,14 +576,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227377360"/>
+        <c:crossAx val="212576328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="227377360"/>
+        <c:axId val="212576328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -629,7 +629,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227378928"/>
+        <c:crossAx val="212577112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -1120,10 +1120,10 @@
   <dimension ref="A1:IV53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N17" sqref="N17"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1688,14 +1688,16 @@
         <v>41618</v>
       </c>
       <c r="B16" s="3">
-        <v>8</v>
-      </c>
-      <c r="C16" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="4">
         <f t="shared" si="6"/>
-        <v>5.061535380507344</v>
+        <v>7.061535380507344</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="2"/>
@@ -1711,7 +1713,7 @@
       </c>
       <c r="J16" s="4">
         <f t="shared" si="4"/>
-        <v>4.6263889369926998</v>
+        <v>6.4088157152353773</v>
       </c>
       <c r="K16" s="7">
         <f t="shared" si="5"/>
@@ -1730,7 +1732,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="4">
         <f t="shared" si="6"/>
-        <v>4.6263889369926998</v>
+        <v>6.4088157152353773</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" si="2"/>
@@ -1746,7 +1748,7 @@
       </c>
       <c r="J17" s="4">
         <f t="shared" si="4"/>
-        <v>4.1912424934780557</v>
+        <v>5.9736692717207331</v>
       </c>
       <c r="K17" s="7">
         <f t="shared" si="5"/>
@@ -1765,7 +1767,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="4">
         <f t="shared" si="6"/>
-        <v>4.1912424934780557</v>
+        <v>5.9736692717207331</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="2"/>
@@ -1781,7 +1783,7 @@
       </c>
       <c r="J18" s="4">
         <f t="shared" si="4"/>
-        <v>4.1912424934780557</v>
+        <v>5.9736692717207331</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" si="5"/>
@@ -1800,7 +1802,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="4">
         <f t="shared" si="6"/>
-        <v>4.1912424934780557</v>
+        <v>5.9736692717207331</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="2"/>
@@ -1816,7 +1818,7 @@
       </c>
       <c r="J19" s="4">
         <f t="shared" si="4"/>
-        <v>4.1912424934780557</v>
+        <v>5.9736692717207331</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" si="5"/>
@@ -1835,7 +1837,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="4">
         <f t="shared" si="6"/>
-        <v>4.1912424934780557</v>
+        <v>5.9736692717207331</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="2"/>
@@ -1851,7 +1853,7 @@
       </c>
       <c r="J20" s="4">
         <f t="shared" si="4"/>
-        <v>3.7560960499634115</v>
+        <v>5.538522828206089</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" si="5"/>
@@ -1870,7 +1872,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="4">
         <f t="shared" si="6"/>
-        <v>3.7560960499634115</v>
+        <v>5.538522828206089</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="2"/>
@@ -1886,7 +1888,7 @@
       </c>
       <c r="J21" s="4">
         <f t="shared" si="4"/>
-        <v>3.3209496064487674</v>
+        <v>5.1033763846914448</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" si="5"/>
@@ -1905,7 +1907,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="4">
         <f t="shared" si="6"/>
-        <v>3.3209496064487674</v>
+        <v>5.1033763846914448</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="2"/>
@@ -1921,7 +1923,7 @@
       </c>
       <c r="J22" s="4">
         <f t="shared" si="4"/>
-        <v>2.8858031629341232</v>
+        <v>4.6682299411768007</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" si="5"/>
@@ -1940,7 +1942,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="4">
         <f t="shared" si="6"/>
-        <v>2.8858031629341232</v>
+        <v>4.6682299411768007</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="2"/>
@@ -1956,7 +1958,7 @@
       </c>
       <c r="J23" s="4">
         <f t="shared" si="4"/>
-        <v>2.450656719419479</v>
+        <v>4.2330834976621565</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="5"/>
@@ -1975,7 +1977,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="4">
         <f t="shared" si="6"/>
-        <v>2.450656719419479</v>
+        <v>4.2330834976621565</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="2"/>
@@ -1991,7 +1993,7 @@
       </c>
       <c r="J24" s="4">
         <f t="shared" si="4"/>
-        <v>2.0155102759048349</v>
+        <v>3.7979370541475124</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="5"/>
@@ -2010,7 +2012,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="4">
         <f t="shared" si="6"/>
-        <v>2.0155102759048349</v>
+        <v>3.7979370541475124</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="2"/>
@@ -2026,7 +2028,7 @@
       </c>
       <c r="J25" s="4">
         <f t="shared" si="4"/>
-        <v>1.5803638323901905</v>
+        <v>3.3627906106328682</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="5"/>
@@ -2045,7 +2047,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="4">
         <f t="shared" si="6"/>
-        <v>1.5803638323901905</v>
+        <v>3.3627906106328682</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="2"/>
@@ -2061,7 +2063,7 @@
       </c>
       <c r="J26" s="4">
         <f t="shared" si="4"/>
-        <v>1.5803638323901905</v>
+        <v>3.3627906106328682</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="5"/>
@@ -2080,7 +2082,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="4">
         <f t="shared" si="6"/>
-        <v>1.5803638323901905</v>
+        <v>3.3627906106328682</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="2"/>
@@ -2096,7 +2098,7 @@
       </c>
       <c r="J27" s="4">
         <f t="shared" si="4"/>
-        <v>1.1452173888755461</v>
+        <v>2.9276441671182241</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="5"/>
@@ -2115,7 +2117,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4">
         <f t="shared" si="6"/>
-        <v>1.1452173888755461</v>
+        <v>2.9276441671182241</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="2"/>
@@ -2131,7 +2133,7 @@
       </c>
       <c r="J28" s="4">
         <f t="shared" si="4"/>
-        <v>0.71007094536090176</v>
+        <v>2.4924977236035799</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="5"/>
@@ -2150,7 +2152,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4">
         <f t="shared" si="6"/>
-        <v>0.71007094536090176</v>
+        <v>2.4924977236035799</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="2"/>
@@ -2166,7 +2168,7 @@
       </c>
       <c r="J29" s="4">
         <f t="shared" si="4"/>
-        <v>0.27492450184625739</v>
+        <v>2.0573512800889358</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="5"/>
@@ -2185,7 +2187,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="4">
         <f t="shared" si="6"/>
-        <v>0.27492450184625739</v>
+        <v>2.0573512800889358</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="2"/>
@@ -2201,7 +2203,7 @@
       </c>
       <c r="J30" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.6222048365742914</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="5"/>
@@ -2220,7 +2222,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.6222048365742914</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="2"/>
@@ -2236,7 +2238,7 @@
       </c>
       <c r="J31" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.187058393059647</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="5"/>
@@ -2255,7 +2257,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.187058393059647</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="2"/>
@@ -2271,7 +2273,7 @@
       </c>
       <c r="J32" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.75191194954500262</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="5"/>
@@ -2290,7 +2292,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.75191194954500262</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="2"/>
@@ -2306,7 +2308,7 @@
       </c>
       <c r="J33" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.31676550603035825</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="5"/>

--- a/01_Planning/ProductBurndown.xlsx
+++ b/01_Planning/ProductBurndown.xlsx
@@ -476,43 +476,43 @@
                   <c:v>6.4088157152353773</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.9736692717207331</c:v>
+                  <c:v>6.1912424934780548</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.9736692717207331</c:v>
+                  <c:v>6.1912424934780548</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.9736692717207331</c:v>
+                  <c:v>6.1912424934780548</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.538522828206089</c:v>
+                  <c:v>5.7560960499634106</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.1033763846914448</c:v>
+                  <c:v>5.3209496064487665</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.6682299411768007</c:v>
+                  <c:v>4.8858031629341223</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.2330834976621565</c:v>
+                  <c:v>4.4506567194194782</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.7979370541475124</c:v>
+                  <c:v>4.015510275904834</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.3627906106328682</c:v>
+                  <c:v>3.5803638323901898</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.3627906106328682</c:v>
+                  <c:v>3.5803638323901898</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.9276441671182241</c:v>
+                  <c:v>3.1452173888755457</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.4924977236035799</c:v>
+                  <c:v>2.7100709453609015</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.0573512800889358</c:v>
+                  <c:v>2.2749245018462574</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -533,11 +533,11 @@
         </c:dLbls>
         <c:gapWidth val="40"/>
         <c:overlap val="-10"/>
-        <c:axId val="212577112"/>
-        <c:axId val="212576328"/>
+        <c:axId val="187867904"/>
+        <c:axId val="187864376"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="212577112"/>
+        <c:axId val="187867904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -576,14 +576,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212576328"/>
+        <c:crossAx val="187864376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="212576328"/>
+        <c:axId val="187864376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -629,7 +629,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212577112"/>
+        <c:crossAx val="187867904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -698,7 +698,7 @@
         <xdr:cNvPr id="2" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -734,7 +734,7 @@
         <xdr:cNvPr id="4" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1123,7 +1123,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1694,7 +1694,9 @@
         <v>2</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3">
+        <v>12</v>
+      </c>
       <c r="F16" s="4">
         <f t="shared" si="6"/>
         <v>7.061535380507344</v>
@@ -1725,7 +1727,7 @@
         <v>41625</v>
       </c>
       <c r="B17" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1744,11 +1746,11 @@
       </c>
       <c r="I17" s="4">
         <f t="shared" si="3"/>
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="4"/>
-        <v>5.9736692717207331</v>
+        <v>6.1912424934780548</v>
       </c>
       <c r="K17" s="7">
         <f t="shared" si="5"/>
@@ -1767,7 +1769,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="4">
         <f t="shared" si="6"/>
-        <v>5.9736692717207331</v>
+        <v>6.1912424934780548</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="2"/>
@@ -1779,11 +1781,11 @@
       </c>
       <c r="I18" s="4">
         <f t="shared" si="3"/>
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="4"/>
-        <v>5.9736692717207331</v>
+        <v>6.1912424934780548</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" si="5"/>
@@ -1802,7 +1804,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="4">
         <f t="shared" si="6"/>
-        <v>5.9736692717207331</v>
+        <v>6.1912424934780548</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="2"/>
@@ -1814,11 +1816,11 @@
       </c>
       <c r="I19" s="4">
         <f t="shared" si="3"/>
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="4"/>
-        <v>5.9736692717207331</v>
+        <v>6.1912424934780548</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" si="5"/>
@@ -1837,7 +1839,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="4">
         <f t="shared" si="6"/>
-        <v>5.9736692717207331</v>
+        <v>6.1912424934780548</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="2"/>
@@ -1849,11 +1851,11 @@
       </c>
       <c r="I20" s="4">
         <f t="shared" si="3"/>
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="4"/>
-        <v>5.538522828206089</v>
+        <v>5.7560960499634106</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" si="5"/>
@@ -1872,7 +1874,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="4">
         <f t="shared" si="6"/>
-        <v>5.538522828206089</v>
+        <v>5.7560960499634106</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="2"/>
@@ -1884,11 +1886,11 @@
       </c>
       <c r="I21" s="4">
         <f t="shared" si="3"/>
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="4"/>
-        <v>5.1033763846914448</v>
+        <v>5.3209496064487665</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" si="5"/>
@@ -1907,7 +1909,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="4">
         <f t="shared" si="6"/>
-        <v>5.1033763846914448</v>
+        <v>5.3209496064487665</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="2"/>
@@ -1919,11 +1921,11 @@
       </c>
       <c r="I22" s="4">
         <f t="shared" si="3"/>
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="4"/>
-        <v>4.6682299411768007</v>
+        <v>4.8858031629341223</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" si="5"/>
@@ -1942,7 +1944,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="4">
         <f t="shared" si="6"/>
-        <v>4.6682299411768007</v>
+        <v>4.8858031629341223</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="2"/>
@@ -1954,11 +1956,11 @@
       </c>
       <c r="I23" s="4">
         <f t="shared" si="3"/>
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="4"/>
-        <v>4.2330834976621565</v>
+        <v>4.4506567194194782</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="5"/>
@@ -1977,7 +1979,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="4">
         <f t="shared" si="6"/>
-        <v>4.2330834976621565</v>
+        <v>4.4506567194194782</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="2"/>
@@ -1989,11 +1991,11 @@
       </c>
       <c r="I24" s="4">
         <f t="shared" si="3"/>
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="4"/>
-        <v>3.7979370541475124</v>
+        <v>4.015510275904834</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="5"/>
@@ -2012,7 +2014,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="4">
         <f t="shared" si="6"/>
-        <v>3.7979370541475124</v>
+        <v>4.015510275904834</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="2"/>
@@ -2024,11 +2026,11 @@
       </c>
       <c r="I25" s="4">
         <f t="shared" si="3"/>
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="4"/>
-        <v>3.3627906106328682</v>
+        <v>3.5803638323901898</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="5"/>
@@ -2047,7 +2049,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="4">
         <f t="shared" si="6"/>
-        <v>3.3627906106328682</v>
+        <v>3.5803638323901898</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="2"/>
@@ -2059,11 +2061,11 @@
       </c>
       <c r="I26" s="4">
         <f t="shared" si="3"/>
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="4"/>
-        <v>3.3627906106328682</v>
+        <v>3.5803638323901898</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="5"/>
@@ -2082,7 +2084,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="4">
         <f t="shared" si="6"/>
-        <v>3.3627906106328682</v>
+        <v>3.5803638323901898</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="2"/>
@@ -2094,11 +2096,11 @@
       </c>
       <c r="I27" s="4">
         <f t="shared" si="3"/>
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="4"/>
-        <v>2.9276441671182241</v>
+        <v>3.1452173888755457</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="5"/>
@@ -2117,7 +2119,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4">
         <f t="shared" si="6"/>
-        <v>2.9276441671182241</v>
+        <v>3.1452173888755457</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="2"/>
@@ -2129,11 +2131,11 @@
       </c>
       <c r="I28" s="4">
         <f t="shared" si="3"/>
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="4"/>
-        <v>2.4924977236035799</v>
+        <v>2.7100709453609015</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="5"/>
@@ -2152,7 +2154,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4">
         <f t="shared" si="6"/>
-        <v>2.4924977236035799</v>
+        <v>2.7100709453609015</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="2"/>
@@ -2164,11 +2166,11 @@
       </c>
       <c r="I29" s="4">
         <f t="shared" si="3"/>
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="4"/>
-        <v>2.0573512800889358</v>
+        <v>2.2749245018462574</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="5"/>
@@ -2187,7 +2189,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="4">
         <f t="shared" si="6"/>
-        <v>2.0573512800889358</v>
+        <v>2.2749245018462574</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="2"/>
@@ -2199,11 +2201,11 @@
       </c>
       <c r="I30" s="4">
         <f t="shared" si="3"/>
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="4"/>
-        <v>1.6222048365742914</v>
+        <v>1.839778058331613</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="5"/>
@@ -2222,7 +2224,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="4">
         <f t="shared" si="6"/>
-        <v>1.6222048365742914</v>
+        <v>1.839778058331613</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="2"/>
@@ -2234,11 +2236,11 @@
       </c>
       <c r="I31" s="4">
         <f t="shared" si="3"/>
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="4"/>
-        <v>1.187058393059647</v>
+        <v>1.4046316148169686</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="5"/>
@@ -2257,7 +2259,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4">
         <f t="shared" si="6"/>
-        <v>1.187058393059647</v>
+        <v>1.4046316148169686</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="2"/>
@@ -2269,11 +2271,11 @@
       </c>
       <c r="I32" s="4">
         <f t="shared" si="3"/>
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="4"/>
-        <v>0.75191194954500262</v>
+        <v>0.96948517130232426</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="5"/>
@@ -2292,7 +2294,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4">
         <f t="shared" si="6"/>
-        <v>0.75191194954500262</v>
+        <v>0.96948517130232426</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="2"/>
@@ -2304,11 +2306,11 @@
       </c>
       <c r="I33" s="4">
         <f t="shared" si="3"/>
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="J33" s="4">
         <f t="shared" si="4"/>
-        <v>0.31676550603035825</v>
+        <v>0.53433872778767988</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="5"/>
@@ -2328,7 +2330,7 @@
       </c>
       <c r="E34" s="9">
         <f>AVERAGE(E3:E29)</f>
-        <v>11.461538461538462</v>
+        <v>11.5</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>

--- a/01_Planning/ProductBurndown.xlsx
+++ b/01_Planning/ProductBurndown.xlsx
@@ -485,34 +485,34 @@
                   <c:v>6.1912424934780548</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.7560960499634106</c:v>
+                  <c:v>5.4841295227667572</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.3209496064487665</c:v>
+                  <c:v>5.0489830792521131</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.8858031629341223</c:v>
+                  <c:v>4.6138366357374689</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.4506567194194782</c:v>
+                  <c:v>4.1786901922228248</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.015510275904834</c:v>
+                  <c:v>3.7435437487081806</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.5803638323901898</c:v>
+                  <c:v>3.3083973051935365</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.5803638323901898</c:v>
+                  <c:v>3.3083973051935365</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.1452173888755457</c:v>
+                  <c:v>2.8732508616788923</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.7100709453609015</c:v>
+                  <c:v>2.4381044181642482</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.2749245018462574</c:v>
+                  <c:v>2.002957974649604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -533,11 +533,11 @@
         </c:dLbls>
         <c:gapWidth val="40"/>
         <c:overlap val="-10"/>
-        <c:axId val="187867904"/>
-        <c:axId val="187864376"/>
+        <c:axId val="222589152"/>
+        <c:axId val="224500376"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="187867904"/>
+        <c:axId val="222589152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -576,14 +576,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187864376"/>
+        <c:crossAx val="224500376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="187864376"/>
+        <c:axId val="224500376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -629,7 +629,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187867904"/>
+        <c:crossAx val="222589152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -698,7 +698,7 @@
         <xdr:cNvPr id="2" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -734,7 +734,7 @@
         <xdr:cNvPr id="4" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1120,10 +1120,10 @@
   <dimension ref="A1:IV53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1731,7 +1731,9 @@
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3">
+        <v>4</v>
+      </c>
       <c r="F17" s="4">
         <f t="shared" si="6"/>
         <v>6.4088157152353773</v>
@@ -1781,7 +1783,7 @@
       </c>
       <c r="I18" s="4">
         <f t="shared" si="3"/>
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="4"/>
@@ -1816,7 +1818,7 @@
       </c>
       <c r="I19" s="4">
         <f t="shared" si="3"/>
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="4"/>
@@ -1832,7 +1834,7 @@
         <v>41646</v>
       </c>
       <c r="B20" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1851,11 +1853,11 @@
       </c>
       <c r="I20" s="4">
         <f t="shared" si="3"/>
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="4"/>
-        <v>5.7560960499634106</v>
+        <v>5.4841295227667572</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" si="5"/>
@@ -1874,7 +1876,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="4">
         <f t="shared" si="6"/>
-        <v>5.7560960499634106</v>
+        <v>5.4841295227667572</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="2"/>
@@ -1886,11 +1888,11 @@
       </c>
       <c r="I21" s="4">
         <f t="shared" si="3"/>
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="4"/>
-        <v>5.3209496064487665</v>
+        <v>5.0489830792521131</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" si="5"/>
@@ -1909,7 +1911,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="4">
         <f t="shared" si="6"/>
-        <v>5.3209496064487665</v>
+        <v>5.0489830792521131</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="2"/>
@@ -1921,11 +1923,11 @@
       </c>
       <c r="I22" s="4">
         <f t="shared" si="3"/>
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="4"/>
-        <v>4.8858031629341223</v>
+        <v>4.6138366357374689</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" si="5"/>
@@ -1944,7 +1946,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="4">
         <f t="shared" si="6"/>
-        <v>4.8858031629341223</v>
+        <v>4.6138366357374689</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="2"/>
@@ -1956,11 +1958,11 @@
       </c>
       <c r="I23" s="4">
         <f t="shared" si="3"/>
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="4"/>
-        <v>4.4506567194194782</v>
+        <v>4.1786901922228248</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="5"/>
@@ -1979,7 +1981,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="4">
         <f t="shared" si="6"/>
-        <v>4.4506567194194782</v>
+        <v>4.1786901922228248</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="2"/>
@@ -1991,11 +1993,11 @@
       </c>
       <c r="I24" s="4">
         <f t="shared" si="3"/>
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="4"/>
-        <v>4.015510275904834</v>
+        <v>3.7435437487081806</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="5"/>
@@ -2014,7 +2016,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="4">
         <f t="shared" si="6"/>
-        <v>4.015510275904834</v>
+        <v>3.7435437487081806</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="2"/>
@@ -2026,11 +2028,11 @@
       </c>
       <c r="I25" s="4">
         <f t="shared" si="3"/>
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="4"/>
-        <v>3.5803638323901898</v>
+        <v>3.3083973051935365</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="5"/>
@@ -2049,7 +2051,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="4">
         <f t="shared" si="6"/>
-        <v>3.5803638323901898</v>
+        <v>3.3083973051935365</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="2"/>
@@ -2061,11 +2063,11 @@
       </c>
       <c r="I26" s="4">
         <f t="shared" si="3"/>
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="4"/>
-        <v>3.5803638323901898</v>
+        <v>3.3083973051935365</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="5"/>
@@ -2084,7 +2086,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="4">
         <f t="shared" si="6"/>
-        <v>3.5803638323901898</v>
+        <v>3.3083973051935365</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="2"/>
@@ -2096,11 +2098,11 @@
       </c>
       <c r="I27" s="4">
         <f t="shared" si="3"/>
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="4"/>
-        <v>3.1452173888755457</v>
+        <v>2.8732508616788923</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="5"/>
@@ -2119,7 +2121,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4">
         <f t="shared" si="6"/>
-        <v>3.1452173888755457</v>
+        <v>2.8732508616788923</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="2"/>
@@ -2131,11 +2133,11 @@
       </c>
       <c r="I28" s="4">
         <f t="shared" si="3"/>
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="4"/>
-        <v>2.7100709453609015</v>
+        <v>2.4381044181642482</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="5"/>
@@ -2154,7 +2156,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4">
         <f t="shared" si="6"/>
-        <v>2.7100709453609015</v>
+        <v>2.4381044181642482</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="2"/>
@@ -2166,11 +2168,11 @@
       </c>
       <c r="I29" s="4">
         <f t="shared" si="3"/>
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="4"/>
-        <v>2.2749245018462574</v>
+        <v>2.002957974649604</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="5"/>
@@ -2189,7 +2191,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="4">
         <f t="shared" si="6"/>
-        <v>2.2749245018462574</v>
+        <v>2.002957974649604</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="2"/>
@@ -2201,11 +2203,11 @@
       </c>
       <c r="I30" s="4">
         <f t="shared" si="3"/>
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="4"/>
-        <v>1.839778058331613</v>
+        <v>1.5678115311349596</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="5"/>
@@ -2224,7 +2226,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="4">
         <f t="shared" si="6"/>
-        <v>1.839778058331613</v>
+        <v>1.5678115311349596</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="2"/>
@@ -2236,11 +2238,11 @@
       </c>
       <c r="I31" s="4">
         <f t="shared" si="3"/>
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="4"/>
-        <v>1.4046316148169686</v>
+        <v>1.1326650876203153</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="5"/>
@@ -2259,7 +2261,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4">
         <f t="shared" si="6"/>
-        <v>1.4046316148169686</v>
+        <v>1.1326650876203153</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="2"/>
@@ -2271,11 +2273,11 @@
       </c>
       <c r="I32" s="4">
         <f t="shared" si="3"/>
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="4"/>
-        <v>0.96948517130232426</v>
+        <v>0.69751864410567088</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="5"/>
@@ -2294,7 +2296,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4">
         <f t="shared" si="6"/>
-        <v>0.96948517130232426</v>
+        <v>0.69751864410567088</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="2"/>
@@ -2306,11 +2308,11 @@
       </c>
       <c r="I33" s="4">
         <f t="shared" si="3"/>
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="J33" s="4">
         <f t="shared" si="4"/>
-        <v>0.53433872778767988</v>
+        <v>0.26237220059102651</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="5"/>
@@ -2330,7 +2332,7 @@
       </c>
       <c r="E34" s="9">
         <f>AVERAGE(E3:E29)</f>
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>

--- a/01_Planning/ProductBurndown.xlsx
+++ b/01_Planning/ProductBurndown.xlsx
@@ -488,31 +488,31 @@
                   <c:v>5.4841295227667572</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.0489830792521131</c:v>
+                  <c:v>4.6138366357374689</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.6138366357374689</c:v>
+                  <c:v>4.1786901922228248</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.1786901922228248</c:v>
+                  <c:v>3.7435437487081806</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.7435437487081806</c:v>
+                  <c:v>3.3083973051935365</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.3083973051935365</c:v>
+                  <c:v>2.8732508616788923</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.3083973051935365</c:v>
+                  <c:v>2.8732508616788923</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.8732508616788923</c:v>
+                  <c:v>2.4381044181642482</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.4381044181642482</c:v>
+                  <c:v>2.002957974649604</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.002957974649604</c:v>
+                  <c:v>1.5678115311349596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -533,11 +533,11 @@
         </c:dLbls>
         <c:gapWidth val="40"/>
         <c:overlap val="-10"/>
-        <c:axId val="222589152"/>
-        <c:axId val="224500376"/>
+        <c:axId val="222299384"/>
+        <c:axId val="222309968"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="222589152"/>
+        <c:axId val="222299384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -576,14 +576,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224500376"/>
+        <c:crossAx val="222309968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="224500376"/>
+        <c:axId val="222309968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -629,7 +629,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222589152"/>
+        <c:crossAx val="222299384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -698,7 +698,7 @@
         <xdr:cNvPr id="2" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -734,7 +734,7 @@
         <xdr:cNvPr id="4" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1120,10 +1120,10 @@
   <dimension ref="A1:IV53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1838,7 +1838,9 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3">
+        <v>13</v>
+      </c>
       <c r="F20" s="4">
         <f t="shared" si="6"/>
         <v>6.1912424934780548</v>
@@ -1869,7 +1871,7 @@
         <v>41653</v>
       </c>
       <c r="B21" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1888,11 +1890,11 @@
       </c>
       <c r="I21" s="4">
         <f t="shared" si="3"/>
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="4"/>
-        <v>5.0489830792521131</v>
+        <v>4.6138366357374689</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" si="5"/>
@@ -1911,7 +1913,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="4">
         <f t="shared" si="6"/>
-        <v>5.0489830792521131</v>
+        <v>4.6138366357374689</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="2"/>
@@ -1923,11 +1925,11 @@
       </c>
       <c r="I22" s="4">
         <f t="shared" si="3"/>
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="4"/>
-        <v>4.6138366357374689</v>
+        <v>4.1786901922228248</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" si="5"/>
@@ -1946,7 +1948,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="4">
         <f t="shared" si="6"/>
-        <v>4.6138366357374689</v>
+        <v>4.1786901922228248</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="2"/>
@@ -1958,11 +1960,11 @@
       </c>
       <c r="I23" s="4">
         <f t="shared" si="3"/>
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="4"/>
-        <v>4.1786901922228248</v>
+        <v>3.7435437487081806</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="5"/>
@@ -1981,7 +1983,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="4">
         <f t="shared" si="6"/>
-        <v>4.1786901922228248</v>
+        <v>3.7435437487081806</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="2"/>
@@ -1993,11 +1995,11 @@
       </c>
       <c r="I24" s="4">
         <f t="shared" si="3"/>
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="4"/>
-        <v>3.7435437487081806</v>
+        <v>3.3083973051935365</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="5"/>
@@ -2016,7 +2018,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="4">
         <f t="shared" si="6"/>
-        <v>3.7435437487081806</v>
+        <v>3.3083973051935365</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="2"/>
@@ -2028,11 +2030,11 @@
       </c>
       <c r="I25" s="4">
         <f t="shared" si="3"/>
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="4"/>
-        <v>3.3083973051935365</v>
+        <v>2.8732508616788923</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="5"/>
@@ -2051,7 +2053,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="4">
         <f t="shared" si="6"/>
-        <v>3.3083973051935365</v>
+        <v>2.8732508616788923</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="2"/>
@@ -2063,11 +2065,11 @@
       </c>
       <c r="I26" s="4">
         <f t="shared" si="3"/>
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="4"/>
-        <v>3.3083973051935365</v>
+        <v>2.8732508616788923</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="5"/>
@@ -2086,7 +2088,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="4">
         <f t="shared" si="6"/>
-        <v>3.3083973051935365</v>
+        <v>2.8732508616788923</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="2"/>
@@ -2098,11 +2100,11 @@
       </c>
       <c r="I27" s="4">
         <f t="shared" si="3"/>
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="4"/>
-        <v>2.8732508616788923</v>
+        <v>2.4381044181642482</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="5"/>
@@ -2121,7 +2123,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4">
         <f t="shared" si="6"/>
-        <v>2.8732508616788923</v>
+        <v>2.4381044181642482</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="2"/>
@@ -2133,11 +2135,11 @@
       </c>
       <c r="I28" s="4">
         <f t="shared" si="3"/>
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="4"/>
-        <v>2.4381044181642482</v>
+        <v>2.002957974649604</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="5"/>
@@ -2156,7 +2158,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4">
         <f t="shared" si="6"/>
-        <v>2.4381044181642482</v>
+        <v>2.002957974649604</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="2"/>
@@ -2168,11 +2170,11 @@
       </c>
       <c r="I29" s="4">
         <f t="shared" si="3"/>
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="4"/>
-        <v>2.002957974649604</v>
+        <v>1.5678115311349596</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="5"/>
@@ -2191,7 +2193,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="4">
         <f t="shared" si="6"/>
-        <v>2.002957974649604</v>
+        <v>1.5678115311349596</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="2"/>
@@ -2203,11 +2205,11 @@
       </c>
       <c r="I30" s="4">
         <f t="shared" si="3"/>
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="4"/>
-        <v>1.5678115311349596</v>
+        <v>1.1326650876203153</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="5"/>
@@ -2226,7 +2228,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="4">
         <f t="shared" si="6"/>
-        <v>1.5678115311349596</v>
+        <v>1.1326650876203153</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="2"/>
@@ -2238,11 +2240,11 @@
       </c>
       <c r="I31" s="4">
         <f t="shared" si="3"/>
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="4"/>
-        <v>1.1326650876203153</v>
+        <v>0.69751864410567088</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="5"/>
@@ -2261,7 +2263,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4">
         <f t="shared" si="6"/>
-        <v>1.1326650876203153</v>
+        <v>0.69751864410567088</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="2"/>
@@ -2273,11 +2275,11 @@
       </c>
       <c r="I32" s="4">
         <f t="shared" si="3"/>
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="4"/>
-        <v>0.69751864410567088</v>
+        <v>0.26237220059102651</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="5"/>
@@ -2296,7 +2298,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4">
         <f t="shared" si="6"/>
-        <v>0.69751864410567088</v>
+        <v>0.26237220059102651</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="2"/>
@@ -2308,11 +2310,11 @@
       </c>
       <c r="I33" s="4">
         <f t="shared" si="3"/>
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="J33" s="4">
         <f t="shared" si="4"/>
-        <v>0.26237220059102651</v>
+        <v>0</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="5"/>
@@ -2332,7 +2334,7 @@
       </c>
       <c r="E34" s="9">
         <f>AVERAGE(E3:E29)</f>
-        <v>11</v>
+        <v>11.125</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>

--- a/01_Planning/ProductBurndown.xlsx
+++ b/01_Planning/ProductBurndown.xlsx
@@ -97,13 +97,13 @@
     <font>
       <sz val="12"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -491,28 +491,28 @@
                   <c:v>4.6138366357374689</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.1786901922228248</c:v>
+                  <c:v>3.9611169704655023</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.7435437487081806</c:v>
+                  <c:v>3.5259705269508581</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.3083973051935365</c:v>
+                  <c:v>3.090824083436214</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.8732508616788923</c:v>
+                  <c:v>2.6556776399215698</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.8732508616788923</c:v>
+                  <c:v>2.6556776399215698</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.4381044181642482</c:v>
+                  <c:v>2.2205311964069256</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.002957974649604</c:v>
+                  <c:v>1.7853847528922813</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.5678115311349596</c:v>
+                  <c:v>1.3502383093776369</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -533,11 +533,11 @@
         </c:dLbls>
         <c:gapWidth val="40"/>
         <c:overlap val="-10"/>
-        <c:axId val="222299384"/>
-        <c:axId val="222309968"/>
+        <c:axId val="126699608"/>
+        <c:axId val="126700000"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="222299384"/>
+        <c:axId val="126699608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -576,14 +576,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222309968"/>
+        <c:crossAx val="126700000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="222309968"/>
+        <c:axId val="126700000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -629,7 +629,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222299384"/>
+        <c:crossAx val="126699608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -1120,10 +1120,10 @@
   <dimension ref="A1:IV53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1875,7 +1875,9 @@
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3">
+        <v>19</v>
+      </c>
       <c r="F21" s="4">
         <f t="shared" si="6"/>
         <v>5.4841295227667572</v>
@@ -1906,7 +1908,7 @@
         <v>41660</v>
       </c>
       <c r="B22" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1925,11 +1927,11 @@
       </c>
       <c r="I22" s="4">
         <f t="shared" si="3"/>
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="4"/>
-        <v>4.1786901922228248</v>
+        <v>3.9611169704655023</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" si="5"/>
@@ -1948,7 +1950,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="4">
         <f t="shared" si="6"/>
-        <v>4.1786901922228248</v>
+        <v>3.9611169704655023</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="2"/>
@@ -1960,11 +1962,11 @@
       </c>
       <c r="I23" s="4">
         <f t="shared" si="3"/>
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="4"/>
-        <v>3.7435437487081806</v>
+        <v>3.5259705269508581</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="5"/>
@@ -1983,7 +1985,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="4">
         <f t="shared" si="6"/>
-        <v>3.7435437487081806</v>
+        <v>3.5259705269508581</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="2"/>
@@ -1995,11 +1997,11 @@
       </c>
       <c r="I24" s="4">
         <f t="shared" si="3"/>
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="4"/>
-        <v>3.3083973051935365</v>
+        <v>3.090824083436214</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="5"/>
@@ -2018,7 +2020,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="4">
         <f t="shared" si="6"/>
-        <v>3.3083973051935365</v>
+        <v>3.090824083436214</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="2"/>
@@ -2030,11 +2032,11 @@
       </c>
       <c r="I25" s="4">
         <f t="shared" si="3"/>
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="4"/>
-        <v>2.8732508616788923</v>
+        <v>2.6556776399215698</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="5"/>
@@ -2053,7 +2055,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="4">
         <f t="shared" si="6"/>
-        <v>2.8732508616788923</v>
+        <v>2.6556776399215698</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="2"/>
@@ -2065,11 +2067,11 @@
       </c>
       <c r="I26" s="4">
         <f t="shared" si="3"/>
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="4"/>
-        <v>2.8732508616788923</v>
+        <v>2.6556776399215698</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="5"/>
@@ -2088,7 +2090,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="4">
         <f t="shared" si="6"/>
-        <v>2.8732508616788923</v>
+        <v>2.6556776399215698</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="2"/>
@@ -2100,11 +2102,11 @@
       </c>
       <c r="I27" s="4">
         <f t="shared" si="3"/>
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="4"/>
-        <v>2.4381044181642482</v>
+        <v>2.2205311964069256</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="5"/>
@@ -2123,7 +2125,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4">
         <f t="shared" si="6"/>
-        <v>2.4381044181642482</v>
+        <v>2.2205311964069256</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="2"/>
@@ -2135,11 +2137,11 @@
       </c>
       <c r="I28" s="4">
         <f t="shared" si="3"/>
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="4"/>
-        <v>2.002957974649604</v>
+        <v>1.7853847528922813</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="5"/>
@@ -2158,7 +2160,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4">
         <f t="shared" si="6"/>
-        <v>2.002957974649604</v>
+        <v>1.7853847528922813</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="2"/>
@@ -2170,11 +2172,11 @@
       </c>
       <c r="I29" s="4">
         <f t="shared" si="3"/>
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="4"/>
-        <v>1.5678115311349596</v>
+        <v>1.3502383093776369</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="5"/>
@@ -2193,7 +2195,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="4">
         <f t="shared" si="6"/>
-        <v>1.5678115311349596</v>
+        <v>1.3502383093776369</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="2"/>
@@ -2205,11 +2207,11 @@
       </c>
       <c r="I30" s="4">
         <f t="shared" si="3"/>
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="4"/>
-        <v>1.1326650876203153</v>
+        <v>0.91509186586299252</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="5"/>
@@ -2228,7 +2230,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="4">
         <f t="shared" si="6"/>
-        <v>1.1326650876203153</v>
+        <v>0.91509186586299252</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="2"/>
@@ -2240,11 +2242,11 @@
       </c>
       <c r="I31" s="4">
         <f t="shared" si="3"/>
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="4"/>
-        <v>0.69751864410567088</v>
+        <v>0.47994542234834814</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="5"/>
@@ -2263,7 +2265,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4">
         <f t="shared" si="6"/>
-        <v>0.69751864410567088</v>
+        <v>0.47994542234834814</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="2"/>
@@ -2275,11 +2277,11 @@
       </c>
       <c r="I32" s="4">
         <f t="shared" si="3"/>
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="4"/>
-        <v>0.26237220059102651</v>
+        <v>4.4798978833703762E-2</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="5"/>
@@ -2298,7 +2300,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4">
         <f t="shared" si="6"/>
-        <v>0.26237220059102651</v>
+        <v>4.4798978833703762E-2</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="2"/>
@@ -2310,7 +2312,7 @@
       </c>
       <c r="I33" s="4">
         <f t="shared" si="3"/>
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="J33" s="4">
         <f t="shared" si="4"/>
@@ -2334,7 +2336,7 @@
       </c>
       <c r="E34" s="9">
         <f>AVERAGE(E3:E29)</f>
-        <v>11.125</v>
+        <v>11.588235294117647</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>

--- a/01_Planning/ProductBurndown.xlsx
+++ b/01_Planning/ProductBurndown.xlsx
@@ -491,28 +491,28 @@
                   <c:v>4.6138366357374689</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.9611169704655023</c:v>
+                  <c:v>2.6138366357374689</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.5259705269508581</c:v>
+                  <c:v>1.893836635737469</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.090824083436214</c:v>
+                  <c:v>1.413836635737469</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.6556776399215698</c:v>
+                  <c:v>0.933836635737469</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.6556776399215698</c:v>
+                  <c:v>0.933836635737469</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.2205311964069256</c:v>
+                  <c:v>0.45383663573746902</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.7853847528922813</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.3502383093776369</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -533,11 +533,11 @@
         </c:dLbls>
         <c:gapWidth val="40"/>
         <c:overlap val="-10"/>
-        <c:axId val="126699608"/>
-        <c:axId val="126700000"/>
+        <c:axId val="199854496"/>
+        <c:axId val="199857632"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="126699608"/>
+        <c:axId val="199854496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -576,14 +576,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126700000"/>
+        <c:crossAx val="199857632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="126700000"/>
+        <c:axId val="199857632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -629,7 +629,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126699608"/>
+        <c:crossAx val="199854496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -1120,10 +1120,10 @@
   <dimension ref="A1:IV53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
+      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1910,12 +1910,18 @@
       <c r="B22" s="3">
         <v>12</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="C22" s="3">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>13</v>
+      </c>
       <c r="F22" s="4">
         <f t="shared" si="6"/>
-        <v>4.6138366357374689</v>
+        <v>7.6138366357374689</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="2"/>
@@ -1923,7 +1929,7 @@
       </c>
       <c r="H22" s="4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I22" s="4">
         <f t="shared" si="3"/>
@@ -1931,11 +1937,11 @@
       </c>
       <c r="J22" s="4">
         <f t="shared" si="4"/>
-        <v>3.9611169704655023</v>
+        <v>2.6138366357374689</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" si="5"/>
-        <v>5.4393305439330547E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1943,34 +1949,34 @@
         <v>41667</v>
       </c>
       <c r="B23" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="4">
         <f t="shared" si="6"/>
-        <v>3.9611169704655023</v>
+        <v>2.6138366357374689</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H23" s="4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I23" s="4">
         <f t="shared" si="3"/>
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="4"/>
-        <v>3.5259705269508581</v>
+        <v>1.893836635737469</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="5"/>
-        <v>5.4393305439330547E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1985,27 +1991,27 @@
       <c r="E24" s="3"/>
       <c r="F24" s="4">
         <f t="shared" si="6"/>
-        <v>3.5259705269508581</v>
+        <v>1.893836635737469</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H24" s="4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I24" s="4">
         <f t="shared" si="3"/>
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="4"/>
-        <v>3.090824083436214</v>
+        <v>1.413836635737469</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="5"/>
-        <v>5.4393305439330547E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2020,27 +2026,27 @@
       <c r="E25" s="3"/>
       <c r="F25" s="4">
         <f t="shared" si="6"/>
-        <v>3.090824083436214</v>
+        <v>1.413836635737469</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H25" s="4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I25" s="4">
         <f t="shared" si="3"/>
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="4"/>
-        <v>2.6556776399215698</v>
+        <v>0.933836635737469</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="5"/>
-        <v>5.4393305439330547E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2055,27 +2061,27 @@
       <c r="E26" s="3"/>
       <c r="F26" s="4">
         <f t="shared" si="6"/>
-        <v>2.6556776399215698</v>
+        <v>0.933836635737469</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H26" s="4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I26" s="4">
         <f t="shared" si="3"/>
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="4"/>
-        <v>2.6556776399215698</v>
+        <v>0.933836635737469</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="5"/>
-        <v>5.4393305439330547E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2090,27 +2096,27 @@
       <c r="E27" s="3"/>
       <c r="F27" s="4">
         <f t="shared" si="6"/>
-        <v>2.6556776399215698</v>
+        <v>0.933836635737469</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H27" s="4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I27" s="4">
         <f t="shared" si="3"/>
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="4"/>
-        <v>2.2205311964069256</v>
+        <v>0.45383663573746902</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="5"/>
-        <v>5.4393305439330547E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2125,27 +2131,27 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4">
         <f t="shared" si="6"/>
-        <v>2.2205311964069256</v>
+        <v>0.45383663573746902</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H28" s="4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I28" s="4">
         <f t="shared" si="3"/>
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="4"/>
-        <v>1.7853847528922813</v>
+        <v>0</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="5"/>
-        <v>5.4393305439330547E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2160,27 +2166,27 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4">
         <f t="shared" si="6"/>
-        <v>1.7853847528922813</v>
+        <v>0</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H29" s="4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I29" s="4">
         <f t="shared" si="3"/>
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="4"/>
-        <v>1.3502383093776369</v>
+        <v>0</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="5"/>
-        <v>5.4393305439330547E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2195,27 +2201,27 @@
       <c r="E30" s="3"/>
       <c r="F30" s="4">
         <f t="shared" si="6"/>
-        <v>1.3502383093776369</v>
+        <v>0</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H30" s="4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I30" s="4">
         <f t="shared" si="3"/>
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="4"/>
-        <v>0.91509186586299252</v>
+        <v>0</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="5"/>
-        <v>5.4393305439330547E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2230,27 +2236,27 @@
       <c r="E31" s="3"/>
       <c r="F31" s="4">
         <f t="shared" si="6"/>
-        <v>0.91509186586299252</v>
+        <v>0</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H31" s="4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I31" s="4">
         <f t="shared" si="3"/>
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="4"/>
-        <v>0.47994542234834814</v>
+        <v>0</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="5"/>
-        <v>5.4393305439330547E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2265,27 +2271,27 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4">
         <f t="shared" si="6"/>
-        <v>0.47994542234834814</v>
+        <v>0</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H32" s="4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I32" s="4">
         <f t="shared" si="3"/>
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="4"/>
-        <v>4.4798978833703762E-2</v>
+        <v>0</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="5"/>
-        <v>5.4393305439330547E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2300,19 +2306,19 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4">
         <f t="shared" si="6"/>
-        <v>4.4798978833703762E-2</v>
+        <v>0</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H33" s="4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I33" s="4">
         <f t="shared" si="3"/>
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="J33" s="4">
         <f t="shared" si="4"/>
@@ -2320,7 +2326,7 @@
       </c>
       <c r="K33" s="7">
         <f t="shared" si="5"/>
-        <v>5.4393305439330547E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2332,11 +2338,11 @@
       <c r="C34" s="9"/>
       <c r="D34" s="9">
         <f>AVERAGE(D3:D29)</f>
-        <v>2.4</v>
+        <v>2.8333333333333335</v>
       </c>
       <c r="E34" s="9">
         <f>AVERAGE(E3:E29)</f>
-        <v>11.588235294117647</v>
+        <v>11.666666666666666</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>

--- a/01_Planning/ProductBurndown.xlsx
+++ b/01_Planning/ProductBurndown.xlsx
@@ -497,19 +497,19 @@
                   <c:v>1.893836635737469</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.413836635737469</c:v>
+                  <c:v>1.173836635737469</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.933836635737469</c:v>
+                  <c:v>1.173836635737469</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.933836635737469</c:v>
+                  <c:v>1.173836635737469</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.45383663573746902</c:v>
+                  <c:v>0.81383663573746901</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.33383663573746902</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0</c:v>
@@ -533,11 +533,11 @@
         </c:dLbls>
         <c:gapWidth val="40"/>
         <c:overlap val="-10"/>
-        <c:axId val="199854496"/>
-        <c:axId val="199857632"/>
+        <c:axId val="224633488"/>
+        <c:axId val="224630744"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="199854496"/>
+        <c:axId val="224633488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -576,14 +576,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199857632"/>
+        <c:crossAx val="224630744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="199857632"/>
+        <c:axId val="224630744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -629,7 +629,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199854496"/>
+        <c:crossAx val="224633488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -698,7 +698,7 @@
         <xdr:cNvPr id="2" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -734,7 +734,7 @@
         <xdr:cNvPr id="4" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1117,13 +1117,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV53"/>
+  <dimension ref="A1:IV54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomRight" activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1215,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="4">
-        <f t="shared" ref="H3:H33" si="0">G3+D3</f>
+        <f t="shared" ref="H3:H34" si="0">G3+D3</f>
         <v>1</v>
       </c>
       <c r="I3" s="4">
@@ -1285,7 +1285,7 @@
         <v>18.857142857142858</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" ref="G5:G33" si="2">H4</f>
+        <f t="shared" ref="G5:G32" si="2">H4</f>
         <v>1</v>
       </c>
       <c r="H5" s="4">
@@ -1293,15 +1293,15 @@
         <v>1</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" ref="I5:I33" si="3">I4+E4</f>
+        <f t="shared" ref="I5:I32" si="3">I4+E4</f>
         <v>107</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" ref="J5:J33" si="4">MAX(IF(OR(ISBLANK(D5),ISBLANK(E5)),F5-K4*B5,F5-D5),0)</f>
+        <f t="shared" ref="J5:J32" si="4">MAX(IF(OR(ISBLANK(D5),ISBLANK(E5)),F5-K4*B5,F5-D5),0)</f>
         <v>18.651535380507344</v>
       </c>
       <c r="K5" s="7">
-        <f t="shared" ref="K5:K33" si="5">IF(OR(ISBLANK(D5),ISBLANK(E5)),K4,H5/(I5+E5))</f>
+        <f t="shared" ref="K5:K32" si="5">IF(OR(ISBLANK(D5),ISBLANK(E5)),K4,H5/(I5+E5))</f>
         <v>9.3457943925233638E-3</v>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" ref="F11:F33" si="6">J10+C11</f>
+        <f t="shared" ref="F11:F32" si="6">J10+C11</f>
         <v>11.901535380507344</v>
       </c>
       <c r="G11" s="4">
@@ -1953,7 +1953,9 @@
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3">
+        <v>12</v>
+      </c>
       <c r="F23" s="4">
         <f t="shared" si="6"/>
         <v>2.6138366357374689</v>
@@ -1984,11 +1986,13 @@
         <v>41674</v>
       </c>
       <c r="B24" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3">
+        <v>3</v>
+      </c>
       <c r="F24" s="4">
         <f t="shared" si="6"/>
         <v>1.893836635737469</v>
@@ -2003,11 +2007,11 @@
       </c>
       <c r="I24" s="4">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="4"/>
-        <v>1.413836635737469</v>
+        <v>1.173836635737469</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="5"/>
@@ -2019,14 +2023,16 @@
         <v>41681</v>
       </c>
       <c r="B25" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
       <c r="F25" s="4">
         <f t="shared" si="6"/>
-        <v>1.413836635737469</v>
+        <v>1.173836635737469</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="2"/>
@@ -2038,11 +2044,11 @@
       </c>
       <c r="I25" s="4">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="4"/>
-        <v>0.933836635737469</v>
+        <v>1.173836635737469</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="5"/>
@@ -2058,10 +2064,12 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
       <c r="F26" s="4">
         <f t="shared" si="6"/>
-        <v>0.933836635737469</v>
+        <v>1.173836635737469</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="2"/>
@@ -2073,11 +2081,11 @@
       </c>
       <c r="I26" s="4">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="4"/>
-        <v>0.933836635737469</v>
+        <v>1.173836635737469</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="5"/>
@@ -2089,14 +2097,14 @@
         <v>41695</v>
       </c>
       <c r="B27" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="4">
         <f t="shared" si="6"/>
-        <v>0.933836635737469</v>
+        <v>1.173836635737469</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="2"/>
@@ -2108,11 +2116,11 @@
       </c>
       <c r="I27" s="4">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="4"/>
-        <v>0.45383663573746902</v>
+        <v>0.81383663573746901</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="5"/>
@@ -2131,7 +2139,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4">
         <f t="shared" si="6"/>
-        <v>0.45383663573746902</v>
+        <v>0.81383663573746901</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="2"/>
@@ -2143,11 +2151,11 @@
       </c>
       <c r="I28" s="4">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.33383663573746902</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="5"/>
@@ -2166,7 +2174,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.33383663573746902</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="2"/>
@@ -2178,7 +2186,7 @@
       </c>
       <c r="I29" s="4">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="4"/>
@@ -2213,7 +2221,7 @@
       </c>
       <c r="I30" s="4">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="4"/>
@@ -2229,7 +2237,7 @@
         <v>41723</v>
       </c>
       <c r="B31" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -2248,7 +2256,7 @@
       </c>
       <c r="I31" s="4">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="4"/>
@@ -2264,7 +2272,7 @@
         <v>41730</v>
       </c>
       <c r="B32" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2283,7 +2291,7 @@
       </c>
       <c r="I32" s="4">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="4"/>
@@ -2305,11 +2313,11 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="4">
-        <f t="shared" si="6"/>
+        <f>J32+C33</f>
         <v>0</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="2"/>
+        <f>H32</f>
         <v>18</v>
       </c>
       <c r="H33" s="4">
@@ -2317,41 +2325,75 @@
         <v>18</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" si="3"/>
-        <v>300</v>
+        <f>I32+E32</f>
+        <v>315</v>
       </c>
       <c r="J33" s="4">
-        <f t="shared" si="4"/>
+        <f>MAX(IF(OR(ISBLANK(D33),ISBLANK(E33)),F33-K32*B33,F33-D33),0)</f>
         <v>0</v>
       </c>
       <c r="K33" s="7">
-        <f t="shared" si="5"/>
+        <f>IF(OR(ISBLANK(D33),ISBLANK(E33)),K32,H33/(I33+E33))</f>
         <v>0.06</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9">
+      <c r="A34" s="5">
+        <v>41744</v>
+      </c>
+      <c r="B34" s="3">
+        <v>8</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="4">
+        <f>J33+C34</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="4">
+        <f>H33</f>
+        <v>18</v>
+      </c>
+      <c r="H34" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="I34" s="4">
+        <f>I33+E33</f>
+        <v>315</v>
+      </c>
+      <c r="J34" s="4">
+        <f>MAX(IF(OR(ISBLANK(D34),ISBLANK(E34)),F34-K33*B34,F34-D34),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="7">
+        <f>IF(OR(ISBLANK(D34),ISBLANK(E34)),K33,H34/(I34+E34))</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9">
         <f>SUM(B3:B8)</f>
         <v>78</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9">
+      <c r="C35" s="9"/>
+      <c r="D35" s="9">
         <f>AVERAGE(D3:D29)</f>
         <v>2.8333333333333335</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E35" s="9">
         <f>AVERAGE(E3:E29)</f>
-        <v>11.666666666666666</v>
-      </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="10"/>
-    </row>
-    <row r="35" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>10.227272727272727</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="10"/>
+    </row>
     <row r="36" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2364,12 +2406,13 @@
     <row r="45" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="20.65" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="20.65" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="20.65" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="52" ht="20.65" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="53" ht="20.65" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="20.65" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>

--- a/01_Planning/ProductBurndown.xlsx
+++ b/01_Planning/ProductBurndown.xlsx
@@ -509,7 +509,7 @@
                   <c:v>0.81383663573746901</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.33383663573746902</c:v>
+                  <c:v>9.3836635737469032E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0</c:v>
@@ -533,11 +533,11 @@
         </c:dLbls>
         <c:gapWidth val="40"/>
         <c:overlap val="-10"/>
-        <c:axId val="224633488"/>
-        <c:axId val="224630744"/>
+        <c:axId val="222909088"/>
+        <c:axId val="222905952"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="224633488"/>
+        <c:axId val="222909088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -576,14 +576,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224630744"/>
+        <c:crossAx val="222905952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="224630744"/>
+        <c:axId val="222905952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -629,7 +629,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224633488"/>
+        <c:crossAx val="222909088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -698,7 +698,7 @@
         <xdr:cNvPr id="2" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -734,7 +734,7 @@
         <xdr:cNvPr id="4" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1123,7 +1123,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L34" sqref="L34"/>
+      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2101,7 +2101,9 @@
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3">
+        <v>5</v>
+      </c>
       <c r="F27" s="4">
         <f t="shared" si="6"/>
         <v>1.173836635737469</v>
@@ -2132,7 +2134,7 @@
         <v>41702</v>
       </c>
       <c r="B28" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -2151,11 +2153,11 @@
       </c>
       <c r="I28" s="4">
         <f t="shared" si="3"/>
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="4"/>
-        <v>0.33383663573746902</v>
+        <v>9.3836635737469032E-2</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="5"/>
@@ -2174,7 +2176,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4">
         <f t="shared" si="6"/>
-        <v>0.33383663573746902</v>
+        <v>9.3836635737469032E-2</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="2"/>
@@ -2186,7 +2188,7 @@
       </c>
       <c r="I29" s="4">
         <f t="shared" si="3"/>
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="4"/>
@@ -2221,7 +2223,7 @@
       </c>
       <c r="I30" s="4">
         <f t="shared" si="3"/>
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="4"/>
@@ -2256,7 +2258,7 @@
       </c>
       <c r="I31" s="4">
         <f t="shared" si="3"/>
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="4"/>
@@ -2291,7 +2293,7 @@
       </c>
       <c r="I32" s="4">
         <f t="shared" si="3"/>
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="4"/>
@@ -2326,7 +2328,7 @@
       </c>
       <c r="I33" s="4">
         <f>I32+E32</f>
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="J33" s="4">
         <f>MAX(IF(OR(ISBLANK(D33),ISBLANK(E33)),F33-K32*B33,F33-D33),0)</f>
@@ -2361,7 +2363,7 @@
       </c>
       <c r="I34" s="4">
         <f>I33+E33</f>
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="J34" s="4">
         <f>MAX(IF(OR(ISBLANK(D34),ISBLANK(E34)),F34-K33*B34,F34-D34),0)</f>
@@ -2385,7 +2387,7 @@
       </c>
       <c r="E35" s="9">
         <f>AVERAGE(E3:E29)</f>
-        <v>10.227272727272727</v>
+        <v>10</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>

--- a/01_Planning/ProductBurndown.xlsx
+++ b/01_Planning/ProductBurndown.xlsx
@@ -533,11 +533,11 @@
         </c:dLbls>
         <c:gapWidth val="40"/>
         <c:overlap val="-10"/>
-        <c:axId val="222909088"/>
-        <c:axId val="222905952"/>
+        <c:axId val="521080640"/>
+        <c:axId val="521090440"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="222909088"/>
+        <c:axId val="521080640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -576,14 +576,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222905952"/>
+        <c:crossAx val="521090440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="222905952"/>
+        <c:axId val="521090440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -629,7 +629,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222909088"/>
+        <c:crossAx val="521080640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -698,7 +698,7 @@
         <xdr:cNvPr id="2" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -734,7 +734,7 @@
         <xdr:cNvPr id="4" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1123,7 +1123,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomRight" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2138,7 +2138,9 @@
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="E28" s="3">
+        <v>12</v>
+      </c>
       <c r="F28" s="4">
         <f t="shared" si="6"/>
         <v>0.81383663573746901</v>
@@ -2169,7 +2171,7 @@
         <v>41709</v>
       </c>
       <c r="B29" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -2188,7 +2190,7 @@
       </c>
       <c r="I29" s="4">
         <f t="shared" si="3"/>
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="4"/>
@@ -2223,7 +2225,7 @@
       </c>
       <c r="I30" s="4">
         <f t="shared" si="3"/>
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="4"/>
@@ -2258,7 +2260,7 @@
       </c>
       <c r="I31" s="4">
         <f t="shared" si="3"/>
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="4"/>
@@ -2293,7 +2295,7 @@
       </c>
       <c r="I32" s="4">
         <f t="shared" si="3"/>
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="4"/>
@@ -2328,7 +2330,7 @@
       </c>
       <c r="I33" s="4">
         <f>I32+E32</f>
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="J33" s="4">
         <f>MAX(IF(OR(ISBLANK(D33),ISBLANK(E33)),F33-K32*B33,F33-D33),0)</f>
@@ -2363,7 +2365,7 @@
       </c>
       <c r="I34" s="4">
         <f>I33+E33</f>
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="J34" s="4">
         <f>MAX(IF(OR(ISBLANK(D34),ISBLANK(E34)),F34-K33*B34,F34-D34),0)</f>
@@ -2387,7 +2389,7 @@
       </c>
       <c r="E35" s="9">
         <f>AVERAGE(E3:E29)</f>
-        <v>10</v>
+        <v>10.083333333333334</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>

--- a/01_Planning/ProductBurndown.xlsx
+++ b/01_Planning/ProductBurndown.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Initial</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Velocity (stpts / hour)</t>
+  </si>
+  <si>
+    <t>(Project Award Präsi)</t>
   </si>
 </sst>
 </file>
@@ -533,11 +536,11 @@
         </c:dLbls>
         <c:gapWidth val="40"/>
         <c:overlap val="-10"/>
-        <c:axId val="521080640"/>
-        <c:axId val="521090440"/>
+        <c:axId val="329073536"/>
+        <c:axId val="329074320"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="521080640"/>
+        <c:axId val="329073536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -576,14 +579,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521090440"/>
+        <c:crossAx val="329074320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="521090440"/>
+        <c:axId val="329074320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -629,7 +632,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521080640"/>
+        <c:crossAx val="329073536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -698,7 +701,7 @@
         <xdr:cNvPr id="2" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -734,7 +737,7 @@
         <xdr:cNvPr id="4" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1123,7 +1126,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I34" sqref="I34"/>
+      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1138,7 +1141,9 @@
     <col min="8" max="8" width="16.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.140625" style="1" customWidth="1"/>
-    <col min="11" max="256" width="14.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="27.7109375" style="1" customWidth="1"/>
+    <col min="13" max="256" width="14.42578125" style="1" customWidth="1"/>
     <col min="257" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1722,7 +1727,7 @@
         <v>5.4393305439330547E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>41625</v>
       </c>
@@ -1759,7 +1764,7 @@
         <v>5.4393305439330547E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>41632</v>
       </c>
@@ -1794,7 +1799,7 @@
         <v>5.4393305439330547E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>41639</v>
       </c>
@@ -1829,7 +1834,7 @@
         <v>5.4393305439330547E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>41646</v>
       </c>
@@ -1866,7 +1871,7 @@
         <v>5.4393305439330547E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>41653</v>
       </c>
@@ -1903,7 +1908,7 @@
         <v>5.4393305439330547E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>41660</v>
       </c>
@@ -1944,7 +1949,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>41667</v>
       </c>
@@ -1981,7 +1986,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>41674</v>
       </c>
@@ -2018,7 +2023,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>41681</v>
       </c>
@@ -2055,7 +2060,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>41688</v>
       </c>
@@ -2092,7 +2097,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>41695</v>
       </c>
@@ -2129,7 +2134,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>41702</v>
       </c>
@@ -2166,7 +2171,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>41709</v>
       </c>
@@ -2175,7 +2180,9 @@
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="E29" s="3">
+        <v>12</v>
+      </c>
       <c r="F29" s="4">
         <f t="shared" si="6"/>
         <v>9.3836635737469032E-2</v>
@@ -2201,16 +2208,18 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>41716</v>
       </c>
       <c r="B30" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
       <c r="F30" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2225,7 +2234,7 @@
       </c>
       <c r="I30" s="4">
         <f t="shared" si="3"/>
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="4"/>
@@ -2235,8 +2244,11 @@
         <f t="shared" si="5"/>
         <v>0.06</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L30" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>41723</v>
       </c>
@@ -2245,7 +2257,9 @@
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
       <c r="F31" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2260,7 +2274,7 @@
       </c>
       <c r="I31" s="4">
         <f t="shared" si="3"/>
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="4"/>
@@ -2271,7 +2285,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>41730</v>
       </c>
@@ -2295,7 +2309,7 @@
       </c>
       <c r="I32" s="4">
         <f t="shared" si="3"/>
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="4"/>
@@ -2311,7 +2325,7 @@
         <v>41737</v>
       </c>
       <c r="B33" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -2330,7 +2344,7 @@
       </c>
       <c r="I33" s="4">
         <f>I32+E32</f>
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="J33" s="4">
         <f>MAX(IF(OR(ISBLANK(D33),ISBLANK(E33)),F33-K32*B33,F33-D33),0)</f>
@@ -2365,7 +2379,7 @@
       </c>
       <c r="I34" s="4">
         <f>I33+E33</f>
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="J34" s="4">
         <f>MAX(IF(OR(ISBLANK(D34),ISBLANK(E34)),F34-K33*B34,F34-D34),0)</f>
@@ -2388,8 +2402,8 @@
         <v>2.8333333333333335</v>
       </c>
       <c r="E35" s="9">
-        <f>AVERAGE(E3:E29)</f>
-        <v>10.083333333333334</v>
+        <f>AVERAGE(E3:E31)</f>
+        <v>9.4074074074074066</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>

--- a/01_Planning/ProductBurndown.xlsx
+++ b/01_Planning/ProductBurndown.xlsx
@@ -536,11 +536,11 @@
         </c:dLbls>
         <c:gapWidth val="40"/>
         <c:overlap val="-10"/>
-        <c:axId val="329073536"/>
-        <c:axId val="329074320"/>
+        <c:axId val="176651728"/>
+        <c:axId val="176654864"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="329073536"/>
+        <c:axId val="176651728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -579,14 +579,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329074320"/>
+        <c:crossAx val="176654864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="329074320"/>
+        <c:axId val="176654864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -632,7 +632,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329073536"/>
+        <c:crossAx val="176651728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -701,7 +701,7 @@
         <xdr:cNvPr id="2" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -737,7 +737,7 @@
         <xdr:cNvPr id="4" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1126,7 +1126,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
+      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2329,7 +2329,9 @@
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="E33" s="3">
+        <v>14</v>
+      </c>
       <c r="F33" s="4">
         <f>J32+C33</f>
         <v>0</v>
@@ -2360,11 +2362,15 @@
         <v>41744</v>
       </c>
       <c r="B34" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="D34" s="3">
+        <v>5</v>
+      </c>
+      <c r="E34" s="3">
+        <v>12</v>
+      </c>
       <c r="F34" s="4">
         <f>J33+C34</f>
         <v>0</v>
@@ -2375,11 +2381,11 @@
       </c>
       <c r="H34" s="4">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I34" s="4">
         <f>I33+E33</f>
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="J34" s="4">
         <f>MAX(IF(OR(ISBLANK(D34),ISBLANK(E34)),F34-K33*B34,F34-D34),0)</f>
@@ -2387,7 +2393,7 @@
       </c>
       <c r="K34" s="7">
         <f>IF(OR(ISBLANK(D34),ISBLANK(E34)),K33,H34/(I34+E34))</f>
-        <v>0.06</v>
+        <v>6.2162162162162166E-2</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
